--- a/test_resource/codeextractor_T_T_A.xlsx
+++ b/test_resource/codeextractor_T_T_A.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="codeextractor" sheetId="1" r:id="rId1"/>
+    <sheet name="expeccodeextractor_T_T_A" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="176">
   <si>
     <t>Code</t>
   </si>
@@ -22,6 +22,15 @@
     <t>Uniq ID</t>
   </si>
   <si>
+    <t>CerberusTest.java_afterAll</t>
+  </si>
+  <si>
+    <t>CerberusTest.java_beforeAll</t>
+  </si>
+  <si>
+    <t>CerberusTest.java_getCerberusCommandLineUsageString</t>
+  </si>
+  <si>
     <t>CerberusTest.java_testCallMethod</t>
   </si>
   <si>
@@ -32,6 +41,267 @@
   </si>
   <si>
     <t>CerberusTest.java_testCerebruswithWrongArguments</t>
+  </si>
+  <si>
+    <t>HelloController.java_index1</t>
+  </si>
+  <si>
+    <t>HelloController.java_index2</t>
+  </si>
+  <si>
+    <t>HelloController.java_meth</t>
+  </si>
+  <si>
+    <t>Python_annot_file.py_create_parser</t>
+  </si>
+  <si>
+    <t>Python_annot_file.py_validate_return</t>
+  </si>
+  <si>
+    <t>Python_file.py_create_parser</t>
+  </si>
+  <si>
+    <t>TestHelloController.java_Test_AddMethod</t>
+  </si>
+  <si>
+    <t>TstHelloController.java_Test_AddMethod</t>
+  </si>
+  <si>
+    <t>test.cs_Test_AddMethod</t>
+  </si>
+  <si>
+    <t>test.cs_Test_DivideMethod</t>
+  </si>
+  <si>
+    <t>test.cs_Test_MultiplyMethod</t>
+  </si>
+  <si>
+    <t>test.cs_Test_SubstractMethod</t>
+  </si>
+  <si>
+    <t>test_c.c_main</t>
+  </si>
+  <si>
+    <t>test_c.c_swap</t>
+  </si>
+  <si>
+    <t>test_cpp_code.cpp_main</t>
+  </si>
+  <si>
+    <t>test_cpp_code.cpp_relational_operation</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_generate_pylint_cmd</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_get_check_pass_fail_status</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_get_file_name</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_get_guardrails_obj</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_get_log_data</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_get_test_guardrail_gate_status</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_get_test_guardrail_gate_status_fail</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_get_validate_return</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_return_jscpd_false</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_setUp</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_stub_get_all_func_cnn</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_stub_globals</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_stub_validate_return</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_tearDown</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_call_subprocess_error</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_call_subprocess_noerror</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_check_pass_fail_success</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_check_report_dir</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_file_exists</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_file_exists_exit</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_get_all_func_cnn</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_get_index_cnn</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_guardrail_coverage</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_guardrail_coverage_fail</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_guardrail_cyclomatic_complexity</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_guardrail_deadcode</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_guardrail_deadcode_fail</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_guardrail_jscpd</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_guardrail_jscpd_fail</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_guardrail_lint</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_guardrail_mutation</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_guardrail_test</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_guardrail_test_fail</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_list_to_str_folders</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_mov_cov_report</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_orchestrate_guardrails</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_parse_cyclo_report_xml</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_parse_jscpd_report_json</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_parse_mutmut_report_xml</t>
+  </si>
+  <si>
+    <t>test_guardrails.py_test_validate_return</t>
+  </si>
+  <si>
+    <t>test_repo.java_ARSorting</t>
+  </si>
+  <si>
+    <t>test_repo.java_AutoRefreshImport</t>
+  </si>
+  <si>
+    <t>test_repo.java_ChangePatientDetails</t>
+  </si>
+  <si>
+    <t>test_repo.java_Choosefolder</t>
+  </si>
+  <si>
+    <t>test_repo.java_DeidentifyPatientDetails</t>
+  </si>
+  <si>
+    <t>test_repo.java_DeleteAllStudies</t>
+  </si>
+  <si>
+    <t>test_repo.java_GetPictorialIndex</t>
+  </si>
+  <si>
+    <t>test_repo.java_GetPictorialIndexSeriesNobyDescription</t>
+  </si>
+  <si>
+    <t>test_repo.java_PIContextMenuCopyTo</t>
+  </si>
+  <si>
+    <t>test_repo.java_PIContextMenuCopyToRighClick</t>
+  </si>
+  <si>
+    <t>test_repo.java_PIToggle</t>
+  </si>
+  <si>
+    <t>test_repo.java_ProgressBar</t>
+  </si>
+  <si>
+    <t>test_repo.java_RightClickPISelectedSeries</t>
+  </si>
+  <si>
+    <t>test_repo.java_RunScriptsinRemoteSystem</t>
+  </si>
+  <si>
+    <t>test_repo.java_SelectPISeriesByMouseHover</t>
+  </si>
+  <si>
+    <t>test_repo.java_SelectPictorialSeriesByIndexvalue</t>
+  </si>
+  <si>
+    <t>test_repo.java_SelectPictorialSeriesBySeriesValue</t>
+  </si>
+  <si>
+    <t>test_repo.java_SeriesFilesCount</t>
+  </si>
+  <si>
+    <t>test_repo.java_SeriesReportCount</t>
+  </si>
+  <si>
+    <t>test_repo.java_SeriesSelect</t>
+  </si>
+  <si>
+    <t>test_repo.java_VerifyCSROIApplication</t>
+  </si>
+  <si>
+    <t>test_repo.java_VerifyisPatientSelected</t>
+  </si>
+  <si>
+    <t>test_repo.java_runNetworkLogin</t>
+  </si>
+  <si>
+    <t>test_repo.java_runNetworkLogout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void afterAll() {
+        super.restoreStreams();
+    }
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void beforeAll() {
+        super.setUpStreams();
+    }
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String getCerberusCommandLineUsageString() {
+        return new StringBuilder().append("Usage: Cerberus [COMMAND]").append(NEW_LINE).append("Waking Cerberus to devour bad things in the system").append(NEW_LINE).append("Commands:")
+                        .append(NEW_LINE).append("  CPD            Detect duplicated blocks of code in your source code").append(NEW_LINE)
+                        .append("  SWD            Detect all the warnings which are suppressed in your code").append(NEW_LINE).append("  JPMD           Java Programming Mistakes Detector")
+                        .append(NEW_LINE).append("  JCMD           Java Code Metrics Detector").append(NEW_LINE).toString();
+    }
+</t>
   </si>
   <si>
     <t xml:space="preserve">    public void testCallMethod() throws Exception {
@@ -60,6 +330,1693 @@
         Cerberus.main(new String[] { dummyArgument });
         String expectedOutputString = new StringBuilder().append("Unmatched argument at index 0: 'dummy argument'").append(NEW_LINE).append(getCerberusCommandLineUsageString()).toString();
     }
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public String index1() {
+        return "Final";
+    }
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public String index2() throws IOException {
+        //// Process to clone the code/////
+        final String cmd1 = "git clone " + str;
+        final ProcessBuilder builder1 = new ProcessBuilder("cmd.exe", "/c", "cd \"C:\\test\" &amp;&amp; " + cmd1);
+        final Process p = builder1.start();
+        try {
+            p.waitFor();
+        } catch (final InterruptedException e) {
+            e.printStackTrace();
+        }
+///Process to run JSCPD tool//////
+        String fileName = str.substring(str.lastIndexOf('/') + 1);
+        fileName = fileName.substring(0, fileName.length() - 4);
+        final String cmd2 = "jscpd --min-" + str1 + " " + str2
+                        + " --reporters html --output C:\\test --mode strict C:\\test\\" + fileName;
+        final ProcessBuilder builder2 = new ProcessBuilder("cmd.exe", "/c", "cd \"C:\\test\" &amp;&amp; " + cmd2);
+        // builder1 = builder1.directory();
+        final Process p1 = builder2.start();
+        try {
+            p1.waitFor();
+        } catch (final InterruptedException e) {
+            e.printStackTrace();
+        }
+//////Process to remove the code base///////////
+        final String command3 = "RD /S /Q  C:\\test\\" + fileName;
+        final ProcessBuilder builder3 = new ProcessBuilder("cmd.exe", "/c", "cd \"C:\\test\" &amp;&amp; " + command3);
+        final Process p3 = builder3.start();
+        try {
+            p3.waitFor();
+        } catch (final InterruptedException e) {
+            e.printStackTrace();
+        }
+/////Process to rename the filename with time stamp///////
+        final long seconds = System.currentTimeMillis();
+        final String rname = seconds + "-" + fileName + "-jscpd-report.html";
+        final String command4 = "ren " + "jscpd-report.html " + rname;
+        final ProcessBuilder builder5 = new ProcessBuilder("cmd.exe", "/c", "cd \"C:\\test\" &amp;&amp; " + command4);
+        final Process p4 = builder5.start();
+        try {
+            p4.waitFor();
+        } catch (final InterruptedException e) {
+            e.printStackTrace();
+        }
+/////Process to open the report//////////
+        final String cmd3 = "start " + rname;
+        final ProcessBuilder builder4 = new ProcessBuilder("cmd.exe", "/c", "cd \"C:\\test\" &amp;&amp; " + cmd3);
+        final Process p2 = builder4.start();
+        try {
+            p2.waitFor();
+        } catch (final InterruptedException e) {
+            e.printStackTrace();
+        }
+/////Process to log the report path//////////
+        final String excelFilePath = "C:\\test\\Data_log.xlsx";
+        final FileInputStream inputStream = new FileInputStream(new File(excelFilePath));
+        final Workbook workbook = WorkbookFactory.create(inputStream);
+        final Sheet sheet = workbook.getSheetAt(0);
+        final int rowCount = sheet.getLastRowNum();
+        final Row row = sheet.getRow(rowCount);
+        final int columnCount = 1;
+        final Cell cell = row.createCell(columnCount);
+        cell.setCellValue("C:\\test\\" + rname);
+        inputStream.close();
+        final FileOutputStream outputStream = new FileOutputStream("C:\\test\\Data_log.xlsx");
+        workbook.write(outputStream);
+        workbook.close();
+        outputStream.close();
+        System.out.println("Got your Report");
+        return "Final";
+    }
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public String meth(@RequestParam("Source_URL") final String name, @RequestParam("tok_lin") final String name1,
+                    @RequestParam("count") final String name2) throws IOException {
+        str = name;
+        str1 = name1;
+        str2 = name2;
+        final String rname = "Output.py";
+        final String command5 = "ren " + str + " " + rname;
+        final ProcessBuilder builder6 = new ProcessBuilder("cmd.exe", "/c",
+                        "cd \"C:\\Users\\320074769\\Downloads\" &amp;&amp; " + command5);
+        final Process p5 = builder6.start();
+        try {
+            p5.waitFor();
+        } catch (final InterruptedException e) {
+            e.printStackTrace();
+        }
+        final String command4 = "python " + rname;
+        final ProcessBuilder builder5 = new ProcessBuilder("cmd.exe", "/c",
+                        "cd \"C:\\Users\\320074769\\Downloads\" &amp;&amp; " + command4);
+        final Process p4 = builder5.start();
+        try {
+            p4.waitFor();
+        } catch (final InterruptedException e) {
+            e.printStackTrace();
+        }
+        return "\"Got your report :)\"";
+    }
+</t>
+  </si>
+  <si>
+    <t>def create_parser(args):_x000D_
+    """ Function which add the command line arguments required for the commandline input_x000D_
+    of guardrails"""_x000D_
+    # Create the parser_x000D_
+    func_parser = argparse.ArgumentParser(description='Guardrails for python programs')_x000D_
+    # Add the arguments_x000D_
+    func_parser.add_argument('--path',_x000D_
+                             metavar='--p',_x000D_
+                             type=str,_x000D_
+                             help='the Input file path for guardrail.ini')_x000D_
+    return func_parser.parse_args(args)_x000D_</t>
+  </si>
+  <si>
+    <t>def validate_return(val, message, guardrail):_x000D_
+    """_x000D_
+    Function to validate the returns from subprocess_x000D_
+    Parameters:_x000D_
+      val (int): return value from subprocess_x000D_
+      message (string): message to be printed._x000D_
+      guardrail (bool): identifier whether a process or guardrail gate._x000D_
+    Returns:_x000D_
+    sub-process return value._x000D_
+    """_x000D_
+    process = "" if guardrail else "task"_x000D_
+    if val:_x000D_
+        msg = "Guardrail {}, failed {}.".format(process, message)_x000D_
+        LOG.info(msg)  # pragma: no mutate_x000D_
+        sys.exit(val)_x000D_
+    else:_x000D_
+        msg = "Guardrail {}, passed {}.".format(process, message)_x000D_
+        LOG.info(msg)  # pragma: no mutate_x000D_
+        return</t>
+  </si>
+  <si>
+    <t>def create_parser(args):_x000D_
+    """ Function which add the command line arguments required for the commandline input_x000D_
+    of guardrails"""_x000D_
+    # Create the parser_x000D_
+    func_parser = argparse.ArgumentParser(description='Guardrails for python programs')_x000D_
+    # Add the arguments_x000D_
+    func_parser.add_argument('--path',_x000D_
+                             metavar='--p',_x000D_
+                             type=str,_x000D_
+                             help='the Input file path for guardrail.ini')_x000D_
+    return func_parser.parse_args(args)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public void Test_AddMethod() {  
+            BasicMaths bm = new BasicMaths();  
+            double res = bm.Add(10, 10);  
+            Assert.AreEqual(res, 2);  
+        } 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public void Test_AddMethod() {  
+            BasicMaths bm = new BasicMaths();  
+            double res = bm.Add(1, 10);  
+            Assert.AreEqual(res, 5);  
+        } 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void Test_AddMethod() {  
+            BasicMaths bm = new BasicMaths();  
+            double res = bm.Add(10, 10);  
+            Assert.AreEqual(res, 20);  
+        }  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void Test_DivideMethod() {  
+            BasicMaths bm = new BasicMaths();  
+            double res = bm.divide(10, 5);  
+            Assert.AreEqual(res, 2);  
+        }  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void Test_MultiplyMethod() {  
+        BasicMaths bm = new BasicMaths();  
+        double res = bm.Multiply(10, 10);  
+        Assert.AreEqual(res, 100);  
+    }  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void Test_SubstractMethod() {  
+            BasicMaths bm = new BasicMaths();  
+            double res = bm.Substract(10, 10);  
+            Assert.AreEqual(res, 0);  
+        }  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int main()
+{
+    int m = 22, n = 44;
+    //  calling swap function by reference
+    printf("values before swap m = %d \n and n = %d",m,n);
+    swap(&amp;m, &amp;n);         
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void swap(int *a, int *b)
+{
+    int tmp;
+    tmp = *a;
+    *a = *b;
+    *b = tmp;
+    printf("\n values after swap a = %d \nand b = %d", *a, *b);
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int main() 
+{ 
+	string s1("Geeks"); 
+	string s2("forGeeks"); 
+	relational_operation(s1, s2); 
+return 0; 
+} 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void relational_operation(string s1, string s2) 
+{ 
+	string s3 = s1 + s2; 
+	if(s1 != s2) 
+		cout &lt;&lt; s1 &lt;&lt; " is not equal to " &lt;&lt; s2 &lt;&lt; endl; 
+	if(s1 &gt; s2) 
+		cout &lt;&lt; s1 &lt;&lt; " is greater than " &lt;&lt; s2 &lt;&lt; endl; 
+	else if(s1 &lt; s2) 
+		cout &lt;&lt; s1 &lt;&lt; " is smaller than " &lt;&lt; s2 &lt;&lt; endl; 
+	if(s3 == s1 + s2) 
+		cout &lt;&lt; s3 &lt;&lt; " is equal to " &lt;&lt; s1 + s2 &lt;&lt; endl; 
+} 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def generate_pylint_cmd(self):  # pylint: disable=R0201_x000D_
+        """Function stubbed to return generate_pylint_cmd method return value"""_x000D_
+        return "xyz"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def get_check_pass_fail_status(self, val_1, val_2, val_3):_x000D_
+        """Function to refactor test check_pass_fail method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.check_pass_fail(val_1, val_2, val_3)_x000D_
+            if int(val_1) + int(val_2) + int(val_3) == 120:_x000D_
+                assert not exit_mock.called_x000D_
+            else:_x000D_
+                assert exit_mock.called_x000D_
+            return self.get_log_data(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def get_file_name(folder_name, file_name):_x000D_
+        """Function to test file_name method"""_x000D_
+        import os_x000D_
+        ini_path = os.path.abspath(os.path.join_x000D_
+                                   (os.path.dirname(__file__), os.pardir))_x000D_
+        return os.path.join(ini_path, folder_name, file_name)_x000D_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def get_guardrails_obj():_x000D_
+        """Function to create guardrails class object"""_x000D_
+        import os_x000D_
+        ini_path = os.path.abspath(os.path.join_x000D_
+                                   (os.path.dirname(__file__), os.pardir))_x000D_
+        ini_path = os.path.join(ini_path, "test_resource", "guardrail.ini")_x000D_
+        return Guardails(ini_path)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def get_log_data(self, line):_x000D_
+        """ function to get the line requested from log data"""_x000D_
+        file_name = self.get_file_name("guardrails", "guardrails.log")_x000D_
+        file_variable = open(file_name)_x000D_
+        all_lines_variable = file_variable.readlines()_x000D_
+        string = all_lines_variable[-line]_x000D_
+        string = string[0: 0:] + string[23 + 1::]_x000D_
+        return string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def get_test_guardrail_gate_status(self, mock_subproc_call, gate):_x000D_
+        """Function to test guardrail_test method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        mock_subproc_call.return_value = False_x000D_
+        if gate == "guardrail_jscpd":_x000D_
+            guardails_obj.parse_jscpd_report_json = self.return_jscpd_false_x000D_
+            guardails_obj.guardrail_jscpd()_x000D_
+        if gate == "guardrail_test":_x000D_
+            guardails_obj.guardrail_test()_x000D_
+        if gate == "guardrail_coverage":_x000D_
+            guardails_obj.guardrail_coverage()_x000D_
+            return self.get_log_data(1), self.get_log_data(3)_x000D_
+        if gate == "guardrail_deadcode":_x000D_
+            guardails_obj.guardrail_deadcode()_x000D_
+        self.assertTrue(mock_subproc_call.called)_x000D_
+        return self.get_log_data(1), self.get_log_data(2)_x000D_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def get_test_guardrail_gate_status_fail(self, mock_subproc_call, gate):_x000D_
+        """Function to refactor test guardrail_gating_fail method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        mock_subproc_call.return_value = True_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            if gate == "guardrail_jscpd":_x000D_
+                guardails_obj.parse_jscpd_report_json = self.return_jscpd_false_x000D_
+                guardails_obj.guardrail_jscpd()_x000D_
+            if gate == "guardrail_test":_x000D_
+                guardails_obj.guardrail_test()_x000D_
+            if gate == "guardrail_coverage":_x000D_
+                guardails_obj.guardrail_coverage()_x000D_
+                return self.get_log_data(1), self.get_log_data(3)_x000D_
+            if gate == "guardrail_deadcode":_x000D_
+                guardails_obj.guardrail_deadcode()_x000D_
+            self.assertTrue(mock_subproc_call.called)_x000D_
+            assert exit_mock.called_x000D_
+        return self.get_log_data(1), self.get_log_data(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def get_validate_return(self, val_1, val_2, val_3):_x000D_
+        """Function to refactor test validate_return method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.validate_return(val_1, val_2, val_3)_x000D_
+            if val_3 is True:_x000D_
+                assert exit_mock.called_x000D_
+            else:_x000D_
+                assert not exit_mock.called_x000D_
+            return self.get_log_data(1)_x000D_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def return_jscpd_false(self, val, message):  # pylint: disable=W0613,R0201_x000D_
+        """Function stubbed to set parse_jscpd_report_json method value to false"""_x000D_
+        return False_x000D_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def setUp(self):_x000D_
+        """"Sets the directory for the test case"""_x000D_
+        import os_x000D_
+        ini_path = os.path.abspath(os.path.join_x000D_
+                                   (os.path.dirname(__file__), os.pardir))_x000D_
+        ini_path = os.path.join(ini_path, "test_resource", "guardrail.ini")_x000D_
+        config = ConfigParser()_x000D_
+        config.read(ini_path)_x000D_
+        self.report_folder = (config.get('folder', 'report_folder'))_x000D_
+        if not os.path.exists(self.report_folder):_x000D_
+            os.makedirs(self.report_folder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def stub_get_all_func_cnn():_x000D_
+        """Function stubbed to return get_all_func_cnn function return value"""_x000D_
+        list_data = {_x000D_
+            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
+            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D_
+            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
+            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D_
+        return list_data_x000D_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def stub_globals(guardails_obj):_x000D_
+        """Function to stub all globals"""_x000D_
+        guardails_obj.src_folder = "abc"_x000D_
+        guardails_obj.test_folder = "test"_x000D_
+        guardails_obj.pytest = "abc"_x000D_
+        guardails_obj.report_folder = "abc/report"_x000D_
+        guardails_obj.cyclo_exclude = "abc/None"_x000D_
+        guardails_obj.python = "python"_x000D_
+        guardails_obj.pylintrc = ".pylintrc"_x000D_
+        guardails_obj.covrc = ".cov"_x000D_
+        guardails_obj.dup_token = 10_x000D_
+        guardails_obj.percent_cov = 80_x000D_
+        guardails_obj.allow_dup = 20_x000D_
+        guardails_obj.cc_limit = 10_x000D_
+        guardails_obj.allow_mutants = 10_x000D_
+        guardails_obj.all_folders = guardails_obj.src_folder + " " + guardails_obj.test_folder_x000D_
+        guardails_obj.linting = True_x000D_
+        guardails_obj.cpd = True_x000D_
+        guardails_obj.cov = True_x000D_
+        guardails_obj.mutation = True_x000D_
+        guardails_obj.deadcode = True_x000D_
+        guardails_obj.cycloc = True_x000D_
+        guardails_obj.lint_ignore = "x"_x000D_
+        guardails_obj.programming_language = "java"_x000D_
+        guardails_obj.jscpd_ignore = "y"_x000D_
+        guardails_obj.dead_code_ignore = "z"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def stub_validate_return(self, val, message, guardrail):  # pylint: disable=W0613,R0201_x000D_
+        """Function stubbed to return false"""_x000D_
+        return False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def tearDown(self):_x000D_
+        """"Deletes the log files created."""_x000D_
+        import os_x000D_
+        ini_path = os.path.abspath(os.path.join_x000D_
+                                   (os.path.dirname(__file__), os.pardir))_x000D_
+        file_name = os.path.join(ini_path, "guardrails", "guardrails.log")_x000D_
+        if os.path.exists(file_name):_x000D_
+            open(file_name, 'w').close()_x000D_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_call_subprocess_error(self):_x000D_
+        """Function to test call_subprocess_error method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        try:_x000D_
+            guardails_obj.call_subprocess("lshrs")_x000D_
+        except KeyError:_x000D_
+            pass_x000D_
+        self.assertNotEqual(guardails_obj.call_subprocess("lshrs"), 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_call_subprocess_noerror(self):_x000D_
+        """Function to test call_subprocess_noerror method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        ret_val = guardails_obj.call_subprocess("dir")_x000D_
+        self.assertEqual(ret_val, 0)_x000D_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_check_pass_fail_success(self):_x000D_
+        """Function to test check_pass_fail_success method"""_x000D_
+        list_test = [[10, 100, 10, "Guardrail gating, passed mutation"],_x000D_
+                     [10, 100, 1, "Guardrail gating, failed mutation"],_x000D_
+                     [10, 0, 10, "Guardrail gating, failed: mutation test did not run"]]_x000D_
+        for i, _ in enumerate(list_test):_x000D_
+            self.assertTrue(list_test[i][3] in self.get_check_pass_fail_status(list_test[i][0],_x000D_
+                                                                               list_test[i][1], list_test[i][2]))_x000D_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_check_report_dir(self, mock_path_exists, mock_mkdir):_x000D_
+        """Function to test check_report_dir method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        mock_path_exists.return_value = True_x000D_
+        mock_mkdir.return_value = False_x000D_
+        guardails_obj.check_report_dir()_x000D_
+        self.assertTrue(mock_mkdir.called)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_file_exists(self):_x000D_
+        """Function to test file_exists method"""_x000D_
+        import os_x000D_
+        GuardrailGlobals.generate_pylint_cmd = self.generate_pylint_cmd_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            Guardails.file_exists(os.path.abspath(os.path.join(os.path.dirname(__file__), os.pardir)))_x000D_
+            assert not exit_mock.called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_file_exists_exit(self):  # pylint: disable=R0201_x000D_
+        """Function to test file_exists_exit method"""_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            Guardails.file_exists("abc")_x000D_
+            assert exit_mock.called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_get_all_func_cnn(self):_x000D_
+        """Function to test get_all_func_cnn method"""_x000D_
+        file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        guardails_obj.get_index_cnn = Mock()_x000D_
+        guardails_obj.get_index_cnn.return_value = int(2)_x000D_
+        expec_data = {_x000D_
+            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
+            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D_
+            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
+            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D_
+        root = ETree.parse(file_name).getroot()_x000D_
+        for functions in root.iter('measure'):_x000D_
+            if functions.attrib['type'] == "Function":_x000D_
+                assert expec_data == guardails_obj.get_all_func_cnn(functions)_x000D_
+        file_name = self.get_file_name("test_resource", "CC_test_Func.xml")_x000D_
+        root = ETree.parse(file_name).getroot()_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            for functions in root.iter('measure'):_x000D_
+                if functions.attrib['type'] == "Function":_x000D_
+                    guardails_obj.get_all_func_cnn(functions)_x000D_
+            file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D_
+            root = ETree.parse(file_name).getroot()_x000D_
+            for functions in root.iter('measure'):_x000D_
+                if functions.attrib['type'] == "Function":_x000D_
+                    guardails_obj.get_all_func_cnn(functions)_x000D_
+            assert exit_mock.called_x000D_
+            line = self.get_log_data(2)_x000D_
+            self.assertTrue(_x000D_
+                "Guardrail unable to find the tags item/value/name in the report " in line)_x000D_
+            line = self.get_log_data(1)_x000D_
+            self.assertTrue(_x000D_
+                "Guardrail unable to find the tags item/value/name in the report file " in line)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_get_index_cnn(self):_x000D_
+        """Function to test get_index_cnn method"""_x000D_
+        file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        root = ETree.parse(file_name).getroot()_x000D_
+        for functions in root.iter('measure'):_x000D_
+            if functions.attrib['type'] == "Function":_x000D_
+                assert guardails_obj.get_index_cnn(functions) == 2_x000D_
+        file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D_
+        root = ETree.parse(file_name).getroot()_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            for functions in root.iter('measure'):_x000D_
+                if functions.attrib['type'] == "Function":_x000D_
+                    guardails_obj.get_index_cnn(functions)_x000D_
+            assert exit_mock.called_x000D_
+            line = self.get_log_data(1)_x000D_
+            self.assertTrue("Guardrail unable to find the tag CCN in the report " in line)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_guardrail_coverage(self):_x000D_
+        """Function to test guardrail_coverage method"""_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_coverage")_x000D_
+        print(line_2)_x000D_
+        self.assertTrue("Guardrail , passed Coverage threshold" in line_1)_x000D_
+        val = r'mypython -m coverage report --fail-under=85'_x000D_
+        self.assertTrue(str(val) in line_2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_guardrail_coverage_fail(self):_x000D_
+        """Function to test guardrail_coverage_fail method"""_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_coverage")_x000D_
+        print(line_2)_x000D_
+        self.assertTrue("Guardrail , failed Coverage threshold" in line_1)_x000D_
+        val = r'mypython -m coverage report --fail-under=85'_x000D_
+        self.assertTrue(str(val) in line_2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_guardrail_cyclomatic_complexity(self, mock_subproc_call):_x000D_
+        """Function to test guardrail_cyclomatic_complexity method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        guardails_obj.parse_cyclo_report_xml = Mock()_x000D_
+        guardails_obj.parse_cyclo_report_xml.return_value = {_x000D_
+            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
+            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D_
+            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
+            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D_
+        mock_subproc_call.return_value = False_x000D_
+        guardails_obj.guardrail_cyclomatic_complexity()_x000D_
+        self.assertTrue(mock_subproc_call.called)_x000D_
+        line = self.get_log_data(1)_x000D_
+        self.assertTrue("Guardrail , passed Cyclomatic complexity" in line)_x000D_
+        mock_subproc_call.return_value = True_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.guardrail_cyclomatic_complexity()_x000D_
+            line = self.get_log_data(2)_x000D_
+            self.assertTrue("Guardrail task, failed Cyclomating complexity generation" in line)_x000D_
+            assert exit_mock_x000D_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_guardrail_deadcode(self):_x000D_
+        """Function to test guardrail_deadcode method"""_x000D_
+        import os_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_deadcode")_x000D_
+        self.assertTrue("Guardrail , passed Dead code detection" in line_1)_x000D_
+        val = r'mypython -m vulture C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\functiondefextractor ' \_x000D_
+              r'C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\test  --exclude C:\Projects\PythonRepo' \_x000D_
+              r'\python_sample\FunctionDefExtractor\test --min-confidence 100 &gt;C:\Projects\PythonRepo' \_x000D_
+              r'\REPORT\deadcode.txt'_x000D_
+        self.assertTrue(val.replace("\\", os.sep) in line_2.replace('\\', os.sep).replace("/", os.sep))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_guardrail_deadcode_fail(self):_x000D_
+        """Function to test guardrail_deadcode_fail method"""_x000D_
+        import os_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_deadcode")_x000D_
+        self.assertTrue("Guardrail , failed Dead code detection" in line_1)_x000D_
+        val = r'mypython -m vulture C:\Projects\PythonRepo\python_sample\FunctionDefExtractor' \_x000D_
+              r'\functiondefextractor ' \_x000D_
+              r'C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\test  --exclude' \_x000D_
+              r' C:\Projects\PythonRepo' \_x000D_
+              r'\python_sample\FunctionDefExtractor\test --min-confidence 100 &gt;C:\Projects' \_x000D_
+              r'\PythonRepo\REPORT\deadcode.txt'_x000D_
+        self.assertTrue(val.replace('\\', os.sep) in line_2.replace('\\', os.sep).replace("/", os.sep))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_guardrail_jscpd(self):_x000D_
+        """Function to test guardrail_jscpd method"""_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_jscpd")_x000D_
+        self.assertTrue("Guardrail task, passed Copy Paste Detection report generation" in line_1)_x000D_
+        val = r'command for sub process:jscpd --min-tokens 20  --ignore C:\Projects\PythonRepo\python_sample' \_x000D_
+              r'\FunctionDefExtractor\test  --max-lines 100000 --max-size 100mb --reporters "json,html"' \_x000D_
+              r' --mode "strict" --format "python, java" -o'_x000D_
+        self.assertTrue(str(val) in line_2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_guardrail_jscpd_fail(self):_x000D_
+        """Function to test guardrail_jscpd_fail method"""_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_jscpd")_x000D_
+        self.assertTrue("Guardrail task, failed Copy Paste Detection report generation" in line_1)_x000D_
+        val = r'command for sub process:jscpd --min-tokens 20  --ignore C:\Projects\PythonRepo\python_sample' \_x000D_
+              r'\FunctionDefExtractor\test  --max-lines 100000 --max-size 100mb --reporters "json,html" --mode ' \_x000D_
+              r'"strict" --format "python, java" -o'_x000D_
+        self.assertTrue(str(val) in line_2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_guardrail_lint(self, mock_subproc_call):_x000D_
+        """Function to test guardrail_lint method"""_x000D_
+        import os_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        global_obj = GuardrailGlobals()_x000D_
+        mock_subproc_call.return_value = False_x000D_
+        guardails_obj.lint_ignore = self.get_file_name("test_resource", "pylint_ignore.txt")_x000D_
+        guardails_obj.generate_files_lint = MagicMock(return_value=" ")_x000D_
+        global_obj.report_folder = os.getcwd()_x000D_
+        guardails_obj.guardrail_lint()_x000D_
+        self.assertTrue(mock_subproc_call.called)_x000D_
+        line = self.get_log_data(1)_x000D_
+        self.assertTrue("Guardrail , passed Linting." in str(line))_x000D_
+        mock_subproc_call.return_value = True_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.guardrail_lint()_x000D_
+            line = self.get_log_data(1)_x000D_
+            self.assertTrue("Guardrail , failed Linting." in str(line))_x000D_
+            assert exit_mock_x000D_
+        self.assertTrue(mock_subproc_call.called)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_guardrail_mutation(self, mock_subproc_call):_x000D_
+        """Function to test guardrail_mutation method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        guardails_obj.parse_mutmut_report_xml = Mock()_x000D_
+        guardails_obj.parse_mutmut_report_xml.return_value = None_x000D_
+        mock_subproc_call.return_value = False_x000D_
+        guardails_obj.guardrail_mutation()_x000D_
+        self.assertTrue(mock_subproc_call.called)_x000D_
+        line = self.get_log_data(1)_x000D_
+        self.assertTrue("Guardrail task, passed Mutation testing report generation." in line)_x000D_
+        mock_subproc_call.return_value = True_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.guardrail_mutation()_x000D_
+            line = self.get_log_data(1)_x000D_
+            self.assertTrue("Guardrail task, failed Mutation testing " in line)_x000D_
+            assert exit_mock_x000D_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_guardrail_test(self):_x000D_
+        """Function to test guardrail_test method"""_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_test")_x000D_
+        self.assertTrue("Guardrail task, passed Test execution and coverage generation" in line_1)_x000D_
+        val = r'mypython -m pytest C:\Projects\PythonRepo\python_sample\FunctionDefExtractor' \_x000D_
+              r' --cov-config=C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\.coveragerc ' \_x000D_
+              r'--cov-report "html" --cov=C:\Projects\PythonRepo\python_sample' \_x000D_
+              r'\FunctionDefExtractor\functiondefextractor'_x000D_
+        self.assertTrue(str(val) in line_2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_guardrail_test_fail(self):_x000D_
+        """Function to test guardrail_test_fail method"""_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_test")_x000D_
+        self.assertTrue("Guardrail task, failed Test execution and coverage generation" in line_1)_x000D_
+        val = r'mypython -m pytest C:\Projects\PythonRepo\python_sample\FunctionDefExtractor ' \_x000D_
+              r'--cov-config=C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\.coveragerc ' \_x000D_
+              r'--cov-report "html" --cov=C:\Projects\PythonRepo\python_sample' \_x000D_
+              r'\FunctionDefExtractor\functiondefextractor'_x000D_
+        self.assertTrue(str(val) in line_2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_list_to_str_folders(self):_x000D_
+        """Function to test list_to_str_folders method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        self.stub_globals(guardails_obj)_x000D_
+        self.assertEqual(guardails_obj.list_to_str_folders(), "abc test")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_mov_cov_report(self, mock_subproc_call, mock_shut_rmtr, mock_shut_mov):_x000D_
+        """Function to test mov_cov_report method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        process_sub_mock = mock.Mock()_x000D_
+        patcher_exist = mock.patch('os.path.exists')_x000D_
+        mock_thing = patcher_exist.start()_x000D_
+        mock_thing.return_value = True_x000D_
+        patcher_isdir = mock.patch('os.path.isdir')_x000D_
+        mock_thing_isdir = patcher_isdir.start()_x000D_
+        mock_thing_isdir.return_value = True_x000D_
+        mock_subproc_call.return_value = process_sub_mock_x000D_
+        mock_shut_rmtr.return_value = process_sub_mock_x000D_
+        mock_shut_mov.return_value = process_sub_mock_x000D_
+        guardails_obj.validate_return = self.stub_validate_return_x000D_
+        guardails_obj.mov_cov_report()_x000D_
+        self.assertTrue(mock_subproc_call.called)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_orchestrate_guardrails(self):_x000D_
+        """Function to test orchestrate_guardrails method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        guardails_obj.check_report_dir = Mock()_x000D_
+        guardails_obj.mov_cov_report = Mock()_x000D_
+        guardails_obj.mov_cov_report.return_value = True_x000D_
+        self.assertTrue(guardails_obj.mov_cov_report.return_value)_x000D_
+        guardails_obj.guardrail_lint = Mock()_x000D_
+        guardails_obj.guardrail_lint.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_lint.return_value)_x000D_
+        guardails_obj.guardrail_jscpd = Mock()_x000D_
+        guardails_obj.guardrail_jscpd.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_jscpd.return_value)_x000D_
+        guardails_obj.guardrail_test = Mock()_x000D_
+        guardails_obj.guardrail_test.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_test.return_value)_x000D_
+        guardails_obj.guardrail_coverage = Mock()_x000D_
+        guardails_obj.guardrail_coverage.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_coverage.return_value)_x000D_
+        guardails_obj.guardrail_mutation = Mock()_x000D_
+        guardails_obj.guardrail_mutation.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_mutation.return_value)_x000D_
+        guardails_obj.guardrail_deadcode = Mock()_x000D_
+        guardails_obj.guardrail_deadcode.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_deadcode.return_value)_x000D_
+        guardails_obj.guardrail_cyclomatic_complexity = Mock()_x000D_
+        guardails_obj.guardrail_cyclomatic_complexity.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_cyclomatic_complexity.return_value)_x000D_
+        guardails_obj.orchestrate_guardrails()_x000D_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_parse_cyclo_report_xml(self):_x000D_
+        """Function to test parse_cyclo_report_xml method"""_x000D_
+        file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        guardails_obj.get_all_func_cnn = Mock()_x000D_
+        guardails_obj.get_all_func_cnn.return_value = self.stub_get_all_func_cnn_x000D_
+        assert guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
+        file_name = self.get_file_name("test_resourc", "CC.xml")_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
+            line = self.get_log_data(1)_x000D_
+            self.assertTrue("cc.xml report file path" in line)_x000D_
+            file_name = self.get_file_name("test_resource", "CC_test.xml")_x000D_
+            guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
+            file_name = self.get_file_name("test_resource", "CC_test_None.xml")_x000D_
+            guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
+            line = self.get_log_data(1)_x000D_
+            self.assertTrue("tags required are not found in cc.xml report file path" in line)_x000D_
+            assert exit_mock.called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_parse_jscpd_report_json(self):_x000D_
+        """Function to test parse_jscpd_report_json method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        file_name = self.get_file_name("test_resource", "jscpd-report.json")_x000D_
+        guardails_obj.parse_jscpd_report_json(5, file_name)_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
+            file_name = self.get_file_name("test_resource", "jscpd-report_test.json")_x000D_
+            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
+            file_name = self.get_file_name("test_resource", "jscpd-report_test _error.json")_x000D_
+            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
+            assert exit_mock.called_x000D_
+            line = self.get_log_data(3)_x000D_
+            self.assertTrue("Guardrail gating, failed jscpd." in line)_x000D_
+            line = self.get_log_data(4)_x000D_
+            self.assertTrue("Guardrail gating passed jscpd" in line)_x000D_
+            line = self.get_log_data(2)_x000D_
+            self.assertTrue("jscpd report not correctly generated" in line)_x000D_
+            line = self.get_log_data(1)_x000D_
+            self.assertTrue("jscpd report not generated" in line)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_parse_mutmut_report_xml(self):_x000D_
+        """Function to test parse_mutmut_report_xml method"""_x000D_
+        file_name = self.get_file_name("test_resource", "mutmut.xml")_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D_
+        line = self.get_log_data(1)_x000D_
+        self.assertTrue("Guardrail gating, passed mutation" in str(line))_x000D_
+        file_name = self.get_file_name("test_resourc", "mutmut.xml")_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D_
+            assert exit_mock.called_x000D_
+            line = self.get_log_data(1)_x000D_
+            self.assertTrue("mutmut.xml report file path cound not be found" in line)_x000D_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_validate_return(self):_x000D_
+        """Function to test validate_return method"""_x000D_
+        list_test = [[1, "test", True, "Guardrail , failed test."], [0, "test", False, "Guardrail task, passed test."]]_x000D_
+        for i, _ in enumerate(list_test):_x000D_
+            assert self.get_validate_return(list_test[i][0], list_test[i][1], list_test[i][2]).strip() \_x000D_
+                   == list_test[i][3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function ARSorting(columnName,sortingOrder,study)
+{
+  /*User parameters*/
+  //columnName=Enter the field name to be sorted
+  //sortingOrder=Enter Ascending or Descending
+  //bool Study=Enter true for sorting study grid ,false for series grid.
+  var commonGrid= Aliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolPanel"]["rightPanel"]["SplitContainer"];
+  var prop = new Array( "ClrClassName","Name","Visible" );
+  var Val = new Array("BoundColumnSelectedGrid","[\"WinFormsObject\"](\"grid\")",true ); 
+  //Study grid      
+  if(study)
+  {
+    var grid=commonGrid["SplitterPanel"]["FindChild"](prop,Val, 100);
+  }
+  else
+  { 
+    var grid=commonGrid["SplitterPanel_1"]["FindChild"](prop,Val, 100);
+  } 
+  if(grid["Exists"])
+  {
+   var columnCount=grid["DefaultView"]["Columns"]["Count"]; 
+   for(var i=0;i&lt;columnCount;i++)
+   {
+     var colName=grid["DefaultView"]["Columns"]["Item_2"](i)["Caption"]["OleValue"];
+     if(VarToStr(colName)==VarToStr(columnName))
+     {
+        // Sorting
+        grid["DefaultView"]["Columns"]["Item_2"](i)["set_SortOrder"](sortingOrder);
+        break;
+     }
+   }
+  }
+  else
+  {
+    Log["Error"]("grid does not exists");
+  }
+  Wait(2);
+} 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function AutoRefreshImport(path,folderName,MRstudy_vendor)
+{
+  /*User parameteers*/
+  //path=Enter the path of the source folder
+  //folderName=Enter the name of the folder to be imported.
+   //Folder button
+  var gridcount ;
+  var pdcount ;
+  var flag =0;
+  var status1 = false;
+  var status2 = false;
+  var pdProc = Sys["Process"]("PatientDirectory")
+  properties = new Array( "ClrClassName","Name", "Visible" );
+  values = new Array("PmsButtonMatrixCombo","[\"WinFormsObject\"](\"matrixCombo\")",true ); 
+  var folderSpace= pdProc["FindChild"](properties, values, 100);
+  if(folderSpace["Exists"])
+  {
+    folderSpace["ClickR"]();
+    //calling context menu
+    ContextMenu("Import Data");
+    //Import dialog box
+    var importDialog= pdProc["WinFormsObject"]("PmsImportDialog");
+    if(importDialog["Exists"])
+    {
+      //Source path edit box
+      var sourcePath=importDialog["WinFormsObject"]("panel2")["WinFormsObject"]("pathHistoryCombo");
+      sourcePath["SetText"](path);
+      sourcePath["Keys"]("[Enter]");
+      //Selecting required source folder
+      var propVal = new Array( "ClrClassName","Visible" );
+      var varVal = new Array("FileSystemListView",true ); 
+      var sourceFolder= pdProc["FindChild"](propVal, varVal, 100);
+      sourceFolder["ClickItem"](folderName);
+      var okButton= importDialog["WinFormsObject"]("panel3")["WinFormsObject"]("panel1")["WinFormsObject"]("btnOK")
+      okButton["Click"]();
+      Log["Message"]("Clicking on ok button");
+      Wait(1);
+      //Progress bar
+      var prop = new Array( "ClrClassName","Visible" );
+      var Val = new Array("PmsProgressBar",true ); 
+      var progressBar= pdProc["FindChild"](prop,Val, 100);
+      if(progressBar["Exists"])
+      {
+        while(progressBar["Exists"])
+        {        
+          if(progressBar["Value"] &gt; 25 &amp;&amp; progressBar["Value"] &lt; 30 &amp;&amp; flag == 0)
+          {
+            gridcount = StudyCount();
+            pdcount = CopyDeleteLibrary["GetStudyCounts"]("Display");
+            if(gridcount == pdcount)
+            {
+              Log["Message"](" Study counts are equal");
+              status1 = true;
+            }
+            else
+            Log["Warning"]("Study counts are not equal")
+            flag = 1;
+          }
+          if(progressBar["Value"] &gt; 50 &amp;&amp; progressBar["Value"] &lt; 55 &amp;&amp; flag == 1)
+          {         
+            SelectPatient(MRstudy_vendor);
+            if(flag == 1)
+            {
+              status2 = VerifyisPatientSelected(MRstudy_vendor);
+              if(status2)
+              {
+                Log["Message"](MRstudy_vendor+" study is marked with blue background");
+              }
+              else
+              {
+                Log["Warning"](MRstudy_vendor+"study is not marked with blue background");
+                status1 = false;  
+              }
+              flag = 2;
+             } 
+          }
+          if(progressBar["Value"] &gt; 70 &amp;&amp; progressBar["Value"] &lt; 75 &amp;&amp; flag == 2)
+          {
+            ARSorting("Patient Name","Ascending",true);
+            SelectPatient(MRstudy_vendor);
+            status2 = VerifyisPatientSelected(MRstudy_vendor);
+            if(status2)
+            {
+              Log["Message"](MRstudy_vendor+" study is marked with blue background after sorting in ascending order");
+            }
+            else
+            {
+              Log["Warning"](MRstudy_vendor+"study is not marked with blue background after sorting in ascending order");
+              status1 = false;  
+            }
+            flag = 3;
+          }
+          if(progressBar["Value"] &gt; 90 &amp;&amp; progressBar["Value"] &lt; 95 &amp;&amp; flag == 3)
+          {
+            ARSorting("Patient Name","Descending",true);
+            SelectPatient(MRstudy_vendor);
+            status2 = VerifyisPatientSelected(MRstudy_vendor);
+            if(status2)
+            {
+              Log["Message"](MRstudy_vendor+" study is marked with blue background after sorting in descending order");
+            }
+            else
+            {
+              Log["Warning"](MRstudy_vendor+"study is not marked with blue background after sorting in descending order");
+              status1 = false;  
+            }
+            flag = 4;
+          }
+          Wait(1);
+        }
+        return status1;
+      }
+      else
+      {
+       properties = new Array( "ClrClassName", "Visible" );
+       values = new Array("PmsStatusInformationCombo",true ); 
+       var messageForm= pdProc["FindChild"](properties, values, 100);
+       var messageCount=messageForm["Items"]["Count"]-1;
+       var message=messageForm["Items"]["Item"](messageCount)["Message"]["OleValue"];
+       if(message=="Import Ended")
+       {
+         Log["Message"]("Import successful");
+         return true
+       }
+       else
+       {
+         Log["Error"]("Progress bar not found"); 
+         return false;
+       }
+      }  
+    }
+    else
+    {
+       Log["Error"]("ImportDialog doesn't exist");
+       return false;
+    }
+  }
+  else
+  {
+   Log["Error"]("Folder space doesn't exists");
+   return false;
+  } 
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function ChangePatientDetails(fName,lName,DefaultDevice)
+{
+    //WorklistLibrary["ContextMenu"]("Change Patient Details");
+    var CPD=Aliases["PatientDirectory"]["CPD"]
+    CPD["WaitProperty"]("Exists", true, 30000);
+    //Click on confirmation msg
+    Aliases["PatientDirectory"]["PmsMessageBox"]["OK"]["Click"]();
+    Wait(1);
+    if(fName!="")
+    {
+        CPD["firstName"]["SetText"](fName)  
+    }
+    if(lName!="")
+    {
+       CPD["lastName"]["SetText"](lName)  
+    }
+    Sys["Process"]("PatientDirectory")["WinFormsObject"]("CreateNewStudyForm")["WinFormsObject"]("raisedPanel")["WinFormsObject"]("chooseDevicesButton")["ClickButton"]()
+    Choosefolder("Local",DefaultDevice)
+    //Click on save
+    CPD["save"]["ClickButton"]();
+    Wait(1);
+    Sys["Process"]("PatientDirectory")["WinFormsObject"]("PmsMessageBox")["WinFormsObject"]("Yes")["Click"]();    
+    ProgressBar();  
+} 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function Choosefolder(folderType,folderName)
+{ 
+  /*User parameters*/
+  //folderType=Enter either Local or Remote
+  //folderName=Enter the name of the folder to copy
+  //Copy dialog box
+  Wait(2);
+  var copyDialogBox=Aliases["PatientDirectory"]["CopyToDialog"];
+  if(copyDialogBox["resetButton"]["Enabled"])
+  {
+    copyDialogBox["resetButton"]["ClickButton"]();
+  }
+  if(copyDialogBox["Exists"])
+  {
+    if(VarToStr(folderType)=="Local")
+    {
+      var folderCount=copyDialogBox["Matrices"]["Item"](0)["Buttons"]["Count"];
+      var matrix=copyDialogBox["Matrices"]["Item"](0);
+      var prop=new Array("WndCaption","Visible");
+      var val=new Array("Local Devices",true);
+      var location=copyDialogBox["FindChild"](prop,val,100);
+    }
+    else if(VarToStr(folderType)=="Remote")
+    {
+      folderCount=copyDialogBox["Matrices"]["Item"](1)["Buttons"]["Count"];
+      var matrix=copyDialogBox["Matrices"]["Item"](1);
+      var prop=new Array("WndCaption","Visible");
+      var val=new Array("Remote Devices",true);
+      var location=copyDialogBox["FindChild"](prop,val,100);
+    }
+    var copied=false;
+    for(var i=0;i&lt;folderCount;i++)
+    {
+      var folder=VarToStr(matrix["Buttons"]["Item"](i)["Text"]["OleValue"]);   
+      if(folder==folderName)
+      {
+        if(matrix["Buttons"]["Item"](i)["Enabled"])
+        {
+         copied=true;
+         var X=matrix["Buttons"]["Item"](i)["location_2"]["X"];
+         var Y=matrix["Buttons"]["Item"](i)["location_2"]["Y"];
+         Wait(1);
+         location["Click"](X+10,Y+10);
+         Wait(2);
+         copyDialogBox["okButton"]["Click"]();
+         break;
+        }
+        else
+        {     
+          Log["Error"]("Folder "+folderName+" is not enabled ");
+          AddCheckpointResultToReport(false,"","Folder "+folderName+" is not enabled ");  
+          break;
+        }
+      }
+    }
+    if(!copied)
+    {
+      Aliases["PatientDirectory"]["CopyToDialog"]["cancelButton"]["Click"]();
+      Wait(1);
+      AddCheckpointResultToReport(false,"","Required folder not found"+folderName); 
+      Log["Error"]("Required folder not found"+folderName);
+    }
+  }
+  else
+  {
+    Log["Error"]("copyDialogbox doesnot exist");
+    AddCheckpointResultToReport(false,"","copyDialogbox doesnot exist"); 
+    return false;
+  }
+  Wait(2);
+  return copied;
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function DeidentifyPatientDetails(lName,DefaultDevice)
+{    
+  var dpd = Sys["Process"]("PatientDirectory")["WinFormsObject"]("AnonymiseForm");
+  dpd["WaitProperty"]("Exists", true, 30000);
+  Sys["Process"]("PatientDirectory")["WinFormsObject"]("PmsMessageBox")["WinFormsObject"]("OK")["ClickButton"]();
+  //Sys["Process"]("PatientDirectory")["WinFormsObject"]("AnonymiseForm")["WinFormsObject"]("raisedPanel")
+  var arrys = new Array("ClrClassName","Name", "Visible");
+  var values = new Array("PmsToolPanel","[\"WinFormsObject\"](\"raisedPanel\")",true ); 
+  var panel = dpd["FindChild"](arrys,values,100)["WinFormsObject"]("patientDetailsPanel");
+  if(lName!="" )
+  {
+    panel["WinFormsObject"]("lastNameTextBox")["SetText"](lName)
+  } 
+  Sys["Process"]("PatientDirectory")["WinFormsObject"]("AnonymiseForm")["WinFormsObject"]("raisedPanel")["WinFormsObject"]("chooseDevicesButton")["ClickButton"]()
+  Choosefolder("Local",DefaultDevice)
+  //Click on save
+  dpd["WinFormsObject"]("saveButton")["ClickButton"](); 
+  Sys["Process"]("PatientDirectory")["WinFormsObject"]("PmsMessageBox")["WinFormsObject"]("Yes")["Click"](); 
+  ProgressBar();     
+} 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function DeleteAllStudies()
+{
+  var studygrid = StudyGrid();
+  studygrid["Views"]["Item"](0)["SelectAll"]();
+  SyncWithStopButton() 
+  //Click delete button
+  Aliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolsPanel"]["leftPanel"]["toolbox"]["panel"]["deleteButton"]["Click"]();
+  Wait(1);
+  //Click yes on confirmation msg
+  Aliases["PatientDirectory"]["PmsMessageBox"]["Yes"]["Click"]();
+  SyncWithStopButton();
+  Wait(5);
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function GetPictorialIndex()
+{
+  var panelMain = Aliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolPanel"]["rightPanel"]["SplitContainer"]["SplitterPanel_1"]["bottomPanel"];
+  var propValues = new Array( "ClrClassName", "Visible" );
+  var varValues = Array( "PictorialLayoutControl", true );
+  var pictorialLayout = panelMain["FindChild"](propValues, varValues, 30);
+  return pictorialLayout;  
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function GetPictorialIndexSeriesNobyDescription(description)
+{
+   var pictorialLayout = GetPictorialIndex();
+   var indexstatus = false;
+   var picounts = pictorialLayout["Controls"]["Count"];
+   for(var i=0; i&lt;picounts;i++)
+   {
+     if(description == pictorialLayout["Controls"]["Item_2"](i)["Card"]["Tag"]["SERIES_DESCRIPTION"])
+     {
+      Log["Message"](i)
+      indexstatus = true;
+      var seriesno = pictorialLayout["Controls"]["Item_2"](i)["Card"]["Tag"]["SERIES_NUMBER"]
+      return seriesno;
+      break;
+     }
+  }
+  if(!indexstatus)
+  {
+   Log["Checkpoint"]("Series not found");
+  }
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function PIContextMenuCopyTo(folderType,folderName)
+{
+  /*User parameters*/ 
+    //folderType=Enter either Local or Remote
+    //folderName=Enter the name of the folder to copy
+  var panelMain = Aliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolPanel"]["rightPanel"]["SplitContainer"]["SplitterPanel_1"]["bottomPanel"];
+  var propValues = new Array( "ClrClassName", "Visible" );
+  var varValues = Array( "PictorialLayoutControl", true );
+  var pictorialLayout = panelMain["FindChild"](propValues, varValues, 30);
+    pictorialLayout["ClickR"](50,50);
+    ContextMenu("Copy To") 
+    var copyDialogBox=Aliases["PatientDirectory"]["CopyToDialog"];
+    if(copyDialogBox["resetButton"]["Enabled"])
+    {
+      copyDialogBox["resetButton"]["ClickButton"]();
+    }
+    if(copyDialogBox["Exists"])
+    {
+       if(VarToStr(folderType)=="Local")
+       {
+         var folderCount=copyDialogBox["Matrices"]["Item"](0)["Buttons"]["Count"];
+         var matrix=copyDialogBox["Matrices"]["Item"](0);
+         var prop=new Array("WndCaption","Visible");
+         var val=new Array("Local Devices",true);
+         var location=copyDialogBox["FindChild"](prop,val,100);
+       }
+       else if(VarToStr(folderType)=="Remote")
+       {
+         folderCount=copyDialogBox["Matrices"]["Item"](1)["Buttons"]["Count"];
+         var matrix=copyDialogBox["Matrices"]["Item"](1);
+         var prop=new Array("WndCaption","Visible");
+         var val=new Array("Remote Devices",true);
+         var location=copyDialogBox["FindChild"](prop,val,100);
+       }
+         var copied=false;
+         for(var i=0; i&lt;folderCount;i++)
+         {
+            var folder=VarToStr(matrix["Buttons"]["Item"](i)["Text"]["OleValue"]);   
+            if(folder==folderName)
+            {
+               copied=true;
+               var X=matrix["Buttons"]["Item"](i)["location_2"]["X"];
+               var Y=matrix["Buttons"]["Item"](i)["location_2"]["Y"];
+               Wait(1);
+               location["Click"](X+10,Y+10);
+               Wait(2);
+               copyDialogBox["okButton"]["Click"]();
+               break;
+            }
+         }
+          if(!copied)
+          {
+              Aliases["PatientDirectory"]["CopyToDialog"]["cancelButton"]["Click"]();
+              Wait(1);
+              Log["Error"]("Required folder not found"+folderName);
+          }
+    }
+    else
+    {
+      Log["Error"]("copyDialogbox doesnot exist");
+    }
+    Wait(2);
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function PIContextMenuCopyToRighClick(folderType,folderName)
+{
+  /*User parameters*/ 
+    //folderType=Enter either Local or Remote
+    //folderName=Enter the name of the folder to copy
+  var panelMain = Aliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolPanel"]["rightPanel"]["SplitContainer"]["SplitterPanel_1"]["bottomPanel"];
+  var propValues = new Array( "ClrClassName", "Visible" );
+  var varValues = Array( "PictorialLayoutControl", true );
+  var pictorialLayout = panelMain["FindChild"](propValues, varValues, 30);
+    //pictorialLayout["ClickR"](50,50);
+    ContextMenu("Copy To") 
+    var copyDialogBox=Aliases["PatientDirectory"]["CopyToDialog"];
+    if(copyDialogBox["resetButton"]["Enabled"])
+    {
+      copyDialogBox["resetButton"]["ClickButton"]();
+    }
+    if(copyDialogBox["Exists"])
+    {
+       if(VarToStr(folderType)=="Local")
+       {
+         var folderCount=copyDialogBox["Matrices"]["Item"](0)["Buttons"]["Count"];
+         var matrix=copyDialogBox["Matrices"]["Item"](0);
+         var prop=new Array("WndCaption","Visible");
+         var val=new Array("Local Devices",true);
+         var location=copyDialogBox["FindChild"](prop,val,100);
+       }
+       else if(VarToStr(folderType)=="Remote")
+       {
+         folderCount=copyDialogBox["Matrices"]["Item"](1)["Buttons"]["Count"];
+         var matrix=copyDialogBox["Matrices"]["Item"](1);
+         var prop=new Array("WndCaption","Visible");
+         var val=new Array("Remote Devices",true);
+         var location=copyDialogBox["FindChild"](prop,val,100);
+       }
+         var copied=false;
+         for(var i=0;i&lt;folderCount;i++)
+         {
+            var folder=VarToStr(matrix["Buttons"]["Item"](i)["Text"]["OleValue"]);   
+            if(folder==folderName)
+            {
+               copied=true;
+               var X=matrix["Buttons"]["Item"](i)["location_2"]["X"];
+               var Y=matrix["Buttons"]["Item"](i)["location_2"]["Y"];
+               Wait(1);
+               location["Click"](X+10,Y+10);
+               Wait(2);
+               copyDialogBox["okButton"]["Click"]();
+               break;
+            }
+         }
+          if(!copied)
+          {
+              Aliases["PatientDirectory"]["CopyToDialog"]["cancelButton"]["Click"]();
+              Wait(1);
+              Log["Error"]("Required folder not found"+folderName);
+          }
+    }
+    else
+    {
+      Log["Error"]("copyDialogbox doesnot exist");
+    }
+    Wait(2);
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function PIToggle()
+{
+    //Click on toggle button
+  Aliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolPanel"]["rightPanel"]["SplitContainer"]["SplitterPanel_1"]["bottomPanel"]["tabControl"]["seriesPage"]["toggleButton"]["Click"]();
+  Wait(5);
+  var PI=Aliases["PatientDirectory"]["PatientDirectoryForm"]["FindChild"]("ClrClassName","PictorialIndexPanel",100); 
+  if(PI["VisibleOnScreen"])
+  {
+    Log["Checkpoint"]("Series Thumbnail view is displayed on toggling")
+    status2=true
+  }
+  else
+  {
+   Log["Error"]("Series Thumbnail view is not displayed on toggling")
+   status2=false
+  }
+  return status2;
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function ProgressBar()
+{ 
+  var pdProc = Sys["Process"]("PatientDirectory") 
+  var prop = new Array( "ClrClassName","Visible" );
+  var Val = new Array("PmsProgressBar",true ); 
+  var progressBar= pdProc["FindChild"](prop,Val, 100);
+  if(progressBar["Exists"])
+  {
+    var citimeOut = 0;
+    while(progressBar["Exists"])
+    {
+     //waiting for prgores bar to complete
+     Delay(1000, "waiting for progess bar to complete")
+    	citimeOut++;
+    	if(citimeOut &gt; 300)
+    		break; 
+    }
+  Log["Message"]("Change Patient Details successful");
+  return true;  
+  }
+  else
+  {
+    properties = new Array( "ClrClassName", "Visible" );
+    values = new Array("PmsStatusInformationCombo",true ); 
+    var messageForm= pdProc["FindChild"](properties, values, 100);
+    var messageCount=messageForm["Items"]["Count"]-1;
+    var message=messageForm["Items"]["Item"](messageCount)["Message"]["OleValue"];
+    if(message=="Change Patient Details successfully completed.  1 entries were saved. Some instances were ignored.  " ||    
+    message=="Change Patient Details operation started")
+    {
+      Log["Message"]("Change Patient Details successful");
+      return true
+    }
+    else
+    {
+      Log["Error"]("Progress bar not found"); 
+      return false;
+    }
+  } 
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function RightClickPISelectedSeries()
+{
+  var pictorialLayout = GetPictorialIndex();
+  var seriesbefore =  pictorialLayout["Controls"]["Count"]
+  for(var i=0;i&lt;seriesbefore;i++)
+  {
+    if(pictorialLayout["Controls"]["Item"](i)["Card"]["Selected"])
+     {
+      indexstatus = true;
+      pictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](true);
+      x =pictorialLayout["Controls"]["Item_2"](i)["Location"]["X"];
+      y = pictorialLayout["Controls"]["Item_2"](i)["Location"]["Y"];
+      width = pictorialLayout["Controls"]["Item_2"](i)["Width"] 
+      height =  pictorialLayout["Controls"]["Item_2"](i)["Height"]  
+      pictorialLayout["HoverMouse"](x + (width/2) , y + (height/2))
+      pictorialLayout["ClickR"](x + (width/2) , y + (height/2))
+      pictorialLayout["Keys"]("[Esc]");
+     }
+  }
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function RunScriptsinRemoteSystem(RemoteIP,AdminUsername,AdminPassword,BasePath,ProjectSuitePath,HostName)
+{        
+    // run sanity test cases adding hosts
+    var Host = NetworkSuite["Hosts"]["ItemByName"](HostName);
+    // Specifies the host's parameters
+    Host["Address"] = RemoteIP;
+    Host["BasePath"] = BasePath;
+    Host["ProjectSourcePath"] = ProjectSuitePath;
+    Host["UserName"] = AdminUsername
+    Host["Password"] = AdminPassword
+    Host["CopyProjectToSlave"]();
+    // Verifies whether the created host can be used by a network suite
+    if (Host["Verify"]() == false) 
+    {
+    i = MessageDlg(Host["Address"] + " machine not able to find in the network, Execution terminated", mtError, i, 0);  
+    return;  
+    }
+    else
+    {
+     return true;
+    }     
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function SelectPISeriesByMouseHover(series)
+{ 
+    var pictorialLayout = GetPictorialIndex();
+    var seriesbefore =  pictorialLayout["Controls"]["Count"]
+    SelectPictorialSeriesBySeriesValue(series)
+    var x;
+    var y;
+    var width;
+    var height;
+    pictorialLayout["VerticalScroll"]["EnableScroll"](true)
+    for(var i=0;i&lt;seriesbefore;i++)
+    {
+     if(series == pictorialLayout["Controls"]["Item_2"](i)["Card"]["Tag"]["SERIES_NUMBER"])
+     {
+      indexstatus = true;
+      pictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](true);
+      x =pictorialLayout["Controls"]["Item_2"](i)["Location"]["X"];
+      y = pictorialLayout["Controls"]["Item_2"](i)["Location"]["Y"];
+      width = pictorialLayout["Controls"]["Item_2"](i)["Width"] 
+      height =  pictorialLayout["Controls"]["Item_2"](i)["Height"]  
+      pictorialLayout["HoverMouse"](x + (width/2) , y + (height/2))
+      pictorialLayout["ClickR"](x + (width/2) , y + (height/2))
+      Delay(5000)
+      break;
+     }
+    }           
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function SelectPictorialSeriesByIndexvalue(series,description)
+{
+  /*User parameters*/
+  //index =Enter the index of the required series to be selected
+  //series grid
+  var indexstatus = false;
+//  var description = "19376";
+//  var series = "10232";
+  var pictorialLayout = GetPictorialIndex();
+  var picounts = pictorialLayout["Controls"]["Count"];
+  //unselect all index's
+  for(var i=0; i&lt;picounts;i++) 
+  {
+    pictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](false); 
+  }
+  //select matched value and exit with value of the index
+  for(var i=0; i&lt;picounts;i++)
+  {
+     if(description == pictorialLayout["Controls"]["Item_2"](i)["Card"]["Tag"]["SERIES_DESCRIPTION"])
+     {
+      Log["Message"](i)
+      indexstatus = true;
+      pictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](true);
+      return i;
+      break;
+     }
+  }
+  if(!indexstatus)
+  {
+   Log["Checkpoint"]("Series not found");
+  }          
+}   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function SelectPictorialSeriesBySeriesValue(series)
+{
+  /*User parameters*/
+  //index =Enter the index of the required series to be selected
+  //series grid
+  seriesno=series["split"](",");  
+  var indexstatus = false; 
+  var v = -1; 
+  var pictorialLayout = GetPictorialIndex();
+  var picounts = pictorialLayout["Controls"]["Count"];
+  //unselect all index's
+  for(var i=0; i&lt;picounts;i++) 
+  {
+    pictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](false); 
+  }
+  //select matched value and exit with value of the index
+  for(var testj=0;testj&lt;seriesno["length"];testj++)
+  {  
+    indexstatus = false;
+    for(var i=0; i&lt;picounts;i++)
+    {
+       if(seriesno[testj] == pictorialLayout["Controls"]["Item_2"](i)["Card"]["Tag"]["SERIES_NUMBER"])
+       {
+        Log["Message"](i)
+        indexstatus = true;
+        pictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](true);
+        v = i;
+       }
+    }
+  }
+  if(!indexstatus)
+  {
+   Log["Checkpoint"]("Series not found");
+  }
+  return v;          
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function SeriesFilesCount()
+{
+  var seriesPanel=Sys["Process"]("PatientDirectory")["FindChild"]("ClrClassName","filePanel",100);
+  var grid=seriesPanel["FindChild"]("ClrClassName","BoundColumnSelectedGrid",100);
+  var seriesCount=grid["Views"]["Item"](0)["DataRowCount"];
+  return seriesCount;
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function SeriesReportCount()
+{
+  var seriesPanel=Sys["Process"]("PatientDirectory")["FindChild"]("ClrClassName","ReportPanel",100);
+  var grid=seriesPanel["FindChild"]("ClrClassName","BoundColumnSelectedGrid",100);
+  var seriesCount=grid["Views"]["Item"](0)["DataRowCount"];
+  return seriesCount;
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function SeriesSelect(index)
+{
+  var properties;
+  var values;
+  properties = new Array("Name","Visible");
+  values = new Array("[\"WinFormsObject\"](\"tabControl\"))","True");
+  var SeriesTab = Sys["Process"]("PatientDirectory")["WinFormsObject"]("PatientDirectoryForm")["WinFormsObject"]("mainContainerPanel")["WinFormsObject"]("rightPanel")["WinFormsObject"]("SplitContainer", "", 1)["WinFormsObject"]("SplitterPanel", "", 2)["FindChild"](properties, values, 100);
+  for(var i=0; i &lt; SeriesTab["TabCount"];i++)
+  { 
+    if(i==1)
+    continue;
+    delay(1000);
+    SeriesTab["ClickTab"](SeriesTab["wTabCaption"](i));    
+    Log["Message"]("Select tab is"+SeriesTab["SelectedIndex"]+ " "+SeriesTab["CanFocus"]);
+    if(i ==  index)
+    break;
+  }
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function VerifyCSROIApplication()
+{
+  var calciumScoring;
+  var CSMainScene;
+  var pmsToolPanel;
+  var tableLayoutPanel;
+  var pmsComboBox;
+  var fieldname = new Array(); 
+  var fieldvalue = new Array();
+  var afterfieldname = new Array(); 
+  var afterfieldvalue = new Array();
+  var check =  true;
+  var ispib = aqConvert["VarToBool"](ReadLoginSheet("pibMachine"));    
+  var process = "PortalAppletHost";
+  if(ispib)
+  process = "PortalAppletHost64";
+  calciumScoring = Sys["Process"](process);         
+  Wait(3)
+  properties = new Array("ClrClassName","Name", "Visible");        
+  values = new Array("GridControl","[\"WinFormsObject\"](\"gridControl1\")", true);
+  imagegrid  = calciumScoring["FindChild"](properties, values, 100);
+  gridcolcount = imagegrid["DataSource"]["Columns"]["Count"];        
+  for(var i = 0;i&lt;gridcolcount;i++)
+  {
+    if(imagegrid["DataSource"]["Columns"]["Item"](i)["Caption"]=="Total Coronaries")
+    {
+      temp = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Count"];
+      for(var j = 0;j&lt;temp;j++) 
+      {
+        //Log["Message"](j+" value"+imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Item"](j)["Item"](i)["OleValue"] )
+        fieldvalue[j] = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Item"](j)["Item"](i)["OleValue"]             
+      } 
+    }
+    if(imagegrid["DataSource"]["Columns"]["Item"](i)["Caption"]=="RowName")
+    {
+      temp = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Count"];
+      for(var j = 0;j&lt;temp;j++) 
+      {
+        //Log["Message"](j+" value"+imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Item"](j)["Item"](i)["OleValue"] ) 
+        fieldname[j] = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Item"](j)["Item"](i)["OleValue"]              
+      }     
+    }
+  } 
+  Wait(3)
+  properties = new Array("Name", "Visible");        
+  values = new Array("[\"WinFormsObject\"](\"manualSeed\")", true);
+  manualseed = calciumScoring["FindChild"](properties,values, 100)["WinFormsObject"]("comboButton");
+  manualseed["Click"]() 
+  properties = new Array("ClrClassName", "Visible");
+  values = new Array("ImageViewer", "True");
+  imageViewer = calciumScoring["FindChild"](properties, values, 100)
+  imageViewer["Click"](575, 216);
+  imageViewer["Click"](600, 216);
+  Wait(3)
+  for(var i = 0;i&lt;gridcolcount;i++)
+  {
+    if(imagegrid["DataSource"]["Columns"]["Item"](i)["Caption"]=="Total Coronaries")
+    {
+      temp = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Count"];
+      for(var j = 0;j&lt;temp;j++) 
+      {
+        //Log["Message"](j+" value"+imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Item"](j)["Item"](i)["OleValue"] )
+        afterfieldvalue[j] = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Item"](j)["Item"](i)["OleValue"]                
+      } 
+    }
+  }
+  for(var i=0;i&lt;fieldvalue["length"];i++)
+  {
+    if(fieldvalue[i]!=afterfieldvalue[i])
+    {
+      Log["Checkpoint"](fieldname[i]+ " Before ROI value is "+fieldvalue[i]+" After ROI value is "+afterfieldvalue[i]);
+      check =  true;
+    }
+    else
+    {
+      Log["Error"](fieldname[i]+ " Before ROI value is "+fieldvalue[i]+" After ROI value is "+afterfieldvalue[i]);
+      check =  false;
+      break;
+    }
+  }
+  for (var i = 0; i &lt;imageViewer["ImagePresentationState"]["ImageRelativeAnnotators"]["Count"] ; i++)
+  {
+  roi = imageViewer["ImagePresentationState"]["ImageRelativeAnnotators"]["Item"](i)["ClrClassName"] 
+  if (roi == "CsMFHCAnnotator")
+  {
+    Log["Checkpoint"]("ROI is available on ImageViewer")
+    check =  true;
+    break;      
+  }
+}
+ return check; 
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function VerifyisPatientSelected(pname)
+{
+  var studyGrid = StudyGrid();
+  var rowCount= studyGrid["DataSource"]["Table"]["Rows"]["Count"];
+  for(var j=0;j&lt;rowCount;j++)
+  {
+    Wait(1);
+    if(studyGrid["FocusedView"]["GetDataRow"](j)["PATIENTS_NAME"] ==pname)
+    { 
+      Wait(2);
+      Log["Message"](studyGrid["FocusedView"]["GetDataRow"](j)["IsBlueSelected"])
+      if(studyGrid["FocusedView"]["GetDataRow"](j)["IsBlueSelected"]==true)
+       { 
+        status=true
+        Log["Message"]("Selected study is marked with blue background");
+       }
+      else
+      {
+        status=false
+        Log["Error"]("Selected study is not marked with blue background");
+      }
+    }
+  }
+  return status;
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function runNetworkLogin()
+{
+    var Tasks, Task;
+    // Run Login in CLient B
+    Tasks = NetworkSuite["Jobs"]["ItemByName"]("Login")["Tasks"];
+    Task = Tasks["Items"](0);
+    Task["Run"](true);
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function runNetworkLogout()
+{
+      var Tasks, Task;
+    // Run Login in CLient B
+    Tasks = NetworkSuite["Jobs"]["ItemByName"]("Login")["Tasks"];   
+    Task = Tasks["Items"](2);
+    Task["Run"](true);
+}
 </t>
   </si>
 </sst>
@@ -418,7 +2375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,7 +2394,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -445,7 +2402,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -453,7 +2410,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -461,7 +2418,687 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/test_resource/codeextractor_T_T_A.xlsx
+++ b/test_resource/codeextractor_T_T_A.xlsx
@@ -441,50 +441,50 @@
 </t>
   </si>
   <si>
-    <t>def create_parser(args):_x000D_
-    """ Function which add the command line arguments required for the commandline input_x000D_
-    of guardrails"""_x000D_
-    # Create the parser_x000D_
-    func_parser = argparse.ArgumentParser(description='Guardrails for python programs')_x000D_
-    # Add the arguments_x000D_
-    func_parser.add_argument('--path',_x000D_
-                             metavar='--p',_x000D_
-                             type=str,_x000D_
-                             help='the Input file path for guardrail.ini')_x000D_
+    <t>def create_parser(args):_x000D__x000D_
+    """ Function which add the command line arguments required for the commandline input_x000D__x000D_
+    of guardrails"""_x000D__x000D_
+    # Create the parser_x000D__x000D_
+    func_parser = argparse.ArgumentParser(description='Guardrails for python programs')_x000D__x000D_
+    # Add the arguments_x000D__x000D_
+    func_parser.add_argument('--path',_x000D__x000D_
+                             metavar='--p',_x000D__x000D_
+                             type=str,_x000D__x000D_
+                             help='the Input file path for guardrail.ini')_x000D__x000D_
     return func_parser.parse_args(args)_x000D_</t>
   </si>
   <si>
-    <t>def validate_return(val, message, guardrail):_x000D_
-    """_x000D_
-    Function to validate the returns from subprocess_x000D_
-    Parameters:_x000D_
-      val (int): return value from subprocess_x000D_
-      message (string): message to be printed._x000D_
-      guardrail (bool): identifier whether a process or guardrail gate._x000D_
-    Returns:_x000D_
-    sub-process return value._x000D_
-    """_x000D_
-    process = "" if guardrail else "task"_x000D_
-    if val:_x000D_
-        msg = "Guardrail {}, failed {}.".format(process, message)_x000D_
-        LOG.info(msg)  # pragma: no mutate_x000D_
-        sys.exit(val)_x000D_
-    else:_x000D_
-        msg = "Guardrail {}, passed {}.".format(process, message)_x000D_
-        LOG.info(msg)  # pragma: no mutate_x000D_
+    <t>def validate_return(val, message, guardrail):_x000D__x000D_
+    """_x000D__x000D_
+    Function to validate the returns from subprocess_x000D__x000D_
+    Parameters:_x000D__x000D_
+      val (int): return value from subprocess_x000D__x000D_
+      message (string): message to be printed._x000D__x000D_
+      guardrail (bool): identifier whether a process or guardrail gate._x000D__x000D_
+    Returns:_x000D__x000D_
+    sub-process return value._x000D__x000D_
+    """_x000D__x000D_
+    process = "" if guardrail else "task"_x000D__x000D_
+    if val:_x000D__x000D_
+        msg = "Guardrail {}, failed {}.".format(process, message)_x000D__x000D_
+        LOG.info(msg)  # pragma: no mutate_x000D__x000D_
+        sys.exit(val)_x000D__x000D_
+    else:_x000D__x000D_
+        msg = "Guardrail {}, passed {}.".format(process, message)_x000D__x000D_
+        LOG.info(msg)  # pragma: no mutate_x000D__x000D_
         return</t>
   </si>
   <si>
-    <t>def create_parser(args):_x000D_
-    """ Function which add the command line arguments required for the commandline input_x000D_
-    of guardrails"""_x000D_
-    # Create the parser_x000D_
-    func_parser = argparse.ArgumentParser(description='Guardrails for python programs')_x000D_
-    # Add the arguments_x000D_
-    func_parser.add_argument('--path',_x000D_
-                             metavar='--p',_x000D_
-                             type=str,_x000D_
-                             help='the Input file path for guardrail.ini')_x000D_
+    <t>def create_parser(args):_x000D__x000D_
+    """ Function which add the command line arguments required for the commandline input_x000D__x000D_
+    of guardrails"""_x000D__x000D_
+    # Create the parser_x000D__x000D_
+    func_parser = argparse.ArgumentParser(description='Guardrails for python programs')_x000D__x000D_
+    # Add the arguments_x000D__x000D_
+    func_parser.add_argument('--path',_x000D__x000D_
+                             metavar='--p',_x000D__x000D_
+                             type=str,_x000D__x000D_
+                             help='the Input file path for guardrail.ini')_x000D__x000D_
     return func_parser.parse_args(args)</t>
   </si>
   <si>
@@ -582,544 +582,544 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    def generate_pylint_cmd(self):  # pylint: disable=R0201_x000D_
-        """Function stubbed to return generate_pylint_cmd method return value"""_x000D_
+    <t xml:space="preserve">    def generate_pylint_cmd(self):  # pylint: disable=R0201_x000D__x000D_
+        """Function stubbed to return generate_pylint_cmd method return value"""_x000D__x000D_
         return "xyz"</t>
   </si>
   <si>
-    <t xml:space="preserve">    def get_check_pass_fail_status(self, val_1, val_2, val_3):_x000D_
-        """Function to refactor test check_pass_fail method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            guardails_obj.check_pass_fail(val_1, val_2, val_3)_x000D_
-            if int(val_1) + int(val_2) + int(val_3) == 120:_x000D_
-                assert not exit_mock.called_x000D_
-            else:_x000D_
-                assert exit_mock.called_x000D_
+    <t xml:space="preserve">    def get_check_pass_fail_status(self, val_1, val_2, val_3):_x000D__x000D_
+        """Function to refactor test check_pass_fail method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            guardails_obj.check_pass_fail(val_1, val_2, val_3)_x000D__x000D_
+            if int(val_1) + int(val_2) + int(val_3) == 120:_x000D__x000D_
+                assert not exit_mock.called_x000D__x000D_
+            else:_x000D__x000D_
+                assert exit_mock.called_x000D__x000D_
             return self.get_log_data(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def get_file_name(folder_name, file_name):_x000D_
-        """Function to test file_name method"""_x000D_
-        import os_x000D_
-        ini_path = os.path.abspath(os.path.join_x000D_
-                                   (os.path.dirname(__file__), os.pardir))_x000D_
+    <t xml:space="preserve">    def get_file_name(folder_name, file_name):_x000D__x000D_
+        """Function to test file_name method"""_x000D__x000D_
+        import os_x000D__x000D_
+        ini_path = os.path.abspath(os.path.join_x000D__x000D_
+                                   (os.path.dirname(__file__), os.pardir))_x000D__x000D_
         return os.path.join(ini_path, folder_name, file_name)_x000D_</t>
   </si>
   <si>
-    <t xml:space="preserve">    def get_guardrails_obj():_x000D_
-        """Function to create guardrails class object"""_x000D_
-        import os_x000D_
-        ini_path = os.path.abspath(os.path.join_x000D_
-                                   (os.path.dirname(__file__), os.pardir))_x000D_
-        ini_path = os.path.join(ini_path, "test_resource", "guardrail.ini")_x000D_
+    <t xml:space="preserve">    def get_guardrails_obj():_x000D__x000D_
+        """Function to create guardrails class object"""_x000D__x000D_
+        import os_x000D__x000D_
+        ini_path = os.path.abspath(os.path.join_x000D__x000D_
+                                   (os.path.dirname(__file__), os.pardir))_x000D__x000D_
+        ini_path = os.path.join(ini_path, "test_resource", "guardrail.ini")_x000D__x000D_
         return Guardails(ini_path)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def get_log_data(self, line):_x000D_
-        """ function to get the line requested from log data"""_x000D_
-        file_name = self.get_file_name("guardrails", "guardrails.log")_x000D_
-        file_variable = open(file_name)_x000D_
-        all_lines_variable = file_variable.readlines()_x000D_
-        string = all_lines_variable[-line]_x000D_
-        string = string[0: 0:] + string[23 + 1::]_x000D_
+    <t xml:space="preserve">    def get_log_data(self, line):_x000D__x000D_
+        """ function to get the line requested from log data"""_x000D__x000D_
+        file_name = self.get_file_name("guardrails", "guardrails.log")_x000D__x000D_
+        file_variable = open(file_name)_x000D__x000D_
+        all_lines_variable = file_variable.readlines()_x000D__x000D_
+        string = all_lines_variable[-line]_x000D__x000D_
+        string = string[0: 0:] + string[23 + 1::]_x000D__x000D_
         return string</t>
   </si>
   <si>
-    <t xml:space="preserve">    def get_test_guardrail_gate_status(self, mock_subproc_call, gate):_x000D_
-        """Function to test guardrail_test method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        mock_subproc_call.return_value = False_x000D_
-        if gate == "guardrail_jscpd":_x000D_
-            guardails_obj.parse_jscpd_report_json = self.return_jscpd_false_x000D_
-            guardails_obj.guardrail_jscpd()_x000D_
-        if gate == "guardrail_test":_x000D_
-            guardails_obj.guardrail_test()_x000D_
-        if gate == "guardrail_coverage":_x000D_
-            guardails_obj.guardrail_coverage()_x000D_
-            return self.get_log_data(1), self.get_log_data(3)_x000D_
-        if gate == "guardrail_deadcode":_x000D_
-            guardails_obj.guardrail_deadcode()_x000D_
-        self.assertTrue(mock_subproc_call.called)_x000D_
+    <t xml:space="preserve">    def get_test_guardrail_gate_status(self, mock_subproc_call, gate):_x000D__x000D_
+        """Function to test guardrail_test method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        mock_subproc_call.return_value = False_x000D__x000D_
+        if gate == "guardrail_jscpd":_x000D__x000D_
+            guardails_obj.parse_jscpd_report_json = self.return_jscpd_false_x000D__x000D_
+            guardails_obj.guardrail_jscpd()_x000D__x000D_
+        if gate == "guardrail_test":_x000D__x000D_
+            guardails_obj.guardrail_test()_x000D__x000D_
+        if gate == "guardrail_coverage":_x000D__x000D_
+            guardails_obj.guardrail_coverage()_x000D__x000D_
+            return self.get_log_data(1), self.get_log_data(3)_x000D__x000D_
+        if gate == "guardrail_deadcode":_x000D__x000D_
+            guardails_obj.guardrail_deadcode()_x000D__x000D_
+        self.assertTrue(mock_subproc_call.called)_x000D__x000D_
         return self.get_log_data(1), self.get_log_data(2)_x000D_</t>
   </si>
   <si>
-    <t xml:space="preserve">    def get_test_guardrail_gate_status_fail(self, mock_subproc_call, gate):_x000D_
-        """Function to refactor test guardrail_gating_fail method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        mock_subproc_call.return_value = True_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            if gate == "guardrail_jscpd":_x000D_
-                guardails_obj.parse_jscpd_report_json = self.return_jscpd_false_x000D_
-                guardails_obj.guardrail_jscpd()_x000D_
-            if gate == "guardrail_test":_x000D_
-                guardails_obj.guardrail_test()_x000D_
-            if gate == "guardrail_coverage":_x000D_
-                guardails_obj.guardrail_coverage()_x000D_
-                return self.get_log_data(1), self.get_log_data(3)_x000D_
-            if gate == "guardrail_deadcode":_x000D_
-                guardails_obj.guardrail_deadcode()_x000D_
-            self.assertTrue(mock_subproc_call.called)_x000D_
-            assert exit_mock.called_x000D_
+    <t xml:space="preserve">    def get_test_guardrail_gate_status_fail(self, mock_subproc_call, gate):_x000D__x000D_
+        """Function to refactor test guardrail_gating_fail method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        mock_subproc_call.return_value = True_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            if gate == "guardrail_jscpd":_x000D__x000D_
+                guardails_obj.parse_jscpd_report_json = self.return_jscpd_false_x000D__x000D_
+                guardails_obj.guardrail_jscpd()_x000D__x000D_
+            if gate == "guardrail_test":_x000D__x000D_
+                guardails_obj.guardrail_test()_x000D__x000D_
+            if gate == "guardrail_coverage":_x000D__x000D_
+                guardails_obj.guardrail_coverage()_x000D__x000D_
+                return self.get_log_data(1), self.get_log_data(3)_x000D__x000D_
+            if gate == "guardrail_deadcode":_x000D__x000D_
+                guardails_obj.guardrail_deadcode()_x000D__x000D_
+            self.assertTrue(mock_subproc_call.called)_x000D__x000D_
+            assert exit_mock.called_x000D__x000D_
         return self.get_log_data(1), self.get_log_data(2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def get_validate_return(self, val_1, val_2, val_3):_x000D_
-        """Function to refactor test validate_return method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            guardails_obj.validate_return(val_1, val_2, val_3)_x000D_
-            if val_3 is True:_x000D_
-                assert exit_mock.called_x000D_
-            else:_x000D_
-                assert not exit_mock.called_x000D_
+    <t xml:space="preserve">    def get_validate_return(self, val_1, val_2, val_3):_x000D__x000D_
+        """Function to refactor test validate_return method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            guardails_obj.validate_return(val_1, val_2, val_3)_x000D__x000D_
+            if val_3 is True:_x000D__x000D_
+                assert exit_mock.called_x000D__x000D_
+            else:_x000D__x000D_
+                assert not exit_mock.called_x000D__x000D_
             return self.get_log_data(1)_x000D_</t>
   </si>
   <si>
-    <t xml:space="preserve">    def return_jscpd_false(self, val, message):  # pylint: disable=W0613,R0201_x000D_
-        """Function stubbed to set parse_jscpd_report_json method value to false"""_x000D_
+    <t xml:space="preserve">    def return_jscpd_false(self, val, message):  # pylint: disable=W0613,R0201_x000D__x000D_
+        """Function stubbed to set parse_jscpd_report_json method value to false"""_x000D__x000D_
         return False_x000D_</t>
   </si>
   <si>
-    <t xml:space="preserve">    def setUp(self):_x000D_
-        """"Sets the directory for the test case"""_x000D_
-        import os_x000D_
-        ini_path = os.path.abspath(os.path.join_x000D_
-                                   (os.path.dirname(__file__), os.pardir))_x000D_
-        ini_path = os.path.join(ini_path, "test_resource", "guardrail.ini")_x000D_
-        config = ConfigParser()_x000D_
-        config.read(ini_path)_x000D_
-        self.report_folder = (config.get('folder', 'report_folder'))_x000D_
-        if not os.path.exists(self.report_folder):_x000D_
+    <t xml:space="preserve">    def setUp(self):_x000D__x000D_
+        """"Sets the directory for the test case"""_x000D__x000D_
+        import os_x000D__x000D_
+        ini_path = os.path.abspath(os.path.join_x000D__x000D_
+                                   (os.path.dirname(__file__), os.pardir))_x000D__x000D_
+        ini_path = os.path.join(ini_path, "test_resource", "guardrail.ini")_x000D__x000D_
+        config = ConfigParser()_x000D__x000D_
+        config.read(ini_path)_x000D__x000D_
+        self.report_folder = (config.get('folder', 'report_folder'))_x000D__x000D_
+        if not os.path.exists(self.report_folder):_x000D__x000D_
             os.makedirs(self.report_folder)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def stub_get_all_func_cnn():_x000D_
-        """Function stubbed to return get_all_func_cnn function return value"""_x000D_
-        list_data = {_x000D_
-            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
-            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D_
-            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
-            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D_
+    <t xml:space="preserve">    def stub_get_all_func_cnn():_x000D__x000D_
+        """Function stubbed to return get_all_func_cnn function return value"""_x000D__x000D_
+        list_data = {_x000D__x000D_
+            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D__x000D_
+            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D__x000D_
+            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D__x000D_
+            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D__x000D_
         return list_data_x000D_</t>
   </si>
   <si>
-    <t xml:space="preserve">    def stub_globals(guardails_obj):_x000D_
-        """Function to stub all globals"""_x000D_
-        guardails_obj.src_folder = "abc"_x000D_
-        guardails_obj.test_folder = "test"_x000D_
-        guardails_obj.pytest = "abc"_x000D_
-        guardails_obj.report_folder = "abc/report"_x000D_
-        guardails_obj.cyclo_exclude = "abc/None"_x000D_
-        guardails_obj.python = "python"_x000D_
-        guardails_obj.pylintrc = ".pylintrc"_x000D_
-        guardails_obj.covrc = ".cov"_x000D_
-        guardails_obj.dup_token = 10_x000D_
-        guardails_obj.percent_cov = 80_x000D_
-        guardails_obj.allow_dup = 20_x000D_
-        guardails_obj.cc_limit = 10_x000D_
-        guardails_obj.allow_mutants = 10_x000D_
-        guardails_obj.all_folders = guardails_obj.src_folder + " " + guardails_obj.test_folder_x000D_
-        guardails_obj.linting = True_x000D_
-        guardails_obj.cpd = True_x000D_
-        guardails_obj.cov = True_x000D_
-        guardails_obj.mutation = True_x000D_
-        guardails_obj.deadcode = True_x000D_
-        guardails_obj.cycloc = True_x000D_
-        guardails_obj.lint_ignore = "x"_x000D_
-        guardails_obj.programming_language = "java"_x000D_
-        guardails_obj.jscpd_ignore = "y"_x000D_
+    <t xml:space="preserve">    def stub_globals(guardails_obj):_x000D__x000D_
+        """Function to stub all globals"""_x000D__x000D_
+        guardails_obj.src_folder = "abc"_x000D__x000D_
+        guardails_obj.test_folder = "test"_x000D__x000D_
+        guardails_obj.pytest = "abc"_x000D__x000D_
+        guardails_obj.report_folder = "abc/report"_x000D__x000D_
+        guardails_obj.cyclo_exclude = "abc/None"_x000D__x000D_
+        guardails_obj.python = "python"_x000D__x000D_
+        guardails_obj.pylintrc = ".pylintrc"_x000D__x000D_
+        guardails_obj.covrc = ".cov"_x000D__x000D_
+        guardails_obj.dup_token = 10_x000D__x000D_
+        guardails_obj.percent_cov = 80_x000D__x000D_
+        guardails_obj.allow_dup = 20_x000D__x000D_
+        guardails_obj.cc_limit = 10_x000D__x000D_
+        guardails_obj.allow_mutants = 10_x000D__x000D_
+        guardails_obj.all_folders = guardails_obj.src_folder + " " + guardails_obj.test_folder_x000D__x000D_
+        guardails_obj.linting = True_x000D__x000D_
+        guardails_obj.cpd = True_x000D__x000D_
+        guardails_obj.cov = True_x000D__x000D_
+        guardails_obj.mutation = True_x000D__x000D_
+        guardails_obj.deadcode = True_x000D__x000D_
+        guardails_obj.cycloc = True_x000D__x000D_
+        guardails_obj.lint_ignore = "x"_x000D__x000D_
+        guardails_obj.programming_language = "java"_x000D__x000D_
+        guardails_obj.jscpd_ignore = "y"_x000D__x000D_
         guardails_obj.dead_code_ignore = "z"</t>
   </si>
   <si>
-    <t xml:space="preserve">    def stub_validate_return(self, val, message, guardrail):  # pylint: disable=W0613,R0201_x000D_
-        """Function stubbed to return false"""_x000D_
+    <t xml:space="preserve">    def stub_validate_return(self, val, message, guardrail):  # pylint: disable=W0613,R0201_x000D__x000D_
+        """Function stubbed to return false"""_x000D__x000D_
         return False</t>
   </si>
   <si>
-    <t xml:space="preserve">    def tearDown(self):_x000D_
-        """"Deletes the log files created."""_x000D_
-        import os_x000D_
-        ini_path = os.path.abspath(os.path.join_x000D_
-                                   (os.path.dirname(__file__), os.pardir))_x000D_
-        file_name = os.path.join(ini_path, "guardrails", "guardrails.log")_x000D_
-        if os.path.exists(file_name):_x000D_
+    <t xml:space="preserve">    def tearDown(self):_x000D__x000D_
+        """"Deletes the log files created."""_x000D__x000D_
+        import os_x000D__x000D_
+        ini_path = os.path.abspath(os.path.join_x000D__x000D_
+                                   (os.path.dirname(__file__), os.pardir))_x000D__x000D_
+        file_name = os.path.join(ini_path, "guardrails", "guardrails.log")_x000D__x000D_
+        if os.path.exists(file_name):_x000D__x000D_
             open(file_name, 'w').close()_x000D_</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_call_subprocess_error(self):_x000D_
-        """Function to test call_subprocess_error method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        try:_x000D_
-            guardails_obj.call_subprocess("lshrs")_x000D_
-        except KeyError:_x000D_
-            pass_x000D_
+    <t xml:space="preserve">    def test_call_subprocess_error(self):_x000D__x000D_
+        """Function to test call_subprocess_error method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        try:_x000D__x000D_
+            guardails_obj.call_subprocess("lshrs")_x000D__x000D_
+        except KeyError:_x000D__x000D_
+            pass_x000D__x000D_
         self.assertNotEqual(guardails_obj.call_subprocess("lshrs"), 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_call_subprocess_noerror(self):_x000D_
-        """Function to test call_subprocess_noerror method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        ret_val = guardails_obj.call_subprocess("dir")_x000D_
+    <t xml:space="preserve">    def test_call_subprocess_noerror(self):_x000D__x000D_
+        """Function to test call_subprocess_noerror method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        ret_val = guardails_obj.call_subprocess("dir")_x000D__x000D_
         self.assertEqual(ret_val, 0)_x000D_</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_check_pass_fail_success(self):_x000D_
-        """Function to test check_pass_fail_success method"""_x000D_
-        list_test = [[10, 100, 10, "Guardrail gating, passed mutation"],_x000D_
-                     [10, 100, 1, "Guardrail gating, failed mutation"],_x000D_
-                     [10, 0, 10, "Guardrail gating, failed: mutation test did not run"]]_x000D_
-        for i, _ in enumerate(list_test):_x000D_
-            self.assertTrue(list_test[i][3] in self.get_check_pass_fail_status(list_test[i][0],_x000D_
+    <t xml:space="preserve">    def test_check_pass_fail_success(self):_x000D__x000D_
+        """Function to test check_pass_fail_success method"""_x000D__x000D_
+        list_test = [[10, 100, 10, "Guardrail gating, passed mutation"],_x000D__x000D_
+                     [10, 100, 1, "Guardrail gating, failed mutation"],_x000D__x000D_
+                     [10, 0, 10, "Guardrail gating, failed: mutation test did not run"]]_x000D__x000D_
+        for i, _ in enumerate(list_test):_x000D__x000D_
+            self.assertTrue(list_test[i][3] in self.get_check_pass_fail_status(list_test[i][0],_x000D__x000D_
                                                                                list_test[i][1], list_test[i][2]))_x000D_</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_check_report_dir(self, mock_path_exists, mock_mkdir):_x000D_
-        """Function to test check_report_dir method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        mock_path_exists.return_value = True_x000D_
-        mock_mkdir.return_value = False_x000D_
-        guardails_obj.check_report_dir()_x000D_
+    <t xml:space="preserve">    def test_check_report_dir(self, mock_path_exists, mock_mkdir):_x000D__x000D_
+        """Function to test check_report_dir method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        mock_path_exists.return_value = True_x000D__x000D_
+        mock_mkdir.return_value = False_x000D__x000D_
+        guardails_obj.check_report_dir()_x000D__x000D_
         self.assertTrue(mock_mkdir.called)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_file_exists(self):_x000D_
-        """Function to test file_exists method"""_x000D_
-        import os_x000D_
-        GuardrailGlobals.generate_pylint_cmd = self.generate_pylint_cmd_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            Guardails.file_exists(os.path.abspath(os.path.join(os.path.dirname(__file__), os.pardir)))_x000D_
+    <t xml:space="preserve">    def test_file_exists(self):_x000D__x000D_
+        """Function to test file_exists method"""_x000D__x000D_
+        import os_x000D__x000D_
+        GuardrailGlobals.generate_pylint_cmd = self.generate_pylint_cmd_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            Guardails.file_exists(os.path.abspath(os.path.join(os.path.dirname(__file__), os.pardir)))_x000D__x000D_
             assert not exit_mock.called</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_file_exists_exit(self):  # pylint: disable=R0201_x000D_
-        """Function to test file_exists_exit method"""_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            Guardails.file_exists("abc")_x000D_
+    <t xml:space="preserve">    def test_file_exists_exit(self):  # pylint: disable=R0201_x000D__x000D_
+        """Function to test file_exists_exit method"""_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            Guardails.file_exists("abc")_x000D__x000D_
             assert exit_mock.called</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_get_all_func_cnn(self):_x000D_
-        """Function to test get_all_func_cnn method"""_x000D_
-        file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        guardails_obj.get_index_cnn = Mock()_x000D_
-        guardails_obj.get_index_cnn.return_value = int(2)_x000D_
-        expec_data = {_x000D_
-            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
-            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D_
-            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
-            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D_
-        root = ETree.parse(file_name).getroot()_x000D_
-        for functions in root.iter('measure'):_x000D_
-            if functions.attrib['type'] == "Function":_x000D_
-                assert expec_data == guardails_obj.get_all_func_cnn(functions)_x000D_
-        file_name = self.get_file_name("test_resource", "CC_test_Func.xml")_x000D_
-        root = ETree.parse(file_name).getroot()_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            for functions in root.iter('measure'):_x000D_
-                if functions.attrib['type'] == "Function":_x000D_
-                    guardails_obj.get_all_func_cnn(functions)_x000D_
-            file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D_
-            root = ETree.parse(file_name).getroot()_x000D_
-            for functions in root.iter('measure'):_x000D_
-                if functions.attrib['type'] == "Function":_x000D_
-                    guardails_obj.get_all_func_cnn(functions)_x000D_
-            assert exit_mock.called_x000D_
-            line = self.get_log_data(2)_x000D_
-            self.assertTrue(_x000D_
-                "Guardrail unable to find the tags item/value/name in the report " in line)_x000D_
-            line = self.get_log_data(1)_x000D_
-            self.assertTrue(_x000D_
+    <t xml:space="preserve">    def test_get_all_func_cnn(self):_x000D__x000D_
+        """Function to test get_all_func_cnn method"""_x000D__x000D_
+        file_name = self.get_file_name("test_resource", "CC.xml")_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        guardails_obj.get_index_cnn = Mock()_x000D__x000D_
+        guardails_obj.get_index_cnn.return_value = int(2)_x000D__x000D_
+        expec_data = {_x000D__x000D_
+            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D__x000D_
+            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D__x000D_
+            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D__x000D_
+            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D__x000D_
+        root = ETree.parse(file_name).getroot()_x000D__x000D_
+        for functions in root.iter('measure'):_x000D__x000D_
+            if functions.attrib['type'] == "Function":_x000D__x000D_
+                assert expec_data == guardails_obj.get_all_func_cnn(functions)_x000D__x000D_
+        file_name = self.get_file_name("test_resource", "CC_test_Func.xml")_x000D__x000D_
+        root = ETree.parse(file_name).getroot()_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            for functions in root.iter('measure'):_x000D__x000D_
+                if functions.attrib['type'] == "Function":_x000D__x000D_
+                    guardails_obj.get_all_func_cnn(functions)_x000D__x000D_
+            file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D__x000D_
+            root = ETree.parse(file_name).getroot()_x000D__x000D_
+            for functions in root.iter('measure'):_x000D__x000D_
+                if functions.attrib['type'] == "Function":_x000D__x000D_
+                    guardails_obj.get_all_func_cnn(functions)_x000D__x000D_
+            assert exit_mock.called_x000D__x000D_
+            line = self.get_log_data(2)_x000D__x000D_
+            self.assertTrue(_x000D__x000D_
+                "Guardrail unable to find the tags item/value/name in the report " in line)_x000D__x000D_
+            line = self.get_log_data(1)_x000D__x000D_
+            self.assertTrue(_x000D__x000D_
                 "Guardrail unable to find the tags item/value/name in the report file " in line)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_get_index_cnn(self):_x000D_
-        """Function to test get_index_cnn method"""_x000D_
-        file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        root = ETree.parse(file_name).getroot()_x000D_
-        for functions in root.iter('measure'):_x000D_
-            if functions.attrib['type'] == "Function":_x000D_
-                assert guardails_obj.get_index_cnn(functions) == 2_x000D_
-        file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D_
-        root = ETree.parse(file_name).getroot()_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            for functions in root.iter('measure'):_x000D_
-                if functions.attrib['type'] == "Function":_x000D_
-                    guardails_obj.get_index_cnn(functions)_x000D_
-            assert exit_mock.called_x000D_
-            line = self.get_log_data(1)_x000D_
+    <t xml:space="preserve">    def test_get_index_cnn(self):_x000D__x000D_
+        """Function to test get_index_cnn method"""_x000D__x000D_
+        file_name = self.get_file_name("test_resource", "CC.xml")_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        root = ETree.parse(file_name).getroot()_x000D__x000D_
+        for functions in root.iter('measure'):_x000D__x000D_
+            if functions.attrib['type'] == "Function":_x000D__x000D_
+                assert guardails_obj.get_index_cnn(functions) == 2_x000D__x000D_
+        file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D__x000D_
+        root = ETree.parse(file_name).getroot()_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            for functions in root.iter('measure'):_x000D__x000D_
+                if functions.attrib['type'] == "Function":_x000D__x000D_
+                    guardails_obj.get_index_cnn(functions)_x000D__x000D_
+            assert exit_mock.called_x000D__x000D_
+            line = self.get_log_data(1)_x000D__x000D_
             self.assertTrue("Guardrail unable to find the tag CCN in the report " in line)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_coverage(self):_x000D_
-        """Function to test guardrail_coverage method"""_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_coverage")_x000D_
-        print(line_2)_x000D_
-        self.assertTrue("Guardrail , passed Coverage threshold" in line_1)_x000D_
-        val = r'mypython -m coverage report --fail-under=85'_x000D_
+    <t xml:space="preserve">    def test_guardrail_coverage(self):_x000D__x000D_
+        """Function to test guardrail_coverage method"""_x000D__x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_coverage")_x000D__x000D_
+        print(line_2)_x000D__x000D_
+        self.assertTrue("Guardrail , passed Coverage threshold" in line_1)_x000D__x000D_
+        val = r'mypython -m coverage report --fail-under=85'_x000D__x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_coverage_fail(self):_x000D_
-        """Function to test guardrail_coverage_fail method"""_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_coverage")_x000D_
-        print(line_2)_x000D_
-        self.assertTrue("Guardrail , failed Coverage threshold" in line_1)_x000D_
-        val = r'mypython -m coverage report --fail-under=85'_x000D_
+    <t xml:space="preserve">    def test_guardrail_coverage_fail(self):_x000D__x000D_
+        """Function to test guardrail_coverage_fail method"""_x000D__x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_coverage")_x000D__x000D_
+        print(line_2)_x000D__x000D_
+        self.assertTrue("Guardrail , failed Coverage threshold" in line_1)_x000D__x000D_
+        val = r'mypython -m coverage report --fail-under=85'_x000D__x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_cyclomatic_complexity(self, mock_subproc_call):_x000D_
-        """Function to test guardrail_cyclomatic_complexity method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        guardails_obj.parse_cyclo_report_xml = Mock()_x000D_
-        guardails_obj.parse_cyclo_report_xml.return_value = {_x000D_
-            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
-            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D_
-            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
-            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D_
-        mock_subproc_call.return_value = False_x000D_
-        guardails_obj.guardrail_cyclomatic_complexity()_x000D_
-        self.assertTrue(mock_subproc_call.called)_x000D_
-        line = self.get_log_data(1)_x000D_
-        self.assertTrue("Guardrail , passed Cyclomatic complexity" in line)_x000D_
-        mock_subproc_call.return_value = True_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            guardails_obj.guardrail_cyclomatic_complexity()_x000D_
-            line = self.get_log_data(2)_x000D_
-            self.assertTrue("Guardrail task, failed Cyclomating complexity generation" in line)_x000D_
+    <t xml:space="preserve">    def test_guardrail_cyclomatic_complexity(self, mock_subproc_call):_x000D__x000D_
+        """Function to test guardrail_cyclomatic_complexity method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        guardails_obj.parse_cyclo_report_xml = Mock()_x000D__x000D_
+        guardails_obj.parse_cyclo_report_xml.return_value = {_x000D__x000D_
+            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D__x000D_
+            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D__x000D_
+            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D__x000D_
+            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D__x000D_
+        mock_subproc_call.return_value = False_x000D__x000D_
+        guardails_obj.guardrail_cyclomatic_complexity()_x000D__x000D_
+        self.assertTrue(mock_subproc_call.called)_x000D__x000D_
+        line = self.get_log_data(1)_x000D__x000D_
+        self.assertTrue("Guardrail , passed Cyclomatic complexity" in line)_x000D__x000D_
+        mock_subproc_call.return_value = True_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            guardails_obj.guardrail_cyclomatic_complexity()_x000D__x000D_
+            line = self.get_log_data(2)_x000D__x000D_
+            self.assertTrue("Guardrail task, failed Cyclomating complexity generation" in line)_x000D__x000D_
             assert exit_mock_x000D_</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_deadcode(self):_x000D_
-        """Function to test guardrail_deadcode method"""_x000D_
-        import os_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_deadcode")_x000D_
-        self.assertTrue("Guardrail , passed Dead code detection" in line_1)_x000D_
-        val = r'mypython -m vulture C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\functiondefextractor ' \_x000D_
-              r'C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\test  --exclude C:\Projects\PythonRepo' \_x000D_
-              r'\python_sample\FunctionDefExtractor\test --min-confidence 100 &gt;C:\Projects\PythonRepo' \_x000D_
-              r'\REPORT\deadcode.txt'_x000D_
+    <t xml:space="preserve">    def test_guardrail_deadcode(self):_x000D__x000D_
+        """Function to test guardrail_deadcode method"""_x000D__x000D_
+        import os_x000D__x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_deadcode")_x000D__x000D_
+        self.assertTrue("Guardrail , passed Dead code detection" in line_1)_x000D__x000D_
+        val = r'mypython -m vulture C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\functiondefextractor ' \_x000D__x000D_
+              r'C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\test  --exclude C:\Projects\PythonRepo' \_x000D__x000D_
+              r'\python_sample\FunctionDefExtractor\test --min-confidence 100 &gt;C:\Projects\PythonRepo' \_x000D__x000D_
+              r'\REPORT\deadcode.txt'_x000D__x000D_
         self.assertTrue(val.replace("\\", os.sep) in line_2.replace('\\', os.sep).replace("/", os.sep))</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_deadcode_fail(self):_x000D_
-        """Function to test guardrail_deadcode_fail method"""_x000D_
-        import os_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_deadcode")_x000D_
-        self.assertTrue("Guardrail , failed Dead code detection" in line_1)_x000D_
-        val = r'mypython -m vulture C:\Projects\PythonRepo\python_sample\FunctionDefExtractor' \_x000D_
-              r'\functiondefextractor ' \_x000D_
-              r'C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\test  --exclude' \_x000D_
-              r' C:\Projects\PythonRepo' \_x000D_
-              r'\python_sample\FunctionDefExtractor\test --min-confidence 100 &gt;C:\Projects' \_x000D_
-              r'\PythonRepo\REPORT\deadcode.txt'_x000D_
+    <t xml:space="preserve">    def test_guardrail_deadcode_fail(self):_x000D__x000D_
+        """Function to test guardrail_deadcode_fail method"""_x000D__x000D_
+        import os_x000D__x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_deadcode")_x000D__x000D_
+        self.assertTrue("Guardrail , failed Dead code detection" in line_1)_x000D__x000D_
+        val = r'mypython -m vulture C:\Projects\PythonRepo\python_sample\FunctionDefExtractor' \_x000D__x000D_
+              r'\functiondefextractor ' \_x000D__x000D_
+              r'C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\test  --exclude' \_x000D__x000D_
+              r' C:\Projects\PythonRepo' \_x000D__x000D_
+              r'\python_sample\FunctionDefExtractor\test --min-confidence 100 &gt;C:\Projects' \_x000D__x000D_
+              r'\PythonRepo\REPORT\deadcode.txt'_x000D__x000D_
         self.assertTrue(val.replace('\\', os.sep) in line_2.replace('\\', os.sep).replace("/", os.sep))</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_jscpd(self):_x000D_
-        """Function to test guardrail_jscpd method"""_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_jscpd")_x000D_
-        self.assertTrue("Guardrail task, passed Copy Paste Detection report generation" in line_1)_x000D_
-        val = r'command for sub process:jscpd --min-tokens 20  --ignore C:\Projects\PythonRepo\python_sample' \_x000D_
-              r'\FunctionDefExtractor\test  --max-lines 100000 --max-size 100mb --reporters "json,html"' \_x000D_
-              r' --mode "strict" --format "python, java" -o'_x000D_
+    <t xml:space="preserve">    def test_guardrail_jscpd(self):_x000D__x000D_
+        """Function to test guardrail_jscpd method"""_x000D__x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_jscpd")_x000D__x000D_
+        self.assertTrue("Guardrail task, passed Copy Paste Detection report generation" in line_1)_x000D__x000D_
+        val = r'command for sub process:jscpd --min-tokens 20  --ignore C:\Projects\PythonRepo\python_sample' \_x000D__x000D_
+              r'\FunctionDefExtractor\test  --max-lines 100000 --max-size 100mb --reporters "json,html"' \_x000D__x000D_
+              r' --mode "strict" --format "python, java" -o'_x000D__x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_jscpd_fail(self):_x000D_
-        """Function to test guardrail_jscpd_fail method"""_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_jscpd")_x000D_
-        self.assertTrue("Guardrail task, failed Copy Paste Detection report generation" in line_1)_x000D_
-        val = r'command for sub process:jscpd --min-tokens 20  --ignore C:\Projects\PythonRepo\python_sample' \_x000D_
-              r'\FunctionDefExtractor\test  --max-lines 100000 --max-size 100mb --reporters "json,html" --mode ' \_x000D_
-              r'"strict" --format "python, java" -o'_x000D_
+    <t xml:space="preserve">    def test_guardrail_jscpd_fail(self):_x000D__x000D_
+        """Function to test guardrail_jscpd_fail method"""_x000D__x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_jscpd")_x000D__x000D_
+        self.assertTrue("Guardrail task, failed Copy Paste Detection report generation" in line_1)_x000D__x000D_
+        val = r'command for sub process:jscpd --min-tokens 20  --ignore C:\Projects\PythonRepo\python_sample' \_x000D__x000D_
+              r'\FunctionDefExtractor\test  --max-lines 100000 --max-size 100mb --reporters "json,html" --mode ' \_x000D__x000D_
+              r'"strict" --format "python, java" -o'_x000D__x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_lint(self, mock_subproc_call):_x000D_
-        """Function to test guardrail_lint method"""_x000D_
-        import os_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        global_obj = GuardrailGlobals()_x000D_
-        mock_subproc_call.return_value = False_x000D_
-        guardails_obj.lint_ignore = self.get_file_name("test_resource", "pylint_ignore.txt")_x000D_
-        guardails_obj.generate_files_lint = MagicMock(return_value=" ")_x000D_
-        global_obj.report_folder = os.getcwd()_x000D_
-        guardails_obj.guardrail_lint()_x000D_
-        self.assertTrue(mock_subproc_call.called)_x000D_
-        line = self.get_log_data(1)_x000D_
-        self.assertTrue("Guardrail , passed Linting." in str(line))_x000D_
-        mock_subproc_call.return_value = True_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            guardails_obj.guardrail_lint()_x000D_
-            line = self.get_log_data(1)_x000D_
-            self.assertTrue("Guardrail , failed Linting." in str(line))_x000D_
-            assert exit_mock_x000D_
+    <t xml:space="preserve">    def test_guardrail_lint(self, mock_subproc_call):_x000D__x000D_
+        """Function to test guardrail_lint method"""_x000D__x000D_
+        import os_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        global_obj = GuardrailGlobals()_x000D__x000D_
+        mock_subproc_call.return_value = False_x000D__x000D_
+        guardails_obj.lint_ignore = self.get_file_name("test_resource", "pylint_ignore.txt")_x000D__x000D_
+        guardails_obj.generate_files_lint = MagicMock(return_value=" ")_x000D__x000D_
+        global_obj.report_folder = os.getcwd()_x000D__x000D_
+        guardails_obj.guardrail_lint()_x000D__x000D_
+        self.assertTrue(mock_subproc_call.called)_x000D__x000D_
+        line = self.get_log_data(1)_x000D__x000D_
+        self.assertTrue("Guardrail , passed Linting." in str(line))_x000D__x000D_
+        mock_subproc_call.return_value = True_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            guardails_obj.guardrail_lint()_x000D__x000D_
+            line = self.get_log_data(1)_x000D__x000D_
+            self.assertTrue("Guardrail , failed Linting." in str(line))_x000D__x000D_
+            assert exit_mock_x000D__x000D_
         self.assertTrue(mock_subproc_call.called)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_mutation(self, mock_subproc_call):_x000D_
-        """Function to test guardrail_mutation method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        guardails_obj.parse_mutmut_report_xml = Mock()_x000D_
-        guardails_obj.parse_mutmut_report_xml.return_value = None_x000D_
-        mock_subproc_call.return_value = False_x000D_
-        guardails_obj.guardrail_mutation()_x000D_
-        self.assertTrue(mock_subproc_call.called)_x000D_
-        line = self.get_log_data(1)_x000D_
-        self.assertTrue("Guardrail task, passed Mutation testing report generation." in line)_x000D_
-        mock_subproc_call.return_value = True_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            guardails_obj.guardrail_mutation()_x000D_
-            line = self.get_log_data(1)_x000D_
-            self.assertTrue("Guardrail task, failed Mutation testing " in line)_x000D_
+    <t xml:space="preserve">    def test_guardrail_mutation(self, mock_subproc_call):_x000D__x000D_
+        """Function to test guardrail_mutation method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        guardails_obj.parse_mutmut_report_xml = Mock()_x000D__x000D_
+        guardails_obj.parse_mutmut_report_xml.return_value = None_x000D__x000D_
+        mock_subproc_call.return_value = False_x000D__x000D_
+        guardails_obj.guardrail_mutation()_x000D__x000D_
+        self.assertTrue(mock_subproc_call.called)_x000D__x000D_
+        line = self.get_log_data(1)_x000D__x000D_
+        self.assertTrue("Guardrail task, passed Mutation testing report generation." in line)_x000D__x000D_
+        mock_subproc_call.return_value = True_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            guardails_obj.guardrail_mutation()_x000D__x000D_
+            line = self.get_log_data(1)_x000D__x000D_
+            self.assertTrue("Guardrail task, failed Mutation testing " in line)_x000D__x000D_
             assert exit_mock_x000D_</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_test(self):_x000D_
-        """Function to test guardrail_test method"""_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_test")_x000D_
-        self.assertTrue("Guardrail task, passed Test execution and coverage generation" in line_1)_x000D_
-        val = r'mypython -m pytest C:\Projects\PythonRepo\python_sample\FunctionDefExtractor' \_x000D_
-              r' --cov-config=C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\.coveragerc ' \_x000D_
-              r'--cov-report "html" --cov=C:\Projects\PythonRepo\python_sample' \_x000D_
-              r'\FunctionDefExtractor\functiondefextractor'_x000D_
+    <t xml:space="preserve">    def test_guardrail_test(self):_x000D__x000D_
+        """Function to test guardrail_test method"""_x000D__x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_test")_x000D__x000D_
+        self.assertTrue("Guardrail task, passed Test execution and coverage generation" in line_1)_x000D__x000D_
+        val = r'mypython -m pytest C:\Projects\PythonRepo\python_sample\FunctionDefExtractor' \_x000D__x000D_
+              r' --cov-config=C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\.coveragerc ' \_x000D__x000D_
+              r'--cov-report "html" --cov=C:\Projects\PythonRepo\python_sample' \_x000D__x000D_
+              r'\FunctionDefExtractor\functiondefextractor'_x000D__x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_test_fail(self):_x000D_
-        """Function to test guardrail_test_fail method"""_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_test")_x000D_
-        self.assertTrue("Guardrail task, failed Test execution and coverage generation" in line_1)_x000D_
-        val = r'mypython -m pytest C:\Projects\PythonRepo\python_sample\FunctionDefExtractor ' \_x000D_
-              r'--cov-config=C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\.coveragerc ' \_x000D_
-              r'--cov-report "html" --cov=C:\Projects\PythonRepo\python_sample' \_x000D_
-              r'\FunctionDefExtractor\functiondefextractor'_x000D_
+    <t xml:space="preserve">    def test_guardrail_test_fail(self):_x000D__x000D_
+        """Function to test guardrail_test_fail method"""_x000D__x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_test")_x000D__x000D_
+        self.assertTrue("Guardrail task, failed Test execution and coverage generation" in line_1)_x000D__x000D_
+        val = r'mypython -m pytest C:\Projects\PythonRepo\python_sample\FunctionDefExtractor ' \_x000D__x000D_
+              r'--cov-config=C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\.coveragerc ' \_x000D__x000D_
+              r'--cov-report "html" --cov=C:\Projects\PythonRepo\python_sample' \_x000D__x000D_
+              r'\FunctionDefExtractor\functiondefextractor'_x000D__x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_list_to_str_folders(self):_x000D_
-        """Function to test list_to_str_folders method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        self.stub_globals(guardails_obj)_x000D_
+    <t xml:space="preserve">    def test_list_to_str_folders(self):_x000D__x000D_
+        """Function to test list_to_str_folders method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        self.stub_globals(guardails_obj)_x000D__x000D_
         self.assertEqual(guardails_obj.list_to_str_folders(), "abc test")</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_mov_cov_report(self, mock_subproc_call, mock_shut_rmtr, mock_shut_mov):_x000D_
-        """Function to test mov_cov_report method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        process_sub_mock = mock.Mock()_x000D_
-        patcher_exist = mock.patch('os.path.exists')_x000D_
-        mock_thing = patcher_exist.start()_x000D_
-        mock_thing.return_value = True_x000D_
-        patcher_isdir = mock.patch('os.path.isdir')_x000D_
-        mock_thing_isdir = patcher_isdir.start()_x000D_
-        mock_thing_isdir.return_value = True_x000D_
-        mock_subproc_call.return_value = process_sub_mock_x000D_
-        mock_shut_rmtr.return_value = process_sub_mock_x000D_
-        mock_shut_mov.return_value = process_sub_mock_x000D_
-        guardails_obj.validate_return = self.stub_validate_return_x000D_
-        guardails_obj.mov_cov_report()_x000D_
+    <t xml:space="preserve">    def test_mov_cov_report(self, mock_subproc_call, mock_shut_rmtr, mock_shut_mov):_x000D__x000D_
+        """Function to test mov_cov_report method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        process_sub_mock = mock.Mock()_x000D__x000D_
+        patcher_exist = mock.patch('os.path.exists')_x000D__x000D_
+        mock_thing = patcher_exist.start()_x000D__x000D_
+        mock_thing.return_value = True_x000D__x000D_
+        patcher_isdir = mock.patch('os.path.isdir')_x000D__x000D_
+        mock_thing_isdir = patcher_isdir.start()_x000D__x000D_
+        mock_thing_isdir.return_value = True_x000D__x000D_
+        mock_subproc_call.return_value = process_sub_mock_x000D__x000D_
+        mock_shut_rmtr.return_value = process_sub_mock_x000D__x000D_
+        mock_shut_mov.return_value = process_sub_mock_x000D__x000D_
+        guardails_obj.validate_return = self.stub_validate_return_x000D__x000D_
+        guardails_obj.mov_cov_report()_x000D__x000D_
         self.assertTrue(mock_subproc_call.called)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_orchestrate_guardrails(self):_x000D_
-        """Function to test orchestrate_guardrails method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        guardails_obj.check_report_dir = Mock()_x000D_
-        guardails_obj.mov_cov_report = Mock()_x000D_
-        guardails_obj.mov_cov_report.return_value = True_x000D_
-        self.assertTrue(guardails_obj.mov_cov_report.return_value)_x000D_
-        guardails_obj.guardrail_lint = Mock()_x000D_
-        guardails_obj.guardrail_lint.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_lint.return_value)_x000D_
-        guardails_obj.guardrail_jscpd = Mock()_x000D_
-        guardails_obj.guardrail_jscpd.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_jscpd.return_value)_x000D_
-        guardails_obj.guardrail_test = Mock()_x000D_
-        guardails_obj.guardrail_test.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_test.return_value)_x000D_
-        guardails_obj.guardrail_coverage = Mock()_x000D_
-        guardails_obj.guardrail_coverage.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_coverage.return_value)_x000D_
-        guardails_obj.guardrail_mutation = Mock()_x000D_
-        guardails_obj.guardrail_mutation.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_mutation.return_value)_x000D_
-        guardails_obj.guardrail_deadcode = Mock()_x000D_
-        guardails_obj.guardrail_deadcode.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_deadcode.return_value)_x000D_
-        guardails_obj.guardrail_cyclomatic_complexity = Mock()_x000D_
-        guardails_obj.guardrail_cyclomatic_complexity.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_cyclomatic_complexity.return_value)_x000D_
+    <t xml:space="preserve">    def test_orchestrate_guardrails(self):_x000D__x000D_
+        """Function to test orchestrate_guardrails method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        guardails_obj.check_report_dir = Mock()_x000D__x000D_
+        guardails_obj.mov_cov_report = Mock()_x000D__x000D_
+        guardails_obj.mov_cov_report.return_value = True_x000D__x000D_
+        self.assertTrue(guardails_obj.mov_cov_report.return_value)_x000D__x000D_
+        guardails_obj.guardrail_lint = Mock()_x000D__x000D_
+        guardails_obj.guardrail_lint.return_value = True_x000D__x000D_
+        self.assertTrue(guardails_obj.guardrail_lint.return_value)_x000D__x000D_
+        guardails_obj.guardrail_jscpd = Mock()_x000D__x000D_
+        guardails_obj.guardrail_jscpd.return_value = True_x000D__x000D_
+        self.assertTrue(guardails_obj.guardrail_jscpd.return_value)_x000D__x000D_
+        guardails_obj.guardrail_test = Mock()_x000D__x000D_
+        guardails_obj.guardrail_test.return_value = True_x000D__x000D_
+        self.assertTrue(guardails_obj.guardrail_test.return_value)_x000D__x000D_
+        guardails_obj.guardrail_coverage = Mock()_x000D__x000D_
+        guardails_obj.guardrail_coverage.return_value = True_x000D__x000D_
+        self.assertTrue(guardails_obj.guardrail_coverage.return_value)_x000D__x000D_
+        guardails_obj.guardrail_mutation = Mock()_x000D__x000D_
+        guardails_obj.guardrail_mutation.return_value = True_x000D__x000D_
+        self.assertTrue(guardails_obj.guardrail_mutation.return_value)_x000D__x000D_
+        guardails_obj.guardrail_deadcode = Mock()_x000D__x000D_
+        guardails_obj.guardrail_deadcode.return_value = True_x000D__x000D_
+        self.assertTrue(guardails_obj.guardrail_deadcode.return_value)_x000D__x000D_
+        guardails_obj.guardrail_cyclomatic_complexity = Mock()_x000D__x000D_
+        guardails_obj.guardrail_cyclomatic_complexity.return_value = True_x000D__x000D_
+        self.assertTrue(guardails_obj.guardrail_cyclomatic_complexity.return_value)_x000D__x000D_
         guardails_obj.orchestrate_guardrails()_x000D_</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_parse_cyclo_report_xml(self):_x000D_
-        """Function to test parse_cyclo_report_xml method"""_x000D_
-        file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        guardails_obj.get_all_func_cnn = Mock()_x000D_
-        guardails_obj.get_all_func_cnn.return_value = self.stub_get_all_func_cnn_x000D_
-        assert guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
-        file_name = self.get_file_name("test_resourc", "CC.xml")_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
-            line = self.get_log_data(1)_x000D_
-            self.assertTrue("cc.xml report file path" in line)_x000D_
-            file_name = self.get_file_name("test_resource", "CC_test.xml")_x000D_
-            guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
-            file_name = self.get_file_name("test_resource", "CC_test_None.xml")_x000D_
-            guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
-            line = self.get_log_data(1)_x000D_
-            self.assertTrue("tags required are not found in cc.xml report file path" in line)_x000D_
+    <t xml:space="preserve">    def test_parse_cyclo_report_xml(self):_x000D__x000D_
+        """Function to test parse_cyclo_report_xml method"""_x000D__x000D_
+        file_name = self.get_file_name("test_resource", "CC.xml")_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        guardails_obj.get_all_func_cnn = Mock()_x000D__x000D_
+        guardails_obj.get_all_func_cnn.return_value = self.stub_get_all_func_cnn_x000D__x000D_
+        assert guardails_obj.parse_cyclo_report_xml(file_name)_x000D__x000D_
+        file_name = self.get_file_name("test_resourc", "CC.xml")_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            guardails_obj.parse_cyclo_report_xml(file_name)_x000D__x000D_
+            line = self.get_log_data(1)_x000D__x000D_
+            self.assertTrue("cc.xml report file path" in line)_x000D__x000D_
+            file_name = self.get_file_name("test_resource", "CC_test.xml")_x000D__x000D_
+            guardails_obj.parse_cyclo_report_xml(file_name)_x000D__x000D_
+            file_name = self.get_file_name("test_resource", "CC_test_None.xml")_x000D__x000D_
+            guardails_obj.parse_cyclo_report_xml(file_name)_x000D__x000D_
+            line = self.get_log_data(1)_x000D__x000D_
+            self.assertTrue("tags required are not found in cc.xml report file path" in line)_x000D__x000D_
             assert exit_mock.called</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_parse_jscpd_report_json(self):_x000D_
-        """Function to test parse_jscpd_report_json method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        file_name = self.get_file_name("test_resource", "jscpd-report.json")_x000D_
-        guardails_obj.parse_jscpd_report_json(5, file_name)_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
-            file_name = self.get_file_name("test_resource", "jscpd-report_test.json")_x000D_
-            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
-            file_name = self.get_file_name("test_resource", "jscpd-report_test _error.json")_x000D_
-            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
-            assert exit_mock.called_x000D_
-            line = self.get_log_data(3)_x000D_
-            self.assertTrue("Guardrail gating, failed jscpd." in line)_x000D_
-            line = self.get_log_data(4)_x000D_
-            self.assertTrue("Guardrail gating passed jscpd" in line)_x000D_
-            line = self.get_log_data(2)_x000D_
-            self.assertTrue("jscpd report not correctly generated" in line)_x000D_
-            line = self.get_log_data(1)_x000D_
+    <t xml:space="preserve">    def test_parse_jscpd_report_json(self):_x000D__x000D_
+        """Function to test parse_jscpd_report_json method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        file_name = self.get_file_name("test_resource", "jscpd-report.json")_x000D__x000D_
+        guardails_obj.parse_jscpd_report_json(5, file_name)_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D__x000D_
+            file_name = self.get_file_name("test_resource", "jscpd-report_test.json")_x000D__x000D_
+            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D__x000D_
+            file_name = self.get_file_name("test_resource", "jscpd-report_test _error.json")_x000D__x000D_
+            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D__x000D_
+            assert exit_mock.called_x000D__x000D_
+            line = self.get_log_data(3)_x000D__x000D_
+            self.assertTrue("Guardrail gating, failed jscpd." in line)_x000D__x000D_
+            line = self.get_log_data(4)_x000D__x000D_
+            self.assertTrue("Guardrail gating passed jscpd" in line)_x000D__x000D_
+            line = self.get_log_data(2)_x000D__x000D_
+            self.assertTrue("jscpd report not correctly generated" in line)_x000D__x000D_
+            line = self.get_log_data(1)_x000D__x000D_
             self.assertTrue("jscpd report not generated" in line)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_parse_mutmut_report_xml(self):_x000D_
-        """Function to test parse_mutmut_report_xml method"""_x000D_
-        file_name = self.get_file_name("test_resource", "mutmut.xml")_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D_
-        line = self.get_log_data(1)_x000D_
-        self.assertTrue("Guardrail gating, passed mutation" in str(line))_x000D_
-        file_name = self.get_file_name("test_resourc", "mutmut.xml")_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D_
-            assert exit_mock.called_x000D_
-            line = self.get_log_data(1)_x000D_
+    <t xml:space="preserve">    def test_parse_mutmut_report_xml(self):_x000D__x000D_
+        """Function to test parse_mutmut_report_xml method"""_x000D__x000D_
+        file_name = self.get_file_name("test_resource", "mutmut.xml")_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D__x000D_
+        line = self.get_log_data(1)_x000D__x000D_
+        self.assertTrue("Guardrail gating, passed mutation" in str(line))_x000D__x000D_
+        file_name = self.get_file_name("test_resourc", "mutmut.xml")_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D__x000D_
+            assert exit_mock.called_x000D__x000D_
+            line = self.get_log_data(1)_x000D__x000D_
             self.assertTrue("mutmut.xml report file path cound not be found" in line)_x000D_</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_validate_return(self):_x000D_
-        """Function to test validate_return method"""_x000D_
-        list_test = [[1, "test", True, "Guardrail , failed test."], [0, "test", False, "Guardrail task, passed test."]]_x000D_
-        for i, _ in enumerate(list_test):_x000D_
-            assert self.get_validate_return(list_test[i][0], list_test[i][1], list_test[i][2]).strip() \_x000D_
+    <t xml:space="preserve">    def test_validate_return(self):_x000D__x000D_
+        """Function to test validate_return method"""_x000D__x000D_
+        list_test = [[1, "test", True, "Guardrail , failed test."], [0, "test", False, "Guardrail task, passed test."]]_x000D__x000D_
+        for i, _ in enumerate(list_test):_x000D__x000D_
+            assert self.get_validate_return(list_test[i][0], list_test[i][1], list_test[i][2]).strip() \_x000D__x000D_
                    == list_test[i][3]</t>
   </si>
   <si>

--- a/test_resource/codeextractor_T_T_A.xlsx
+++ b/test_resource/codeextractor_T_T_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="175">
   <si>
     <t>Code</t>
   </si>
@@ -441,51 +441,38 @@
 </t>
   </si>
   <si>
-    <t>def create_parser(args):_x000D__x000D_
-    """ Function which add the command line arguments required for the commandline input_x000D__x000D_
-    of guardrails"""_x000D__x000D_
-    # Create the parser_x000D__x000D_
-    func_parser = argparse.ArgumentParser(description='Guardrails for python programs')_x000D__x000D_
-    # Add the arguments_x000D__x000D_
-    func_parser.add_argument('--path',_x000D__x000D_
-                             metavar='--p',_x000D__x000D_
-                             type=str,_x000D__x000D_
-                             help='the Input file path for guardrail.ini')_x000D__x000D_
-    return func_parser.parse_args(args)_x000D_</t>
-  </si>
-  <si>
-    <t>def validate_return(val, message, guardrail):_x000D__x000D_
-    """_x000D__x000D_
-    Function to validate the returns from subprocess_x000D__x000D_
-    Parameters:_x000D__x000D_
-      val (int): return value from subprocess_x000D__x000D_
-      message (string): message to be printed._x000D__x000D_
-      guardrail (bool): identifier whether a process or guardrail gate._x000D__x000D_
-    Returns:_x000D__x000D_
-    sub-process return value._x000D__x000D_
-    """_x000D__x000D_
-    process = "" if guardrail else "task"_x000D__x000D_
-    if val:_x000D__x000D_
-        msg = "Guardrail {}, failed {}.".format(process, message)_x000D__x000D_
-        LOG.info(msg)  # pragma: no mutate_x000D__x000D_
-        sys.exit(val)_x000D__x000D_
-    else:_x000D__x000D_
-        msg = "Guardrail {}, passed {}.".format(process, message)_x000D__x000D_
-        LOG.info(msg)  # pragma: no mutate_x000D__x000D_
+    <t>def create_parser(args):_x000D_
+    """ Function which add the command line arguments required for the commandline input_x000D_
+    of guardrails"""_x000D_
+    # Create the parser_x000D_
+    func_parser = argparse.ArgumentParser(description='Guardrails for python programs')_x000D_
+    # Add the arguments_x000D_
+    func_parser.add_argument('--path',_x000D_
+                             metavar='--p',_x000D_
+                             type=str,_x000D_
+                             help='the Input file path for guardrail.ini')_x000D_
+    return func_parser.parse_args(args)</t>
+  </si>
+  <si>
+    <t>def validate_return(val, message, guardrail):_x000D_
+    """_x000D_
+    Function to validate the returns from subprocess_x000D_
+    Parameters:_x000D_
+      val (int): return value from subprocess_x000D_
+      message (string): message to be printed._x000D_
+      guardrail (bool): identifier whether a process or guardrail gate._x000D_
+    Returns:_x000D_
+    sub-process return value._x000D_
+    """_x000D_
+    process = "" if guardrail else "task"_x000D_
+    if val:_x000D_
+        msg = "Guardrail {}, failed {}.".format(process, message)_x000D_
+        LOG.info(msg)  # pragma: no mutate_x000D_
+        sys.exit(val)_x000D_
+    else:_x000D_
+        msg = "Guardrail {}, passed {}.".format(process, message)_x000D_
+        LOG.info(msg)  # pragma: no mutate_x000D_
         return</t>
-  </si>
-  <si>
-    <t>def create_parser(args):_x000D__x000D_
-    """ Function which add the command line arguments required for the commandline input_x000D__x000D_
-    of guardrails"""_x000D__x000D_
-    # Create the parser_x000D__x000D_
-    func_parser = argparse.ArgumentParser(description='Guardrails for python programs')_x000D__x000D_
-    # Add the arguments_x000D__x000D_
-    func_parser.add_argument('--path',_x000D__x000D_
-                             metavar='--p',_x000D__x000D_
-                             type=str,_x000D__x000D_
-                             help='the Input file path for guardrail.ini')_x000D__x000D_
-    return func_parser.parse_args(args)</t>
   </si>
   <si>
     <t xml:space="preserve">public void Test_AddMethod() {  
@@ -582,544 +569,544 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    def generate_pylint_cmd(self):  # pylint: disable=R0201_x000D__x000D_
-        """Function stubbed to return generate_pylint_cmd method return value"""_x000D__x000D_
+    <t xml:space="preserve">    def generate_pylint_cmd(self):  # pylint: disable=R0201_x000D_
+        """Function stubbed to return generate_pylint_cmd method return value"""_x000D_
         return "xyz"</t>
   </si>
   <si>
-    <t xml:space="preserve">    def get_check_pass_fail_status(self, val_1, val_2, val_3):_x000D__x000D_
-        """Function to refactor test check_pass_fail method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            guardails_obj.check_pass_fail(val_1, val_2, val_3)_x000D__x000D_
-            if int(val_1) + int(val_2) + int(val_3) == 120:_x000D__x000D_
-                assert not exit_mock.called_x000D__x000D_
-            else:_x000D__x000D_
-                assert exit_mock.called_x000D__x000D_
+    <t xml:space="preserve">    def get_check_pass_fail_status(self, val_1, val_2, val_3):_x000D_
+        """Function to refactor test check_pass_fail method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.check_pass_fail(val_1, val_2, val_3)_x000D_
+            if int(val_1) + int(val_2) + int(val_3) == 120:_x000D_
+                assert not exit_mock.called_x000D_
+            else:_x000D_
+                assert exit_mock.called_x000D_
             return self.get_log_data(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def get_file_name(folder_name, file_name):_x000D__x000D_
-        """Function to test file_name method"""_x000D__x000D_
-        import os_x000D__x000D_
-        ini_path = os.path.abspath(os.path.join_x000D__x000D_
-                                   (os.path.dirname(__file__), os.pardir))_x000D__x000D_
-        return os.path.join(ini_path, folder_name, file_name)_x000D_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def get_guardrails_obj():_x000D__x000D_
-        """Function to create guardrails class object"""_x000D__x000D_
-        import os_x000D__x000D_
-        ini_path = os.path.abspath(os.path.join_x000D__x000D_
-                                   (os.path.dirname(__file__), os.pardir))_x000D__x000D_
-        ini_path = os.path.join(ini_path, "test_resource", "guardrail.ini")_x000D__x000D_
+    <t xml:space="preserve">    def get_file_name(folder_name, file_name):_x000D_
+        """Function to test file_name method"""_x000D_
+        import os_x000D_
+        ini_path = os.path.abspath(os.path.join_x000D_
+                                   (os.path.dirname(__file__), os.pardir))_x000D_
+        return os.path.join(ini_path, folder_name, file_name)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def get_guardrails_obj():_x000D_
+        """Function to create guardrails class object"""_x000D_
+        import os_x000D_
+        ini_path = os.path.abspath(os.path.join_x000D_
+                                   (os.path.dirname(__file__), os.pardir))_x000D_
+        ini_path = os.path.join(ini_path, "test_resource", "guardrail.ini")_x000D_
         return Guardails(ini_path)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def get_log_data(self, line):_x000D__x000D_
-        """ function to get the line requested from log data"""_x000D__x000D_
-        file_name = self.get_file_name("guardrails", "guardrails.log")_x000D__x000D_
-        file_variable = open(file_name)_x000D__x000D_
-        all_lines_variable = file_variable.readlines()_x000D__x000D_
-        string = all_lines_variable[-line]_x000D__x000D_
-        string = string[0: 0:] + string[23 + 1::]_x000D__x000D_
+    <t xml:space="preserve">    def get_log_data(self, line):_x000D_
+        """ function to get the line requested from log data"""_x000D_
+        file_name = self.get_file_name("guardrails", "guardrails.log")_x000D_
+        file_variable = open(file_name)_x000D_
+        all_lines_variable = file_variable.readlines()_x000D_
+        string = all_lines_variable[-line]_x000D_
+        string = string[0: 0:] + string[23 + 1::]_x000D_
         return string</t>
   </si>
   <si>
-    <t xml:space="preserve">    def get_test_guardrail_gate_status(self, mock_subproc_call, gate):_x000D__x000D_
-        """Function to test guardrail_test method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        mock_subproc_call.return_value = False_x000D__x000D_
-        if gate == "guardrail_jscpd":_x000D__x000D_
-            guardails_obj.parse_jscpd_report_json = self.return_jscpd_false_x000D__x000D_
-            guardails_obj.guardrail_jscpd()_x000D__x000D_
-        if gate == "guardrail_test":_x000D__x000D_
-            guardails_obj.guardrail_test()_x000D__x000D_
-        if gate == "guardrail_coverage":_x000D__x000D_
-            guardails_obj.guardrail_coverage()_x000D__x000D_
-            return self.get_log_data(1), self.get_log_data(3)_x000D__x000D_
-        if gate == "guardrail_deadcode":_x000D__x000D_
-            guardails_obj.guardrail_deadcode()_x000D__x000D_
-        self.assertTrue(mock_subproc_call.called)_x000D__x000D_
-        return self.get_log_data(1), self.get_log_data(2)_x000D_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def get_test_guardrail_gate_status_fail(self, mock_subproc_call, gate):_x000D__x000D_
-        """Function to refactor test guardrail_gating_fail method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        mock_subproc_call.return_value = True_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            if gate == "guardrail_jscpd":_x000D__x000D_
-                guardails_obj.parse_jscpd_report_json = self.return_jscpd_false_x000D__x000D_
-                guardails_obj.guardrail_jscpd()_x000D__x000D_
-            if gate == "guardrail_test":_x000D__x000D_
-                guardails_obj.guardrail_test()_x000D__x000D_
-            if gate == "guardrail_coverage":_x000D__x000D_
-                guardails_obj.guardrail_coverage()_x000D__x000D_
-                return self.get_log_data(1), self.get_log_data(3)_x000D__x000D_
-            if gate == "guardrail_deadcode":_x000D__x000D_
-                guardails_obj.guardrail_deadcode()_x000D__x000D_
-            self.assertTrue(mock_subproc_call.called)_x000D__x000D_
-            assert exit_mock.called_x000D__x000D_
+    <t xml:space="preserve">    def get_test_guardrail_gate_status(self, mock_subproc_call, gate):_x000D_
+        """Function to test guardrail_test method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        mock_subproc_call.return_value = False_x000D_
+        if gate == "guardrail_jscpd":_x000D_
+            guardails_obj.parse_jscpd_report_json = self.return_jscpd_false_x000D_
+            guardails_obj.guardrail_jscpd()_x000D_
+        if gate == "guardrail_test":_x000D_
+            guardails_obj.guardrail_test()_x000D_
+        if gate == "guardrail_coverage":_x000D_
+            guardails_obj.guardrail_coverage()_x000D_
+            return self.get_log_data(1), self.get_log_data(3)_x000D_
+        if gate == "guardrail_deadcode":_x000D_
+            guardails_obj.guardrail_deadcode()_x000D_
+        self.assertTrue(mock_subproc_call.called)_x000D_
         return self.get_log_data(1), self.get_log_data(2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def get_validate_return(self, val_1, val_2, val_3):_x000D__x000D_
-        """Function to refactor test validate_return method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            guardails_obj.validate_return(val_1, val_2, val_3)_x000D__x000D_
-            if val_3 is True:_x000D__x000D_
-                assert exit_mock.called_x000D__x000D_
-            else:_x000D__x000D_
-                assert not exit_mock.called_x000D__x000D_
-            return self.get_log_data(1)_x000D_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def return_jscpd_false(self, val, message):  # pylint: disable=W0613,R0201_x000D__x000D_
-        """Function stubbed to set parse_jscpd_report_json method value to false"""_x000D__x000D_
-        return False_x000D_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def setUp(self):_x000D__x000D_
-        """"Sets the directory for the test case"""_x000D__x000D_
-        import os_x000D__x000D_
-        ini_path = os.path.abspath(os.path.join_x000D__x000D_
-                                   (os.path.dirname(__file__), os.pardir))_x000D__x000D_
-        ini_path = os.path.join(ini_path, "test_resource", "guardrail.ini")_x000D__x000D_
-        config = ConfigParser()_x000D__x000D_
-        config.read(ini_path)_x000D__x000D_
-        self.report_folder = (config.get('folder', 'report_folder'))_x000D__x000D_
-        if not os.path.exists(self.report_folder):_x000D__x000D_
+    <t xml:space="preserve">    def get_test_guardrail_gate_status_fail(self, mock_subproc_call, gate):_x000D_
+        """Function to refactor test guardrail_gating_fail method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        mock_subproc_call.return_value = True_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            if gate == "guardrail_jscpd":_x000D_
+                guardails_obj.parse_jscpd_report_json = self.return_jscpd_false_x000D_
+                guardails_obj.guardrail_jscpd()_x000D_
+            if gate == "guardrail_test":_x000D_
+                guardails_obj.guardrail_test()_x000D_
+            if gate == "guardrail_coverage":_x000D_
+                guardails_obj.guardrail_coverage()_x000D_
+                return self.get_log_data(1), self.get_log_data(3)_x000D_
+            if gate == "guardrail_deadcode":_x000D_
+                guardails_obj.guardrail_deadcode()_x000D_
+            self.assertTrue(mock_subproc_call.called)_x000D_
+            assert exit_mock.called_x000D_
+        return self.get_log_data(1), self.get_log_data(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def get_validate_return(self, val_1, val_2, val_3):_x000D_
+        """Function to refactor test validate_return method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.validate_return(val_1, val_2, val_3)_x000D_
+            if val_3 is True:_x000D_
+                assert exit_mock.called_x000D_
+            else:_x000D_
+                assert not exit_mock.called_x000D_
+            return self.get_log_data(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def return_jscpd_false(self, val, message):  # pylint: disable=W0613,R0201_x000D_
+        """Function stubbed to set parse_jscpd_report_json method value to false"""_x000D_
+        return False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def setUp(self):_x000D_
+        """"Sets the directory for the test case"""_x000D_
+        import os_x000D_
+        ini_path = os.path.abspath(os.path.join_x000D_
+                                   (os.path.dirname(__file__), os.pardir))_x000D_
+        ini_path = os.path.join(ini_path, "test_resource", "guardrail.ini")_x000D_
+        config = ConfigParser()_x000D_
+        config.read(ini_path)_x000D_
+        self.report_folder = (config.get('folder', 'report_folder'))_x000D_
+        if not os.path.exists(self.report_folder):_x000D_
             os.makedirs(self.report_folder)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def stub_get_all_func_cnn():_x000D__x000D_
-        """Function stubbed to return get_all_func_cnn function return value"""_x000D__x000D_
-        list_data = {_x000D__x000D_
-            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D__x000D_
-            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D__x000D_
-            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D__x000D_
-            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D__x000D_
-        return list_data_x000D_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def stub_globals(guardails_obj):_x000D__x000D_
-        """Function to stub all globals"""_x000D__x000D_
-        guardails_obj.src_folder = "abc"_x000D__x000D_
-        guardails_obj.test_folder = "test"_x000D__x000D_
-        guardails_obj.pytest = "abc"_x000D__x000D_
-        guardails_obj.report_folder = "abc/report"_x000D__x000D_
-        guardails_obj.cyclo_exclude = "abc/None"_x000D__x000D_
-        guardails_obj.python = "python"_x000D__x000D_
-        guardails_obj.pylintrc = ".pylintrc"_x000D__x000D_
-        guardails_obj.covrc = ".cov"_x000D__x000D_
-        guardails_obj.dup_token = 10_x000D__x000D_
-        guardails_obj.percent_cov = 80_x000D__x000D_
-        guardails_obj.allow_dup = 20_x000D__x000D_
-        guardails_obj.cc_limit = 10_x000D__x000D_
-        guardails_obj.allow_mutants = 10_x000D__x000D_
-        guardails_obj.all_folders = guardails_obj.src_folder + " " + guardails_obj.test_folder_x000D__x000D_
-        guardails_obj.linting = True_x000D__x000D_
-        guardails_obj.cpd = True_x000D__x000D_
-        guardails_obj.cov = True_x000D__x000D_
-        guardails_obj.mutation = True_x000D__x000D_
-        guardails_obj.deadcode = True_x000D__x000D_
-        guardails_obj.cycloc = True_x000D__x000D_
-        guardails_obj.lint_ignore = "x"_x000D__x000D_
-        guardails_obj.programming_language = "java"_x000D__x000D_
-        guardails_obj.jscpd_ignore = "y"_x000D__x000D_
+    <t xml:space="preserve">    def stub_get_all_func_cnn():_x000D_
+        """Function stubbed to return get_all_func_cnn function return value"""_x000D_
+        list_data = {_x000D_
+            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
+            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D_
+            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
+            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D_
+        return list_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def stub_globals(guardails_obj):_x000D_
+        """Function to stub all globals"""_x000D_
+        guardails_obj.src_folder = "abc"_x000D_
+        guardails_obj.test_folder = "test"_x000D_
+        guardails_obj.pytest = "abc"_x000D_
+        guardails_obj.report_folder = "abc/report"_x000D_
+        guardails_obj.cyclo_exclude = "abc/None"_x000D_
+        guardails_obj.python = "python"_x000D_
+        guardails_obj.pylintrc = ".pylintrc"_x000D_
+        guardails_obj.covrc = ".cov"_x000D_
+        guardails_obj.dup_token = 10_x000D_
+        guardails_obj.percent_cov = 80_x000D_
+        guardails_obj.allow_dup = 20_x000D_
+        guardails_obj.cc_limit = 10_x000D_
+        guardails_obj.allow_mutants = 10_x000D_
+        guardails_obj.all_folders = guardails_obj.src_folder + " " + guardails_obj.test_folder_x000D_
+        guardails_obj.linting = True_x000D_
+        guardails_obj.cpd = True_x000D_
+        guardails_obj.cov = True_x000D_
+        guardails_obj.mutation = True_x000D_
+        guardails_obj.deadcode = True_x000D_
+        guardails_obj.cycloc = True_x000D_
+        guardails_obj.lint_ignore = "x"_x000D_
+        guardails_obj.programming_language = "java"_x000D_
+        guardails_obj.jscpd_ignore = "y"_x000D_
         guardails_obj.dead_code_ignore = "z"</t>
   </si>
   <si>
-    <t xml:space="preserve">    def stub_validate_return(self, val, message, guardrail):  # pylint: disable=W0613,R0201_x000D__x000D_
-        """Function stubbed to return false"""_x000D__x000D_
+    <t xml:space="preserve">    def stub_validate_return(self, val, message, guardrail):  # pylint: disable=W0613,R0201_x000D_
+        """Function stubbed to return false"""_x000D_
         return False</t>
   </si>
   <si>
-    <t xml:space="preserve">    def tearDown(self):_x000D__x000D_
-        """"Deletes the log files created."""_x000D__x000D_
-        import os_x000D__x000D_
-        ini_path = os.path.abspath(os.path.join_x000D__x000D_
-                                   (os.path.dirname(__file__), os.pardir))_x000D__x000D_
-        file_name = os.path.join(ini_path, "guardrails", "guardrails.log")_x000D__x000D_
-        if os.path.exists(file_name):_x000D__x000D_
-            open(file_name, 'w').close()_x000D_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_call_subprocess_error(self):_x000D__x000D_
-        """Function to test call_subprocess_error method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        try:_x000D__x000D_
-            guardails_obj.call_subprocess("lshrs")_x000D__x000D_
-        except KeyError:_x000D__x000D_
-            pass_x000D__x000D_
+    <t xml:space="preserve">    def tearDown(self):_x000D_
+        """"Deletes the log files created."""_x000D_
+        import os_x000D_
+        ini_path = os.path.abspath(os.path.join_x000D_
+                                   (os.path.dirname(__file__), os.pardir))_x000D_
+        file_name = os.path.join(ini_path, "guardrails", "guardrails.log")_x000D_
+        if os.path.exists(file_name):_x000D_
+            open(file_name, 'w').close()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_call_subprocess_error(self):_x000D_
+        """Function to test call_subprocess_error method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        try:_x000D_
+            guardails_obj.call_subprocess("lshrs")_x000D_
+        except KeyError:_x000D_
+            pass_x000D_
         self.assertNotEqual(guardails_obj.call_subprocess("lshrs"), 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_call_subprocess_noerror(self):_x000D__x000D_
-        """Function to test call_subprocess_noerror method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        ret_val = guardails_obj.call_subprocess("dir")_x000D__x000D_
-        self.assertEqual(ret_val, 0)_x000D_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_check_pass_fail_success(self):_x000D__x000D_
-        """Function to test check_pass_fail_success method"""_x000D__x000D_
-        list_test = [[10, 100, 10, "Guardrail gating, passed mutation"],_x000D__x000D_
-                     [10, 100, 1, "Guardrail gating, failed mutation"],_x000D__x000D_
-                     [10, 0, 10, "Guardrail gating, failed: mutation test did not run"]]_x000D__x000D_
-        for i, _ in enumerate(list_test):_x000D__x000D_
-            self.assertTrue(list_test[i][3] in self.get_check_pass_fail_status(list_test[i][0],_x000D__x000D_
-                                                                               list_test[i][1], list_test[i][2]))_x000D_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_check_report_dir(self, mock_path_exists, mock_mkdir):_x000D__x000D_
-        """Function to test check_report_dir method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        mock_path_exists.return_value = True_x000D__x000D_
-        mock_mkdir.return_value = False_x000D__x000D_
-        guardails_obj.check_report_dir()_x000D__x000D_
+    <t xml:space="preserve">    def test_call_subprocess_noerror(self):_x000D_
+        """Function to test call_subprocess_noerror method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        ret_val = guardails_obj.call_subprocess("dir")_x000D_
+        self.assertEqual(ret_val, 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_check_pass_fail_success(self):_x000D_
+        """Function to test check_pass_fail_success method"""_x000D_
+        list_test = [[10, 100, 10, "Guardrail gating, passed mutation"],_x000D_
+                     [10, 100, 1, "Guardrail gating, failed mutation"],_x000D_
+                     [10, 0, 10, "Guardrail gating, failed: mutation test did not run"]]_x000D_
+        for i, _ in enumerate(list_test):_x000D_
+            self.assertTrue(list_test[i][3] in self.get_check_pass_fail_status(list_test[i][0],_x000D_
+                                                                               list_test[i][1], list_test[i][2]))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_check_report_dir(self, mock_path_exists, mock_mkdir):_x000D_
+        """Function to test check_report_dir method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        mock_path_exists.return_value = True_x000D_
+        mock_mkdir.return_value = False_x000D_
+        guardails_obj.check_report_dir()_x000D_
         self.assertTrue(mock_mkdir.called)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_file_exists(self):_x000D__x000D_
-        """Function to test file_exists method"""_x000D__x000D_
-        import os_x000D__x000D_
-        GuardrailGlobals.generate_pylint_cmd = self.generate_pylint_cmd_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            Guardails.file_exists(os.path.abspath(os.path.join(os.path.dirname(__file__), os.pardir)))_x000D__x000D_
+    <t xml:space="preserve">    def test_file_exists(self):_x000D_
+        """Function to test file_exists method"""_x000D_
+        import os_x000D_
+        GuardrailGlobals.generate_pylint_cmd = self.generate_pylint_cmd_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            Guardails.file_exists(os.path.abspath(os.path.join(os.path.dirname(__file__), os.pardir)))_x000D_
             assert not exit_mock.called</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_file_exists_exit(self):  # pylint: disable=R0201_x000D__x000D_
-        """Function to test file_exists_exit method"""_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            Guardails.file_exists("abc")_x000D__x000D_
+    <t xml:space="preserve">    def test_file_exists_exit(self):  # pylint: disable=R0201_x000D_
+        """Function to test file_exists_exit method"""_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            Guardails.file_exists("abc")_x000D_
             assert exit_mock.called</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_get_all_func_cnn(self):_x000D__x000D_
-        """Function to test get_all_func_cnn method"""_x000D__x000D_
-        file_name = self.get_file_name("test_resource", "CC.xml")_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        guardails_obj.get_index_cnn = Mock()_x000D__x000D_
-        guardails_obj.get_index_cnn.return_value = int(2)_x000D__x000D_
-        expec_data = {_x000D__x000D_
-            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D__x000D_
-            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D__x000D_
-            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D__x000D_
-            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D__x000D_
-        root = ETree.parse(file_name).getroot()_x000D__x000D_
-        for functions in root.iter('measure'):_x000D__x000D_
-            if functions.attrib['type'] == "Function":_x000D__x000D_
-                assert expec_data == guardails_obj.get_all_func_cnn(functions)_x000D__x000D_
-        file_name = self.get_file_name("test_resource", "CC_test_Func.xml")_x000D__x000D_
-        root = ETree.parse(file_name).getroot()_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            for functions in root.iter('measure'):_x000D__x000D_
-                if functions.attrib['type'] == "Function":_x000D__x000D_
-                    guardails_obj.get_all_func_cnn(functions)_x000D__x000D_
-            file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D__x000D_
-            root = ETree.parse(file_name).getroot()_x000D__x000D_
-            for functions in root.iter('measure'):_x000D__x000D_
-                if functions.attrib['type'] == "Function":_x000D__x000D_
-                    guardails_obj.get_all_func_cnn(functions)_x000D__x000D_
-            assert exit_mock.called_x000D__x000D_
-            line = self.get_log_data(2)_x000D__x000D_
-            self.assertTrue(_x000D__x000D_
-                "Guardrail unable to find the tags item/value/name in the report " in line)_x000D__x000D_
-            line = self.get_log_data(1)_x000D__x000D_
-            self.assertTrue(_x000D__x000D_
+    <t xml:space="preserve">    def test_get_all_func_cnn(self):_x000D_
+        """Function to test get_all_func_cnn method"""_x000D_
+        file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        guardails_obj.get_index_cnn = Mock()_x000D_
+        guardails_obj.get_index_cnn.return_value = int(2)_x000D_
+        expec_data = {_x000D_
+            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
+            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D_
+            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
+            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D_
+        root = ETree.parse(file_name).getroot()_x000D_
+        for functions in root.iter('measure'):_x000D_
+            if functions.attrib['type'] == "Function":_x000D_
+                assert expec_data == guardails_obj.get_all_func_cnn(functions)_x000D_
+        file_name = self.get_file_name("test_resource", "CC_test_Func.xml")_x000D_
+        root = ETree.parse(file_name).getroot()_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            for functions in root.iter('measure'):_x000D_
+                if functions.attrib['type'] == "Function":_x000D_
+                    guardails_obj.get_all_func_cnn(functions)_x000D_
+            file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D_
+            root = ETree.parse(file_name).getroot()_x000D_
+            for functions in root.iter('measure'):_x000D_
+                if functions.attrib['type'] == "Function":_x000D_
+                    guardails_obj.get_all_func_cnn(functions)_x000D_
+            assert exit_mock.called_x000D_
+            line = self.get_log_data(2)_x000D_
+            self.assertTrue(_x000D_
+                "Guardrail unable to find the tags item/value/name in the report " in line)_x000D_
+            line = self.get_log_data(1)_x000D_
+            self.assertTrue(_x000D_
                 "Guardrail unable to find the tags item/value/name in the report file " in line)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_get_index_cnn(self):_x000D__x000D_
-        """Function to test get_index_cnn method"""_x000D__x000D_
-        file_name = self.get_file_name("test_resource", "CC.xml")_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        root = ETree.parse(file_name).getroot()_x000D__x000D_
-        for functions in root.iter('measure'):_x000D__x000D_
-            if functions.attrib['type'] == "Function":_x000D__x000D_
-                assert guardails_obj.get_index_cnn(functions) == 2_x000D__x000D_
-        file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D__x000D_
-        root = ETree.parse(file_name).getroot()_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            for functions in root.iter('measure'):_x000D__x000D_
-                if functions.attrib['type'] == "Function":_x000D__x000D_
-                    guardails_obj.get_index_cnn(functions)_x000D__x000D_
-            assert exit_mock.called_x000D__x000D_
-            line = self.get_log_data(1)_x000D__x000D_
+    <t xml:space="preserve">    def test_get_index_cnn(self):_x000D_
+        """Function to test get_index_cnn method"""_x000D_
+        file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        root = ETree.parse(file_name).getroot()_x000D_
+        for functions in root.iter('measure'):_x000D_
+            if functions.attrib['type'] == "Function":_x000D_
+                assert guardails_obj.get_index_cnn(functions) == 2_x000D_
+        file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D_
+        root = ETree.parse(file_name).getroot()_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            for functions in root.iter('measure'):_x000D_
+                if functions.attrib['type'] == "Function":_x000D_
+                    guardails_obj.get_index_cnn(functions)_x000D_
+            assert exit_mock.called_x000D_
+            line = self.get_log_data(1)_x000D_
             self.assertTrue("Guardrail unable to find the tag CCN in the report " in line)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_coverage(self):_x000D__x000D_
-        """Function to test guardrail_coverage method"""_x000D__x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_coverage")_x000D__x000D_
-        print(line_2)_x000D__x000D_
-        self.assertTrue("Guardrail , passed Coverage threshold" in line_1)_x000D__x000D_
-        val = r'mypython -m coverage report --fail-under=85'_x000D__x000D_
+    <t xml:space="preserve">    def test_guardrail_coverage(self):_x000D_
+        """Function to test guardrail_coverage method"""_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_coverage")_x000D_
+        print(line_2)_x000D_
+        self.assertTrue("Guardrail , passed Coverage threshold" in line_1)_x000D_
+        val = r'mypython -m coverage report --fail-under=85'_x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_coverage_fail(self):_x000D__x000D_
-        """Function to test guardrail_coverage_fail method"""_x000D__x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_coverage")_x000D__x000D_
-        print(line_2)_x000D__x000D_
-        self.assertTrue("Guardrail , failed Coverage threshold" in line_1)_x000D__x000D_
-        val = r'mypython -m coverage report --fail-under=85'_x000D__x000D_
+    <t xml:space="preserve">    def test_guardrail_coverage_fail(self):_x000D_
+        """Function to test guardrail_coverage_fail method"""_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_coverage")_x000D_
+        print(line_2)_x000D_
+        self.assertTrue("Guardrail , failed Coverage threshold" in line_1)_x000D_
+        val = r'mypython -m coverage report --fail-under=85'_x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_cyclomatic_complexity(self, mock_subproc_call):_x000D__x000D_
-        """Function to test guardrail_cyclomatic_complexity method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        guardails_obj.parse_cyclo_report_xml = Mock()_x000D__x000D_
-        guardails_obj.parse_cyclo_report_xml.return_value = {_x000D__x000D_
-            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D__x000D_
-            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D__x000D_
-            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D__x000D_
-            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D__x000D_
-        mock_subproc_call.return_value = False_x000D__x000D_
-        guardails_obj.guardrail_cyclomatic_complexity()_x000D__x000D_
-        self.assertTrue(mock_subproc_call.called)_x000D__x000D_
-        line = self.get_log_data(1)_x000D__x000D_
-        self.assertTrue("Guardrail , passed Cyclomatic complexity" in line)_x000D__x000D_
-        mock_subproc_call.return_value = True_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            guardails_obj.guardrail_cyclomatic_complexity()_x000D__x000D_
-            line = self.get_log_data(2)_x000D__x000D_
-            self.assertTrue("Guardrail task, failed Cyclomating complexity generation" in line)_x000D__x000D_
-            assert exit_mock_x000D_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_guardrail_deadcode(self):_x000D__x000D_
-        """Function to test guardrail_deadcode method"""_x000D__x000D_
-        import os_x000D__x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_deadcode")_x000D__x000D_
-        self.assertTrue("Guardrail , passed Dead code detection" in line_1)_x000D__x000D_
-        val = r'mypython -m vulture C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\functiondefextractor ' \_x000D__x000D_
-              r'C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\test  --exclude C:\Projects\PythonRepo' \_x000D__x000D_
-              r'\python_sample\FunctionDefExtractor\test --min-confidence 100 &gt;C:\Projects\PythonRepo' \_x000D__x000D_
-              r'\REPORT\deadcode.txt'_x000D__x000D_
+    <t xml:space="preserve">    def test_guardrail_cyclomatic_complexity(self, mock_subproc_call):_x000D_
+        """Function to test guardrail_cyclomatic_complexity method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        guardails_obj.parse_cyclo_report_xml = Mock()_x000D_
+        guardails_obj.parse_cyclo_report_xml.return_value = {_x000D_
+            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
+            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D_
+            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
+            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D_
+        mock_subproc_call.return_value = False_x000D_
+        guardails_obj.guardrail_cyclomatic_complexity()_x000D_
+        self.assertTrue(mock_subproc_call.called)_x000D_
+        line = self.get_log_data(1)_x000D_
+        self.assertTrue("Guardrail , passed Cyclomatic complexity" in line)_x000D_
+        mock_subproc_call.return_value = True_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.guardrail_cyclomatic_complexity()_x000D_
+            line = self.get_log_data(2)_x000D_
+            self.assertTrue("Guardrail task, failed Cyclomating complexity generation" in line)_x000D_
+            assert exit_mock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_guardrail_deadcode(self):_x000D_
+        """Function to test guardrail_deadcode method"""_x000D_
+        import os_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_deadcode")_x000D_
+        self.assertTrue("Guardrail , passed Dead code detection" in line_1)_x000D_
+        val = r'mypython -m vulture C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\functiondefextractor ' \_x000D_
+              r'C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\test  --exclude C:\Projects\PythonRepo' \_x000D_
+              r'\python_sample\FunctionDefExtractor\test --min-confidence 100 &gt;C:\Projects\PythonRepo' \_x000D_
+              r'\REPORT\deadcode.txt'_x000D_
         self.assertTrue(val.replace("\\", os.sep) in line_2.replace('\\', os.sep).replace("/", os.sep))</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_deadcode_fail(self):_x000D__x000D_
-        """Function to test guardrail_deadcode_fail method"""_x000D__x000D_
-        import os_x000D__x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_deadcode")_x000D__x000D_
-        self.assertTrue("Guardrail , failed Dead code detection" in line_1)_x000D__x000D_
-        val = r'mypython -m vulture C:\Projects\PythonRepo\python_sample\FunctionDefExtractor' \_x000D__x000D_
-              r'\functiondefextractor ' \_x000D__x000D_
-              r'C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\test  --exclude' \_x000D__x000D_
-              r' C:\Projects\PythonRepo' \_x000D__x000D_
-              r'\python_sample\FunctionDefExtractor\test --min-confidence 100 &gt;C:\Projects' \_x000D__x000D_
-              r'\PythonRepo\REPORT\deadcode.txt'_x000D__x000D_
+    <t xml:space="preserve">    def test_guardrail_deadcode_fail(self):_x000D_
+        """Function to test guardrail_deadcode_fail method"""_x000D_
+        import os_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_deadcode")_x000D_
+        self.assertTrue("Guardrail , failed Dead code detection" in line_1)_x000D_
+        val = r'mypython -m vulture C:\Projects\PythonRepo\python_sample\FunctionDefExtractor' \_x000D_
+              r'\functiondefextractor ' \_x000D_
+              r'C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\test  --exclude' \_x000D_
+              r' C:\Projects\PythonRepo' \_x000D_
+              r'\python_sample\FunctionDefExtractor\test --min-confidence 100 &gt;C:\Projects' \_x000D_
+              r'\PythonRepo\REPORT\deadcode.txt'_x000D_
         self.assertTrue(val.replace('\\', os.sep) in line_2.replace('\\', os.sep).replace("/", os.sep))</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_jscpd(self):_x000D__x000D_
-        """Function to test guardrail_jscpd method"""_x000D__x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_jscpd")_x000D__x000D_
-        self.assertTrue("Guardrail task, passed Copy Paste Detection report generation" in line_1)_x000D__x000D_
-        val = r'command for sub process:jscpd --min-tokens 20  --ignore C:\Projects\PythonRepo\python_sample' \_x000D__x000D_
-              r'\FunctionDefExtractor\test  --max-lines 100000 --max-size 100mb --reporters "json,html"' \_x000D__x000D_
-              r' --mode "strict" --format "python, java" -o'_x000D__x000D_
+    <t xml:space="preserve">    def test_guardrail_jscpd(self):_x000D_
+        """Function to test guardrail_jscpd method"""_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_jscpd")_x000D_
+        self.assertTrue("Guardrail task, passed Copy Paste Detection report generation" in line_1)_x000D_
+        val = r'command for sub process:jscpd --min-tokens 20  --ignore C:\Projects\PythonRepo\python_sample' \_x000D_
+              r'\FunctionDefExtractor\test  --max-lines 100000 --max-size 100mb --reporters "json,html"' \_x000D_
+              r' --mode "strict" --format "python, java" -o'_x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_jscpd_fail(self):_x000D__x000D_
-        """Function to test guardrail_jscpd_fail method"""_x000D__x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_jscpd")_x000D__x000D_
-        self.assertTrue("Guardrail task, failed Copy Paste Detection report generation" in line_1)_x000D__x000D_
-        val = r'command for sub process:jscpd --min-tokens 20  --ignore C:\Projects\PythonRepo\python_sample' \_x000D__x000D_
-              r'\FunctionDefExtractor\test  --max-lines 100000 --max-size 100mb --reporters "json,html" --mode ' \_x000D__x000D_
-              r'"strict" --format "python, java" -o'_x000D__x000D_
+    <t xml:space="preserve">    def test_guardrail_jscpd_fail(self):_x000D_
+        """Function to test guardrail_jscpd_fail method"""_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_jscpd")_x000D_
+        self.assertTrue("Guardrail task, failed Copy Paste Detection report generation" in line_1)_x000D_
+        val = r'command for sub process:jscpd --min-tokens 20  --ignore C:\Projects\PythonRepo\python_sample' \_x000D_
+              r'\FunctionDefExtractor\test  --max-lines 100000 --max-size 100mb --reporters "json,html" --mode ' \_x000D_
+              r'"strict" --format "python, java" -o'_x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_lint(self, mock_subproc_call):_x000D__x000D_
-        """Function to test guardrail_lint method"""_x000D__x000D_
-        import os_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        global_obj = GuardrailGlobals()_x000D__x000D_
-        mock_subproc_call.return_value = False_x000D__x000D_
-        guardails_obj.lint_ignore = self.get_file_name("test_resource", "pylint_ignore.txt")_x000D__x000D_
-        guardails_obj.generate_files_lint = MagicMock(return_value=" ")_x000D__x000D_
-        global_obj.report_folder = os.getcwd()_x000D__x000D_
-        guardails_obj.guardrail_lint()_x000D__x000D_
-        self.assertTrue(mock_subproc_call.called)_x000D__x000D_
-        line = self.get_log_data(1)_x000D__x000D_
-        self.assertTrue("Guardrail , passed Linting." in str(line))_x000D__x000D_
-        mock_subproc_call.return_value = True_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            guardails_obj.guardrail_lint()_x000D__x000D_
-            line = self.get_log_data(1)_x000D__x000D_
-            self.assertTrue("Guardrail , failed Linting." in str(line))_x000D__x000D_
-            assert exit_mock_x000D__x000D_
+    <t xml:space="preserve">    def test_guardrail_lint(self, mock_subproc_call):_x000D_
+        """Function to test guardrail_lint method"""_x000D_
+        import os_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        global_obj = GuardrailGlobals()_x000D_
+        mock_subproc_call.return_value = False_x000D_
+        guardails_obj.lint_ignore = self.get_file_name("test_resource", "pylint_ignore.txt")_x000D_
+        guardails_obj.generate_files_lint = MagicMock(return_value=" ")_x000D_
+        global_obj.report_folder = os.getcwd()_x000D_
+        guardails_obj.guardrail_lint()_x000D_
+        self.assertTrue(mock_subproc_call.called)_x000D_
+        line = self.get_log_data(1)_x000D_
+        self.assertTrue("Guardrail , passed Linting." in str(line))_x000D_
+        mock_subproc_call.return_value = True_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.guardrail_lint()_x000D_
+            line = self.get_log_data(1)_x000D_
+            self.assertTrue("Guardrail , failed Linting." in str(line))_x000D_
+            assert exit_mock_x000D_
         self.assertTrue(mock_subproc_call.called)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_mutation(self, mock_subproc_call):_x000D__x000D_
-        """Function to test guardrail_mutation method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        guardails_obj.parse_mutmut_report_xml = Mock()_x000D__x000D_
-        guardails_obj.parse_mutmut_report_xml.return_value = None_x000D__x000D_
-        mock_subproc_call.return_value = False_x000D__x000D_
-        guardails_obj.guardrail_mutation()_x000D__x000D_
-        self.assertTrue(mock_subproc_call.called)_x000D__x000D_
-        line = self.get_log_data(1)_x000D__x000D_
-        self.assertTrue("Guardrail task, passed Mutation testing report generation." in line)_x000D__x000D_
-        mock_subproc_call.return_value = True_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            guardails_obj.guardrail_mutation()_x000D__x000D_
-            line = self.get_log_data(1)_x000D__x000D_
-            self.assertTrue("Guardrail task, failed Mutation testing " in line)_x000D__x000D_
-            assert exit_mock_x000D_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_guardrail_test(self):_x000D__x000D_
-        """Function to test guardrail_test method"""_x000D__x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_test")_x000D__x000D_
-        self.assertTrue("Guardrail task, passed Test execution and coverage generation" in line_1)_x000D__x000D_
-        val = r'mypython -m pytest C:\Projects\PythonRepo\python_sample\FunctionDefExtractor' \_x000D__x000D_
-              r' --cov-config=C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\.coveragerc ' \_x000D__x000D_
-              r'--cov-report "html" --cov=C:\Projects\PythonRepo\python_sample' \_x000D__x000D_
-              r'\FunctionDefExtractor\functiondefextractor'_x000D__x000D_
+    <t xml:space="preserve">    def test_guardrail_mutation(self, mock_subproc_call):_x000D_
+        """Function to test guardrail_mutation method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        guardails_obj.parse_mutmut_report_xml = Mock()_x000D_
+        guardails_obj.parse_mutmut_report_xml.return_value = None_x000D_
+        mock_subproc_call.return_value = False_x000D_
+        guardails_obj.guardrail_mutation()_x000D_
+        self.assertTrue(mock_subproc_call.called)_x000D_
+        line = self.get_log_data(1)_x000D_
+        self.assertTrue("Guardrail task, passed Mutation testing report generation." in line)_x000D_
+        mock_subproc_call.return_value = True_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.guardrail_mutation()_x000D_
+            line = self.get_log_data(1)_x000D_
+            self.assertTrue("Guardrail task, failed Mutation testing " in line)_x000D_
+            assert exit_mock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_guardrail_test(self):_x000D_
+        """Function to test guardrail_test method"""_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_test")_x000D_
+        self.assertTrue("Guardrail task, passed Test execution and coverage generation" in line_1)_x000D_
+        val = r'mypython -m pytest C:\Projects\PythonRepo\python_sample\FunctionDefExtractor' \_x000D_
+              r' --cov-config=C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\.coveragerc ' \_x000D_
+              r'--cov-report "html" --cov=C:\Projects\PythonRepo\python_sample' \_x000D_
+              r'\FunctionDefExtractor\functiondefextractor'_x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_test_fail(self):_x000D__x000D_
-        """Function to test guardrail_test_fail method"""_x000D__x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_test")_x000D__x000D_
-        self.assertTrue("Guardrail task, failed Test execution and coverage generation" in line_1)_x000D__x000D_
-        val = r'mypython -m pytest C:\Projects\PythonRepo\python_sample\FunctionDefExtractor ' \_x000D__x000D_
-              r'--cov-config=C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\.coveragerc ' \_x000D__x000D_
-              r'--cov-report "html" --cov=C:\Projects\PythonRepo\python_sample' \_x000D__x000D_
-              r'\FunctionDefExtractor\functiondefextractor'_x000D__x000D_
+    <t xml:space="preserve">    def test_guardrail_test_fail(self):_x000D_
+        """Function to test guardrail_test_fail method"""_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_test")_x000D_
+        self.assertTrue("Guardrail task, failed Test execution and coverage generation" in line_1)_x000D_
+        val = r'mypython -m pytest C:\Projects\PythonRepo\python_sample\FunctionDefExtractor ' \_x000D_
+              r'--cov-config=C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\.coveragerc ' \_x000D_
+              r'--cov-report "html" --cov=C:\Projects\PythonRepo\python_sample' \_x000D_
+              r'\FunctionDefExtractor\functiondefextractor'_x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_list_to_str_folders(self):_x000D__x000D_
-        """Function to test list_to_str_folders method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        self.stub_globals(guardails_obj)_x000D__x000D_
+    <t xml:space="preserve">    def test_list_to_str_folders(self):_x000D_
+        """Function to test list_to_str_folders method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        self.stub_globals(guardails_obj)_x000D_
         self.assertEqual(guardails_obj.list_to_str_folders(), "abc test")</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_mov_cov_report(self, mock_subproc_call, mock_shut_rmtr, mock_shut_mov):_x000D__x000D_
-        """Function to test mov_cov_report method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        process_sub_mock = mock.Mock()_x000D__x000D_
-        patcher_exist = mock.patch('os.path.exists')_x000D__x000D_
-        mock_thing = patcher_exist.start()_x000D__x000D_
-        mock_thing.return_value = True_x000D__x000D_
-        patcher_isdir = mock.patch('os.path.isdir')_x000D__x000D_
-        mock_thing_isdir = patcher_isdir.start()_x000D__x000D_
-        mock_thing_isdir.return_value = True_x000D__x000D_
-        mock_subproc_call.return_value = process_sub_mock_x000D__x000D_
-        mock_shut_rmtr.return_value = process_sub_mock_x000D__x000D_
-        mock_shut_mov.return_value = process_sub_mock_x000D__x000D_
-        guardails_obj.validate_return = self.stub_validate_return_x000D__x000D_
-        guardails_obj.mov_cov_report()_x000D__x000D_
+    <t xml:space="preserve">    def test_mov_cov_report(self, mock_subproc_call, mock_shut_rmtr, mock_shut_mov):_x000D_
+        """Function to test mov_cov_report method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        process_sub_mock = mock.Mock()_x000D_
+        patcher_exist = mock.patch('os.path.exists')_x000D_
+        mock_thing = patcher_exist.start()_x000D_
+        mock_thing.return_value = True_x000D_
+        patcher_isdir = mock.patch('os.path.isdir')_x000D_
+        mock_thing_isdir = patcher_isdir.start()_x000D_
+        mock_thing_isdir.return_value = True_x000D_
+        mock_subproc_call.return_value = process_sub_mock_x000D_
+        mock_shut_rmtr.return_value = process_sub_mock_x000D_
+        mock_shut_mov.return_value = process_sub_mock_x000D_
+        guardails_obj.validate_return = self.stub_validate_return_x000D_
+        guardails_obj.mov_cov_report()_x000D_
         self.assertTrue(mock_subproc_call.called)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_orchestrate_guardrails(self):_x000D__x000D_
-        """Function to test orchestrate_guardrails method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        guardails_obj.check_report_dir = Mock()_x000D__x000D_
-        guardails_obj.mov_cov_report = Mock()_x000D__x000D_
-        guardails_obj.mov_cov_report.return_value = True_x000D__x000D_
-        self.assertTrue(guardails_obj.mov_cov_report.return_value)_x000D__x000D_
-        guardails_obj.guardrail_lint = Mock()_x000D__x000D_
-        guardails_obj.guardrail_lint.return_value = True_x000D__x000D_
-        self.assertTrue(guardails_obj.guardrail_lint.return_value)_x000D__x000D_
-        guardails_obj.guardrail_jscpd = Mock()_x000D__x000D_
-        guardails_obj.guardrail_jscpd.return_value = True_x000D__x000D_
-        self.assertTrue(guardails_obj.guardrail_jscpd.return_value)_x000D__x000D_
-        guardails_obj.guardrail_test = Mock()_x000D__x000D_
-        guardails_obj.guardrail_test.return_value = True_x000D__x000D_
-        self.assertTrue(guardails_obj.guardrail_test.return_value)_x000D__x000D_
-        guardails_obj.guardrail_coverage = Mock()_x000D__x000D_
-        guardails_obj.guardrail_coverage.return_value = True_x000D__x000D_
-        self.assertTrue(guardails_obj.guardrail_coverage.return_value)_x000D__x000D_
-        guardails_obj.guardrail_mutation = Mock()_x000D__x000D_
-        guardails_obj.guardrail_mutation.return_value = True_x000D__x000D_
-        self.assertTrue(guardails_obj.guardrail_mutation.return_value)_x000D__x000D_
-        guardails_obj.guardrail_deadcode = Mock()_x000D__x000D_
-        guardails_obj.guardrail_deadcode.return_value = True_x000D__x000D_
-        self.assertTrue(guardails_obj.guardrail_deadcode.return_value)_x000D__x000D_
-        guardails_obj.guardrail_cyclomatic_complexity = Mock()_x000D__x000D_
-        guardails_obj.guardrail_cyclomatic_complexity.return_value = True_x000D__x000D_
-        self.assertTrue(guardails_obj.guardrail_cyclomatic_complexity.return_value)_x000D__x000D_
-        guardails_obj.orchestrate_guardrails()_x000D_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_parse_cyclo_report_xml(self):_x000D__x000D_
-        """Function to test parse_cyclo_report_xml method"""_x000D__x000D_
-        file_name = self.get_file_name("test_resource", "CC.xml")_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        guardails_obj.get_all_func_cnn = Mock()_x000D__x000D_
-        guardails_obj.get_all_func_cnn.return_value = self.stub_get_all_func_cnn_x000D__x000D_
-        assert guardails_obj.parse_cyclo_report_xml(file_name)_x000D__x000D_
-        file_name = self.get_file_name("test_resourc", "CC.xml")_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            guardails_obj.parse_cyclo_report_xml(file_name)_x000D__x000D_
-            line = self.get_log_data(1)_x000D__x000D_
-            self.assertTrue("cc.xml report file path" in line)_x000D__x000D_
-            file_name = self.get_file_name("test_resource", "CC_test.xml")_x000D__x000D_
-            guardails_obj.parse_cyclo_report_xml(file_name)_x000D__x000D_
-            file_name = self.get_file_name("test_resource", "CC_test_None.xml")_x000D__x000D_
-            guardails_obj.parse_cyclo_report_xml(file_name)_x000D__x000D_
-            line = self.get_log_data(1)_x000D__x000D_
-            self.assertTrue("tags required are not found in cc.xml report file path" in line)_x000D__x000D_
+    <t xml:space="preserve">    def test_orchestrate_guardrails(self):_x000D_
+        """Function to test orchestrate_guardrails method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        guardails_obj.check_report_dir = Mock()_x000D_
+        guardails_obj.mov_cov_report = Mock()_x000D_
+        guardails_obj.mov_cov_report.return_value = True_x000D_
+        self.assertTrue(guardails_obj.mov_cov_report.return_value)_x000D_
+        guardails_obj.guardrail_lint = Mock()_x000D_
+        guardails_obj.guardrail_lint.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_lint.return_value)_x000D_
+        guardails_obj.guardrail_jscpd = Mock()_x000D_
+        guardails_obj.guardrail_jscpd.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_jscpd.return_value)_x000D_
+        guardails_obj.guardrail_test = Mock()_x000D_
+        guardails_obj.guardrail_test.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_test.return_value)_x000D_
+        guardails_obj.guardrail_coverage = Mock()_x000D_
+        guardails_obj.guardrail_coverage.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_coverage.return_value)_x000D_
+        guardails_obj.guardrail_mutation = Mock()_x000D_
+        guardails_obj.guardrail_mutation.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_mutation.return_value)_x000D_
+        guardails_obj.guardrail_deadcode = Mock()_x000D_
+        guardails_obj.guardrail_deadcode.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_deadcode.return_value)_x000D_
+        guardails_obj.guardrail_cyclomatic_complexity = Mock()_x000D_
+        guardails_obj.guardrail_cyclomatic_complexity.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_cyclomatic_complexity.return_value)_x000D_
+        guardails_obj.orchestrate_guardrails()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_parse_cyclo_report_xml(self):_x000D_
+        """Function to test parse_cyclo_report_xml method"""_x000D_
+        file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        guardails_obj.get_all_func_cnn = Mock()_x000D_
+        guardails_obj.get_all_func_cnn.return_value = self.stub_get_all_func_cnn_x000D_
+        assert guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
+        file_name = self.get_file_name("test_resourc", "CC.xml")_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
+            line = self.get_log_data(1)_x000D_
+            self.assertTrue("cc.xml report file path" in line)_x000D_
+            file_name = self.get_file_name("test_resource", "CC_test.xml")_x000D_
+            guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
+            file_name = self.get_file_name("test_resource", "CC_test_None.xml")_x000D_
+            guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
+            line = self.get_log_data(1)_x000D_
+            self.assertTrue("tags required are not found in cc.xml report file path" in line)_x000D_
             assert exit_mock.called</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_parse_jscpd_report_json(self):_x000D__x000D_
-        """Function to test parse_jscpd_report_json method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        file_name = self.get_file_name("test_resource", "jscpd-report.json")_x000D__x000D_
-        guardails_obj.parse_jscpd_report_json(5, file_name)_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D__x000D_
-            file_name = self.get_file_name("test_resource", "jscpd-report_test.json")_x000D__x000D_
-            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D__x000D_
-            file_name = self.get_file_name("test_resource", "jscpd-report_test _error.json")_x000D__x000D_
-            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D__x000D_
-            assert exit_mock.called_x000D__x000D_
-            line = self.get_log_data(3)_x000D__x000D_
-            self.assertTrue("Guardrail gating, failed jscpd." in line)_x000D__x000D_
-            line = self.get_log_data(4)_x000D__x000D_
-            self.assertTrue("Guardrail gating passed jscpd" in line)_x000D__x000D_
-            line = self.get_log_data(2)_x000D__x000D_
-            self.assertTrue("jscpd report not correctly generated" in line)_x000D__x000D_
-            line = self.get_log_data(1)_x000D__x000D_
+    <t xml:space="preserve">    def test_parse_jscpd_report_json(self):_x000D_
+        """Function to test parse_jscpd_report_json method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        file_name = self.get_file_name("test_resource", "jscpd-report.json")_x000D_
+        guardails_obj.parse_jscpd_report_json(5, file_name)_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
+            file_name = self.get_file_name("test_resource", "jscpd-report_test.json")_x000D_
+            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
+            file_name = self.get_file_name("test_resource", "jscpd-report_test _error.json")_x000D_
+            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
+            assert exit_mock.called_x000D_
+            line = self.get_log_data(3)_x000D_
+            self.assertTrue("Guardrail gating, failed jscpd." in line)_x000D_
+            line = self.get_log_data(4)_x000D_
+            self.assertTrue("Guardrail gating passed jscpd" in line)_x000D_
+            line = self.get_log_data(2)_x000D_
+            self.assertTrue("jscpd report not correctly generated" in line)_x000D_
+            line = self.get_log_data(1)_x000D_
             self.assertTrue("jscpd report not generated" in line)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_parse_mutmut_report_xml(self):_x000D__x000D_
-        """Function to test parse_mutmut_report_xml method"""_x000D__x000D_
-        file_name = self.get_file_name("test_resource", "mutmut.xml")_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D__x000D_
-        line = self.get_log_data(1)_x000D__x000D_
-        self.assertTrue("Guardrail gating, passed mutation" in str(line))_x000D__x000D_
-        file_name = self.get_file_name("test_resourc", "mutmut.xml")_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D__x000D_
-            assert exit_mock.called_x000D__x000D_
-            line = self.get_log_data(1)_x000D__x000D_
-            self.assertTrue("mutmut.xml report file path cound not be found" in line)_x000D_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_validate_return(self):_x000D__x000D_
-        """Function to test validate_return method"""_x000D__x000D_
-        list_test = [[1, "test", True, "Guardrail , failed test."], [0, "test", False, "Guardrail task, passed test."]]_x000D__x000D_
-        for i, _ in enumerate(list_test):_x000D__x000D_
-            assert self.get_validate_return(list_test[i][0], list_test[i][1], list_test[i][2]).strip() \_x000D__x000D_
+    <t xml:space="preserve">    def test_parse_mutmut_report_xml(self):_x000D_
+        """Function to test parse_mutmut_report_xml method"""_x000D_
+        file_name = self.get_file_name("test_resource", "mutmut.xml")_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D_
+        line = self.get_log_data(1)_x000D_
+        self.assertTrue("Guardrail gating, passed mutation" in str(line))_x000D_
+        file_name = self.get_file_name("test_resourc", "mutmut.xml")_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D_
+            assert exit_mock.called_x000D_
+            line = self.get_log_data(1)_x000D_
+            self.assertTrue("mutmut.xml report file path cound not be found" in line)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_validate_return(self):_x000D_
+        """Function to test validate_return method"""_x000D_
+        list_test = [[1, "test", True, "Guardrail , failed test."], [0, "test", False, "Guardrail task, passed test."]]_x000D_
+        for i, _ in enumerate(list_test):_x000D_
+            assert self.get_validate_return(list_test[i][0], list_test[i][1], list_test[i][2]).strip() \_x000D_
                    == list_test[i][3]</t>
   </si>
   <si>
@@ -2490,7 +2477,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2498,7 +2485,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2506,7 +2493,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2514,7 +2501,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2522,7 +2509,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2530,7 +2517,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2538,7 +2525,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2546,7 +2533,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2554,7 +2541,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2562,7 +2549,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2570,7 +2557,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2578,7 +2565,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2586,7 +2573,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2594,7 +2581,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2602,7 +2589,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2610,7 +2597,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2618,7 +2605,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2626,7 +2613,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2634,7 +2621,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2642,7 +2629,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2650,7 +2637,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2658,7 +2645,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2666,7 +2653,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2674,7 +2661,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2682,7 +2669,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2690,7 +2677,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2698,7 +2685,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2706,7 +2693,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2714,7 +2701,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2722,7 +2709,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2730,7 +2717,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2738,7 +2725,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2746,7 +2733,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2754,7 +2741,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2762,7 +2749,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2770,7 +2757,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2778,7 +2765,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2786,7 +2773,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2794,7 +2781,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2802,7 +2789,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2810,7 +2797,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2818,7 +2805,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2826,7 +2813,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2834,7 +2821,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2842,7 +2829,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2850,7 +2837,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2858,7 +2845,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2866,7 +2853,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2874,7 +2861,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2882,7 +2869,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2890,7 +2877,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2898,7 +2885,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2906,7 +2893,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2914,7 +2901,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2922,7 +2909,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2930,7 +2917,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2938,7 +2925,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2946,7 +2933,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2954,7 +2941,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2962,7 +2949,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2970,7 +2957,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2978,7 +2965,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2986,7 +2973,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2994,7 +2981,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3002,7 +2989,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3010,7 +2997,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3018,7 +3005,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3026,7 +3013,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3034,7 +3021,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3042,7 +3029,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3050,7 +3037,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3058,7 +3045,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3066,7 +3053,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3074,7 +3061,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3082,7 +3069,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3090,7 +3077,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3098,7 +3085,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/test_resource/codeextractor_T_T_A.xlsx
+++ b/test_resource/codeextractor_T_T_A.xlsx
@@ -52,13 +52,13 @@
     <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\HelloController.java_meth</t>
   </si>
   <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\Python_annot_file.py_create_parser</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\Python_annot_file.py_validate_return</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\Python_file.py_create_parser</t>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\python_annot_file.py_create_parser</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\python_annot_file.py_validate_return</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\python_file.py_create_parser</t>
   </si>
   <si>
     <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_c.c_main</t>

--- a/test_resource/codeextractor_T_T_A.xlsx
+++ b/test_resource/codeextractor_T_T_A.xlsx
@@ -22,265 +22,265 @@
     <t>Uniq ID</t>
   </si>
   <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_afterAll</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_beforeAll</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_getCerberusCommandLineUsageString</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCallMethod</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebrusWithArguments</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebruswithOutArguments</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebruswithWrongArguments</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\HelloController.java_index1</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\HelloController.java_index2</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\HelloController.java_meth</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\python_annot_file.py_create_parser</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\python_annot_file.py_validate_return</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\python_file.py_create_parser</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_c.c_main</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_c.c_swap</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_cpp_code.cpp_main</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_cpp_code.cpp_relational_operation</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_generate_pylint_cmd</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_check_pass_fail_status</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_file_name</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_guardrails_obj</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_log_data</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_test_guardrail_gate_status</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_test_guardrail_gate_status_fail</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_validate_return</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_return_jscpd_false</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_setUp</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_stub_get_all_func_cnn</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_stub_globals</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_stub_validate_return</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_tearDown</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_call_subprocess_error</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_call_subprocess_noerror</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_check_pass_fail_success</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_check_report_dir</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_file_exists</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_file_exists_exit</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_get_all_func_cnn</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_get_index_cnn</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_coverage</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_coverage_fail</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_cyclomatic_complexity</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_deadcode</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_deadcode_fail</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_jscpd</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_jscpd_fail</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_lint</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_mutation</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_test</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_test_fail</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_list_to_str_folders</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_mov_cov_report</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_orchestrate_guardrails</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_cyclo_report_xml</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_jscpd_report_json</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_mutmut_report_xml</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_validate_return</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_ARSorting</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_AutoRefreshImport</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_ChangePatientDetails</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_Choosefolder</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_DeidentifyPatientDetails</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_DeleteAllStudies</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_GetPictorialIndex</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_GetPictorialIndexSeriesNobyDescription</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_PIContextMenuCopyTo</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_PIContextMenuCopyToRighClick</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_PIToggle</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_ProgressBar</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_RightClickPISelectedSeries</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_RunScriptsinRemoteSystem</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_SelectPISeriesByMouseHover</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_SelectPictorialSeriesByIndexvalue</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_SelectPictorialSeriesBySeriesValue</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_SeriesFilesCount</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_SeriesReportCount</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_SeriesSelect</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_VerifyCSROIApplication</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_VerifyisPatientSelected</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_runNetworkLogin</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_runNetworkLogout</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\test\TestHelloController.java_Test_AddMethod</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\tst\TstHelloController.java_Test_AddMethod</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\tst\test.cs_Test_AddMethod</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\tst\test.cs_Test_DivideMethod</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\tst\test.cs_Test_MultiplyMethod</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\tst\test.cs_Test_SubstractMethod</t>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_afterAll</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_beforeAll</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_getCerberusCommandLineUsageString</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCallMethod</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebrusWithArguments</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebruswithOutArguments</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebruswithWrongArguments</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\HelloController.java_index1</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\HelloController.java_index2</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\HelloController.java_meth</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\python_annot_file.py_create_parser</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\python_annot_file.py_validate_return</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\python_file.py_create_parser</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_c.c_main</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_c.c_swap</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_cpp_code.cpp_main</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_cpp_code.cpp_relational_operation</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_generate_pylint_cmd</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_check_pass_fail_status</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_file_name</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_guardrails_obj</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_log_data</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_test_guardrail_gate_status</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_test_guardrail_gate_status_fail</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_validate_return</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_return_jscpd_false</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_setUp</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_stub_get_all_func_cnn</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_stub_globals</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_stub_validate_return</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_tearDown</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_call_subprocess_error</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_call_subprocess_noerror</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_check_pass_fail_success</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_check_report_dir</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_file_exists</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_file_exists_exit</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_get_all_func_cnn</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_get_index_cnn</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_coverage</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_coverage_fail</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_cyclomatic_complexity</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_deadcode</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_deadcode_fail</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_jscpd</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_jscpd_fail</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_lint</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_mutation</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_test</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_test_fail</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_list_to_str_folders</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_mov_cov_report</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_orchestrate_guardrails</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_cyclo_report_xml</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_jscpd_report_json</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_mutmut_report_xml</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_validate_return</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_ARSorting</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_AutoRefreshImport</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_ChangePatientDetails</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_Choosefolder</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_DeidentifyPatientDetails</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_DeleteAllStudies</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_GetPictorialIndex</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_GetPictorialIndexSeriesNobyDescription</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_PIContextMenuCopyTo</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_PIContextMenuCopyToRighClick</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_PIToggle</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_ProgressBar</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_RightClickPISelectedSeries</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_RunScriptsinRemoteSystem</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_SelectPISeriesByMouseHover</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_SelectPictorialSeriesByIndexvalue</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_SelectPictorialSeriesBySeriesValue</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_SeriesFilesCount</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_SeriesReportCount</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_SeriesSelect</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_VerifyCSROIApplication</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_VerifyisPatientSelected</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_runNetworkLogin</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_runNetworkLogout</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\test\TestHelloController.java_Test_AddMethod</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\tst\TstHelloController.java_Test_AddMethod</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\tst\test.cs_Test_AddMethod</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\tst\test.cs_Test_DivideMethod</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\tst\test.cs_Test_MultiplyMethod</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\tst\test.cs_Test_SubstractMethod</t>
   </si>
   <si>
     <t xml:space="preserve">public void afterAll() {_x000D_

--- a/test_resource/codeextractor_T_T_A.xlsx
+++ b/test_resource/codeextractor_T_T_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="183">
   <si>
     <t>Code</t>
   </si>
@@ -22,265 +22,277 @@
     <t>Uniq ID</t>
   </si>
   <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_afterAll</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_beforeAll</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_getCerberusCommandLineUsageString</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCallMethod</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebrusWithArguments</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebruswithOutArguments</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebruswithWrongArguments</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\HelloController.java_index1</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\HelloController.java_index2</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\HelloController.java_meth</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\python_annot_file.py_create_parser</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\python_annot_file.py_validate_return</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\python_file.py_create_parser</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_c.c_main</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_c.c_swap</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_cpp_code.cpp_main</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_cpp_code.cpp_relational_operation</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_generate_pylint_cmd</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_check_pass_fail_status</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_file_name</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_guardrails_obj</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_log_data</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_test_guardrail_gate_status</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_test_guardrail_gate_status_fail</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_validate_return</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_return_jscpd_false</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_setUp</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_stub_get_all_func_cnn</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_stub_globals</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_stub_validate_return</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_tearDown</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_call_subprocess_error</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_call_subprocess_noerror</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_check_pass_fail_success</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_check_report_dir</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_file_exists</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_file_exists_exit</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_get_all_func_cnn</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_get_index_cnn</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_coverage</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_coverage_fail</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_cyclomatic_complexity</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_deadcode</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_deadcode_fail</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_jscpd</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_jscpd_fail</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_lint</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_mutation</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_test</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_test_fail</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_list_to_str_folders</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_mov_cov_report</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_orchestrate_guardrails</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_cyclo_report_xml</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_jscpd_report_json</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_mutmut_report_xml</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_validate_return</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_ARSorting</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_AutoRefreshImport</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_ChangePatientDetails</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_Choosefolder</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_DeidentifyPatientDetails</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_DeleteAllStudies</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_GetPictorialIndex</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_GetPictorialIndexSeriesNobyDescription</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_PIContextMenuCopyTo</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_PIContextMenuCopyToRighClick</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_PIToggle</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_ProgressBar</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_RightClickPISelectedSeries</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_RunScriptsinRemoteSystem</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_SelectPISeriesByMouseHover</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_SelectPictorialSeriesByIndexvalue</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_SelectPictorialSeriesBySeriesValue</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_SeriesFilesCount</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_SeriesReportCount</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_SeriesSelect</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_VerifyCSROIApplication</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_VerifyisPatientSelected</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_runNetworkLogin</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\src\test_repo.java_runNetworkLogout</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\test\TestHelloController.java_Test_AddMethod</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\tst\TstHelloController.java_Test_AddMethod</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\tst\test.cs_Test_AddMethod</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\tst\test.cs_Test_DivideMethod</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\tst\test.cs_Test_MultiplyMethod</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\functiondefextractor\test_resource\test_repo\tst\test.cs_Test_SubstractMethod</t>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_afterAll</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_beforeAll</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_getCerberusCommandLineUsageString</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCallMethod</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebrusWithArguments</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebruswithOutArguments</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebruswithWrongArguments</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\HelloController.java_index1</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\HelloController.java_index2</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\HelloController.java_meth</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\python_annot_file.py_create_parser</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\python_annot_file.py_validate_return</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\python_file.py_create_parser</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_c.c_main</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_c.c_swap</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_cpp_code.cpp_main</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_cpp_code.cpp_relational_operation</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_generate_pylint_cmd</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_check_pass_fail_status</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_file_name</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_guardrails_obj</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_log_data</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_test_guardrail_gate_status</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_test_guardrail_gate_status_fail</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_get_validate_return</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_return_jscpd_false</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_setUp</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_stub_get_all_func_cnn</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_stub_globals</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_stub_validate_return</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_tearDown</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_call_subprocess_error</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_call_subprocess_noerror</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_check_pass_fail_success</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_check_report_dir</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_file_exists</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_file_exists_exit</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_get_all_func_cnn</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_get_index_cnn</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_coverage</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_coverage_fail</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_cyclomatic_complexity</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_deadcode</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_deadcode_fail</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_jscpd</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_jscpd_fail</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_lint</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_mutation</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_test</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_test_fail</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_list_to_str_folders</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_mov_cov_report</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_orchestrate_guardrails</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_cyclo_report_xml</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_jscpd_report_json</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_mutmut_report_xml</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_validate_return</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_ARSorting</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_AutoRefreshImport</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_ChangePatientDetails</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_Choosefolder</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_DeidentifyPatientDetails</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_DeleteAllStudies</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_GetPictorialIndex</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_GetPictorialIndexSeriesNobyDescription</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_PIContextMenuCopyTo</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_PIContextMenuCopyToRighClick</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_PIToggle</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_ProgressBar</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_RightClickPISelectedSeries</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_RunScriptsinRemoteSystem</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_SelectPISeriesByMouseHover</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_SelectPictorialSeriesByIndexvalue</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_SelectPictorialSeriesBySeriesValue</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_SeriesFilesCount</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_SeriesReportCount</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_SeriesSelect</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_VerifyCSROIApplication</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_VerifyisPatientSelected</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_runNetworkLogin</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_runNetworkLogout</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\typescript_sample.js_Student</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\typescript_sample.js_greeter</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\typescript_sample.ts_constructor</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\typescript_sample.ts_greeter</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\test\TestHelloController.java_Test_AddMethod</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\tst\TstHelloController.java_Test_AddMethod</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\tst\test.cs_Test_AddMethod</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\tst\test.cs_Test_DivideMethod</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\tst\test.cs_Test_MultiplyMethod</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\tst\test.cs_Test_SubstractMethod</t>
   </si>
   <si>
     <t xml:space="preserve">public void afterAll() {_x000D_
@@ -1988,6 +2000,36 @@
 Tasks = NetworkSuite["Jobs"]["ItemByName"]("Login")["Tasks"]_x000D_
 Task = Tasks["Items"](2)_x000D_
 Task["Run"](true)_x000D_
+}_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var Student = /** @class */ (function () {_x000D_
+function Student(firstName, middleInitial, lastName) {_x000D_
+this.firstName = firstName_x000D_
+this.middleInitial = middleInitial_x000D_
+this.lastName = lastName_x000D_
+this.fullName = firstName + " " + middleInitial + " " + lastName_x000D_
+}_x000D_
+return Student_x000D_
+}())_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function greeter(person) {_x000D_
+return "Hello, " + person.firstName + " " + person.lastName_x000D_
+}_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constructor(public firstName: string, public middleInitial: string, public lastName: string) {_x000D_
+this.fullName = firstName + " " + middleInitial + " " + lastName_x000D_
+}_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function greeter(person: Person) {_x000D_
+return "Hello, " + person.firstName + " " + person.lastName_x000D_
 }_x000D_
 </t>
   </si>
@@ -2395,7 +2437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2414,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2422,7 +2464,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2430,7 +2472,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2438,7 +2480,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2446,7 +2488,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2454,7 +2496,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2462,7 +2504,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2470,7 +2512,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2478,7 +2520,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2486,7 +2528,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2494,7 +2536,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2502,7 +2544,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2510,7 +2552,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2518,7 +2560,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2526,7 +2568,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2534,7 +2576,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2542,7 +2584,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2550,7 +2592,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2558,7 +2600,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2566,7 +2608,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2574,7 +2616,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2582,7 +2624,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2590,7 +2632,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2598,7 +2640,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2606,7 +2648,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2614,7 +2656,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2622,7 +2664,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2630,7 +2672,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2638,7 +2680,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2646,7 +2688,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2654,7 +2696,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2662,7 +2704,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2670,7 +2712,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2678,7 +2720,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2686,7 +2728,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2694,7 +2736,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2702,7 +2744,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2710,7 +2752,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2718,7 +2760,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2726,7 +2768,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2734,7 +2776,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2742,7 +2784,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2750,7 +2792,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2758,7 +2800,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2766,7 +2808,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2774,7 +2816,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2782,7 +2824,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2790,7 +2832,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2798,7 +2840,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2806,7 +2848,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2814,7 +2856,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2822,7 +2864,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2830,7 +2872,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2838,7 +2880,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2846,7 +2888,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2854,7 +2896,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2862,7 +2904,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2870,7 +2912,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2878,7 +2920,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2886,7 +2928,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2894,7 +2936,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2902,7 +2944,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2910,7 +2952,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2918,7 +2960,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2926,7 +2968,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2934,7 +2976,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2942,7 +2984,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2950,7 +2992,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2958,7 +3000,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2966,7 +3008,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2974,7 +3016,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2982,7 +3024,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2990,7 +3032,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2998,7 +3040,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3006,7 +3048,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3014,7 +3056,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3022,7 +3064,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3030,7 +3072,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3038,7 +3080,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3046,7 +3088,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3054,7 +3096,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3062,55 +3104,55 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3118,7 +3160,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>174</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/test_resource/codeextractor_T_T_A.xlsx
+++ b/test_resource/codeextractor_T_T_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="181">
   <si>
     <t>Code</t>
   </si>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_repo.java_runNetworkLogout</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\typescript_sample.js_Student</t>
   </si>
   <si>
     <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\typescript_sample.js_greeter</t>
@@ -2001,18 +1998,6 @@
 Task = Tasks["Items"](2)_x000D_
 Task["Run"](true)_x000D_
 }_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">var Student = /** @class */ (function () {_x000D_
-function Student(firstName, middleInitial, lastName) {_x000D_
-this.firstName = firstName_x000D_
-this.middleInitial = middleInitial_x000D_
-this.lastName = lastName_x000D_
-this.fullName = firstName + " " + middleInitial + " " + lastName_x000D_
-}_x000D_
-return Student_x000D_
-}())_x000D_
 </t>
   </si>
   <si>
@@ -2437,7 +2422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2456,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2464,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2472,7 +2457,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2480,7 +2465,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2488,7 +2473,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2496,7 +2481,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2504,7 +2489,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2512,7 +2497,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2520,7 +2505,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2528,7 +2513,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2536,7 +2521,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2544,7 +2529,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2552,7 +2537,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2560,7 +2545,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2568,7 +2553,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2576,7 +2561,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2584,7 +2569,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2592,7 +2577,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2600,7 +2585,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2608,7 +2593,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2616,7 +2601,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2624,7 +2609,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2632,7 +2617,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2640,7 +2625,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2648,7 +2633,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2656,7 +2641,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2664,7 +2649,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2672,7 +2657,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2680,7 +2665,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2688,7 +2673,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2696,7 +2681,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2704,7 +2689,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2712,7 +2697,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2720,7 +2705,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2728,7 +2713,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2736,7 +2721,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2744,7 +2729,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2752,7 +2737,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2760,7 +2745,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2768,7 +2753,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2776,7 +2761,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2784,7 +2769,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2792,7 +2777,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2800,7 +2785,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2808,7 +2793,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2816,7 +2801,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2824,7 +2809,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2832,7 +2817,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2840,7 +2825,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2848,7 +2833,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2856,7 +2841,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2864,7 +2849,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2872,7 +2857,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2880,7 +2865,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2888,7 +2873,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2896,7 +2881,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2904,7 +2889,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2912,7 +2897,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2920,7 +2905,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2928,7 +2913,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2936,7 +2921,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2944,7 +2929,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2952,7 +2937,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2960,7 +2945,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2968,7 +2953,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2976,7 +2961,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2984,7 +2969,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2992,7 +2977,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3000,7 +2985,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3008,7 +2993,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3016,7 +3001,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -3024,7 +3009,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3032,7 +3017,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3040,7 +3025,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3048,7 +3033,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3056,7 +3041,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3064,7 +3049,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3072,7 +3057,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3080,7 +3065,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3088,7 +3073,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3096,7 +3081,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3104,7 +3089,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3112,7 +3097,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3120,7 +3105,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3128,15 +3113,15 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3144,15 +3129,15 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3160,7 +3145,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3168,7 +3153,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3176,7 +3161,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -3184,15 +3169,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
